--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8893464-98E6-4D1A-BCC8-8FBC69C14CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77237295-D49D-4417-A36E-564C3F392D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -133,9 +136,6 @@
     <t>Melchor Ocampo</t>
   </si>
   <si>
-    <t>Linares</t>
-  </si>
-  <si>
     <t>Juventud Justialista, A.C.</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Esperanza Regia, A.C.</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -833,7 +836,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7">
         <v>44708</v>
@@ -861,7 +864,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7">
         <v>44719</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4">
         <v>44719</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="20" spans="1:4" ht="25.5">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>44723</v>
@@ -917,7 +920,7 @@
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7">
         <v>44730</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="12">
         <v>44734</v>
@@ -959,7 +962,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10">
         <v>44734</v>
@@ -1001,7 +1004,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="12">
         <v>44736</v>
@@ -1071,7 +1074,7 @@
     </row>
     <row r="32" spans="1:4" ht="25.5">
       <c r="A32" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="10">
         <v>44744</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="10">
         <v>44747</v>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="12">
         <v>44747</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="10">
         <v>44748</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="12">
         <v>44749</v>
@@ -1181,31 +1184,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="10">
+    <row r="40" spans="1:4" ht="25.5">
+      <c r="A40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="12">
+        <v>44751</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="10">
         <v>44753</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C41" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25.5">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+      <sortCondition ref="B1:B41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77237295-D49D-4417-A36E-564C3F392D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E55B71-5667-458A-871E-065B543841DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Municipio</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Mier y Noriega</t>
   </si>
 </sst>
 </file>
@@ -623,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D2:D41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1212,6 +1215,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="12">
+        <v>44758</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E55B71-5667-458A-871E-065B543841DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BDC64B-D58A-4958-8B0B-B74D7F7BFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>Municipio</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Mier y Noriega</t>
+  </si>
+  <si>
+    <t>Apodaca</t>
   </si>
 </sst>
 </file>
@@ -626,15 +629,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="36.25" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -1227,6 +1230,34 @@
       </c>
       <c r="D42" s="14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25.5">
+      <c r="A43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="12">
+        <v>44758</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="10">
+        <v>44771</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BDC64B-D58A-4958-8B0B-B74D7F7BFCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84D344E-E2D6-43E4-91B9-35A8F4F4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Municipio</t>
   </si>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1247,22 +1247,36 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="12">
+        <v>44768</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="10">
         <v>44771</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C45" s="11">
         <v>0.75</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84D344E-E2D6-43E4-91B9-35A8F4F4FBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017A0F2-4A5D-44F5-BF81-1699A2541B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
   <si>
     <t>Municipio</t>
   </si>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1274,6 +1274,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017A0F2-4A5D-44F5-BF81-1699A2541B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74307F86-FDED-4A3B-85C4-26500DE10B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>Municipio</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Apodaca</t>
+  </si>
+  <si>
+    <t>Gral. Zuazua</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1247,7 +1250,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="12">
@@ -1261,36 +1264,64 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15" t="s">
-        <v>34</v>
+      <c r="A45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B45" s="10">
-        <v>44771</v>
+        <v>44769</v>
       </c>
       <c r="C45" s="11">
         <v>0.75</v>
       </c>
       <c r="D45" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44771</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="15" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="10">
+        <v>44776</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B48" s="10">
         <v>44780</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C48" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D45">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74307F86-FDED-4A3B-85C4-26500DE10B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502592D3-EA9D-4B00-9AA7-A5107151F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Municipio</t>
   </si>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1292,36 +1292,64 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="10">
-        <v>44776</v>
-      </c>
-      <c r="C47" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>24</v>
+      <c r="A47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="12">
+        <v>44775</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="10">
+        <v>44776</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B49" s="10">
         <v>44780</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C49" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="10">
+        <v>44787</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502592D3-EA9D-4B00-9AA7-A5107151F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F4011-0EC6-43CB-8315-9DA5E6298E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
   <si>
     <t>Municipio</t>
   </si>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1291,46 +1291,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" ht="25.5">
       <c r="A47" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="12">
-        <v>44775</v>
+        <v>44772</v>
       </c>
       <c r="C47" s="13">
         <v>0.47916666666666669</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="12">
+        <v>44775</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="10">
-        <v>44776</v>
-      </c>
-      <c r="C48" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="15" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B49" s="10">
-        <v>44780</v>
+        <v>44776</v>
       </c>
       <c r="C49" s="11">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1338,18 +1338,32 @@
         <v>34</v>
       </c>
       <c r="B50" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="10">
         <v>44787</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C51" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F4011-0EC6-43CB-8315-9DA5E6298E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A39D65-C2FD-4E66-A59D-9AB8EA5A8427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t>Municipio</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Gral. Zuazua</t>
+  </si>
+  <si>
+    <t>Lampazos de Naranjo</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1333,18 +1336,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="10">
-        <v>44780</v>
-      </c>
-      <c r="C50" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>14</v>
+    <row r="50" spans="1:4" ht="25.5">
+      <c r="A50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="12">
+        <v>44777</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1352,18 +1355,32 @@
         <v>34</v>
       </c>
       <c r="B51" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="10">
         <v>44787</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C52" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A39D65-C2FD-4E66-A59D-9AB8EA5A8427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD07B63-26A0-41FE-B10C-AFC8BDEE1C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Municipio</t>
   </si>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1351,17 +1351,17 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="10">
-        <v>44780</v>
-      </c>
-      <c r="C51" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>14</v>
+      <c r="A51" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="12">
+        <v>44778</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1369,18 +1369,46 @@
         <v>34</v>
       </c>
       <c r="B52" s="10">
+        <v>44779</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="10">
         <v>44787</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C54" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD07B63-26A0-41FE-B10C-AFC8BDEE1C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B76A2F-5475-4138-9C6E-F7DCC71B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Municipio</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Lampazos de Naranjo</t>
+  </si>
+  <si>
+    <t>Agualeguas</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="D55" sqref="D55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1394,21 +1397,49 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="10">
+        <v>44781</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="12">
+        <v>44781</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B56" s="10">
         <v>44787</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C56" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B76A2F-5475-4138-9C6E-F7DCC71B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB3F07-55EB-48D5-B1E6-3123B57C4645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>Municipio</t>
   </si>
@@ -638,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D56"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1381,65 +1381,121 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="10">
-        <v>44780</v>
-      </c>
-      <c r="C53" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>14</v>
+    <row r="53" spans="1:4" ht="25.5">
+      <c r="A53" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="12">
+        <v>44779</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B54" s="10">
-        <v>44781</v>
+        <v>44780</v>
       </c>
       <c r="C54" s="11">
-        <v>0.48958333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="10">
         <v>44781</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="12">
+        <v>44781</v>
+      </c>
+      <c r="C56" s="13">
         <v>0.75</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B57" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="10">
+        <v>44786</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="10">
         <v>44787</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C59" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="10">
+        <v>44794</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB3F07-55EB-48D5-B1E6-3123B57C4645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD649F7E-038F-447A-9810-FA2D0E4CD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>Municipio</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Agualeguas</t>
+  </si>
+  <si>
+    <t>Vallecillo</t>
+  </si>
+  <si>
+    <t>Vida Democrática Activa en Nuevo León A.C.</t>
+  </si>
+  <si>
+    <t>Anáhuac</t>
   </si>
 </sst>
 </file>
@@ -278,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,6 +330,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1453,16 +1465,16 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B58" s="10">
-        <v>44786</v>
+        <v>44784</v>
       </c>
       <c r="C58" s="11">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1470,32 +1482,88 @@
         <v>34</v>
       </c>
       <c r="B59" s="10">
+        <v>44786</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="25.5">
+      <c r="A60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="12">
+        <v>44786</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="12">
+        <v>44786</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="10">
         <v>44787</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C62" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D62" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B63" s="10">
         <v>44794</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C63" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D63" s="15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="16">
+        <v>44805</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD649F7E-038F-447A-9810-FA2D0E4CD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647BFE1-2B97-4D4A-A2FC-04C3D1821C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Municipio</t>
   </si>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -282,12 +282,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,6 +348,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1533,37 +1563,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="25.5">
       <c r="A63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B63" s="10">
-        <v>44794</v>
+        <v>44790</v>
       </c>
       <c r="C63" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="16">
+        <v>44794</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="18">
+        <v>44800</v>
+      </c>
+      <c r="C65" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B66" s="16">
         <v>44805</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C66" s="17">
         <v>0.75</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D66" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647BFE1-2B97-4D4A-A2FC-04C3D1821C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068E5646-5A50-4711-91FC-969990B15525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Municipio</t>
   </si>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1593,35 +1593,49 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="18">
+        <v>44794</v>
+      </c>
+      <c r="C65" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B66" s="18">
         <v>44800</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C66" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D66" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="15" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B67" s="16">
         <v>44805</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C67" s="17">
         <v>0.75</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D67" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D67">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068E5646-5A50-4711-91FC-969990B15525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D0737-6BA0-446A-B71C-CC3A5FEC0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$41</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>Municipio</t>
   </si>
@@ -680,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:D67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1563,79 +1563,121 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.5">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="12">
+        <v>44789</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="18">
+        <v>44789</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="25.5">
+      <c r="A65" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B65" s="16">
         <v>44790</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C65" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D65" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="16">
-        <v>44794</v>
-      </c>
-      <c r="C64" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="18">
-        <v>44794</v>
-      </c>
-      <c r="C65" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="18">
-        <v>44800</v>
-      </c>
-      <c r="C66" s="19">
+      <c r="B66" s="16">
+        <v>44791</v>
+      </c>
+      <c r="C66" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D66" s="21" t="s">
-        <v>31</v>
+      <c r="D66" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="16">
+        <v>44794</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="18">
+        <v>44794</v>
+      </c>
+      <c r="C68" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="18">
+        <v>44800</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B70" s="16">
         <v>44805</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C70" s="17">
         <v>0.75</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D70" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D67">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D0737-6BA0-446A-B71C-CC3A5FEC0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D241BDB0-3731-4B14-9933-71EBD8CBC744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Municipio</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Anáhuac</t>
+  </si>
+  <si>
+    <t>Dr. Arroyo</t>
   </si>
 </sst>
 </file>
@@ -680,9 +683,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -1621,63 +1624,77 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="16">
+        <v>44793</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B68" s="16">
         <v>44794</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C68" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="18">
-        <v>44794</v>
-      </c>
-      <c r="C68" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="18">
+        <v>44794</v>
+      </c>
+      <c r="C69" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B70" s="18">
         <v>44800</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C70" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D70" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B71" s="16">
         <v>44805</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C71" s="17">
         <v>0.75</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D241BDB0-3731-4B14-9933-71EBD8CBC744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE471440-9677-4397-AD59-B87ED30424A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
   <si>
     <t>Municipio</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Dr. Arroyo</t>
+  </si>
+  <si>
+    <t>Ciénega de Flores</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1666,35 +1669,49 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="18">
+        <v>44798</v>
+      </c>
+      <c r="C70" s="19">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B71" s="18">
         <v>44800</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C71" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D71" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="15" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B72" s="16">
         <v>44805</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C72" s="17">
         <v>0.75</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D72" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE471440-9677-4397-AD59-B87ED30424A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2B000-FDCA-453B-AAE3-A23954962A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>Municipio</t>
   </si>
@@ -686,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1686,32 +1686,46 @@
         <v>34</v>
       </c>
       <c r="B71" s="18">
+        <v>44799</v>
+      </c>
+      <c r="C71" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="18">
         <v>44800</v>
       </c>
-      <c r="C71" s="19">
+      <c r="C72" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D72" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B73" s="16">
         <v>44805</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C73" s="17">
         <v>0.75</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D73" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D72">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2B000-FDCA-453B-AAE3-A23954962A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6533CEB-FE08-4759-BE30-BCAA4DEE6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>Municipio</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Ciénega de Flores</t>
+  </si>
+  <si>
+    <t>Vida Democrática Activa en Nuevo León, A.C.</t>
+  </si>
+  <si>
+    <t>Cadereyta Jiménez</t>
   </si>
 </sst>
 </file>
@@ -686,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1710,22 +1716,36 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="18">
+        <v>44800</v>
+      </c>
+      <c r="C73" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B74" s="4">
         <v>44805</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
         <v>0.75</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D74" s="20" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6533CEB-FE08-4759-BE30-BCAA4DEE6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAEB950-ABDA-470C-ABE1-5E8CAC71F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -694,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -1703,44 +1703,44 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B72" s="18">
         <v>44800</v>
       </c>
       <c r="C72" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="16">
+        <v>44805</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="7">
+        <v>44807</v>
+      </c>
+      <c r="C74" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D74" s="21" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="18">
-        <v>44800</v>
-      </c>
-      <c r="C73" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="4">
-        <v>44805</v>
-      </c>
-      <c r="C74" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAEB950-ABDA-470C-ABE1-5E8CAC71F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433A53A-3BEA-4282-B284-5EBE8329B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
   <si>
     <t>Municipio</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Cadereyta Jiménez</t>
+  </si>
+  <si>
+    <t>Los Herreras</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1717,35 +1720,49 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="16">
+        <v>44800</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B74" s="4">
         <v>44805</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C74" s="17">
         <v>0.75</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D74" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B75" s="7">
         <v>44807</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C75" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D75" s="21" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433A53A-3BEA-4282-B284-5EBE8329B397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F78F34-628A-4159-A6F9-FBDD579AC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Municipio</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Los Herreras</t>
+  </si>
+  <si>
+    <t>Santiago</t>
   </si>
 </sst>
 </file>
@@ -695,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1733,36 +1736,50 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="7">
+        <v>44801</v>
+      </c>
+      <c r="C74" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B75" s="4">
         <v>44805</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C75" s="17">
         <v>0.75</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="6" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B76" s="7">
         <v>44807</v>
       </c>
-      <c r="C75" s="19">
+      <c r="C76" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D76" s="21" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D75">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F78F34-628A-4159-A6F9-FBDD579AC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C57066-1666-4D2B-AF2A-A82A2BDC21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>Municipio</t>
   </si>
@@ -698,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1751,35 +1751,63 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B75" s="4">
-        <v>44805</v>
+        <v>44801</v>
       </c>
       <c r="C75" s="17">
-        <v>0.75</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="7">
+        <v>44801</v>
+      </c>
+      <c r="C76" s="19">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44805</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B78" s="7">
         <v>44807</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C78" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D78" s="21" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D76">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C57066-1666-4D2B-AF2A-A82A2BDC21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED6E5D-4EF5-435A-B438-FB1A43624525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t>Municipio</t>
   </si>
@@ -698,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1805,6 +1805,34 @@
         <v>31</v>
       </c>
     </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="4">
+        <v>44808</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C80" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED6E5D-4EF5-435A-B438-FB1A43624525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D4FF5-8785-4C96-B038-DBB5BFB014E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
   <si>
     <t>Municipio</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Santiago</t>
+  </si>
+  <si>
+    <t>Salinas Victoria</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1779,63 +1782,105 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44804</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>44805</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C78" s="17">
         <v>0.75</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D78" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="6" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B79" s="7">
         <v>44807</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C79" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D79" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B80" s="16">
         <v>44808</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C80" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D80" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="16">
+        <v>44810</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B82" s="18">
         <v>44814</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C82" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D82" s="21" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C83" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D4FF5-8785-4C96-B038-DBB5BFB014E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E344F81-1D7E-4C3F-981A-A2EB01B47FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
   <si>
     <t>Municipio</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Salinas Victoria</t>
+  </si>
+  <si>
+    <t>Santa Catarina</t>
+  </si>
+  <si>
+    <t>Gral. Escobedo</t>
   </si>
 </sst>
 </file>
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1824,63 +1830,231 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B80" s="16">
-        <v>44808</v>
+        <v>44807</v>
       </c>
       <c r="C80" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="16">
+        <v>44808</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="16">
+        <v>44808</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B83" s="16">
         <v>44810</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C83" s="17">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D83" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="18">
+        <v>44813</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B85" s="18">
         <v>44814</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C85" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D85" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="18">
+    <row r="86" spans="1:4">
+      <c r="A86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="18">
         <v>44814</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C86" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D86" s="21" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="25.5">
+      <c r="A87" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C87" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C88" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C89" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C90" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C91" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C92" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C93" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C94" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C95" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E344F81-1D7E-4C3F-981A-A2EB01B47FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA82E4-E97B-4AE5-9E6A-D6365AA76A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
   <si>
     <t>Municipio</t>
   </si>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1842,116 +1842,116 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="25.5">
       <c r="A81" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="16">
-        <v>44808</v>
+        <v>44807</v>
       </c>
       <c r="C81" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B82" s="16">
         <v>44808</v>
       </c>
       <c r="C82" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="16">
+        <v>44808</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B84" s="16">
         <v>44810</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C84" s="17">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D84" s="20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="18">
-        <v>44813</v>
-      </c>
-      <c r="C84" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B85" s="18">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="C85" s="19">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B86" s="18">
         <v>44814</v>
       </c>
       <c r="C86" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="25.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B87" s="18">
         <v>44814</v>
       </c>
       <c r="C87" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="25.5">
+      <c r="A88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C88" s="19">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="D88" s="21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C88" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1962,7 +1962,7 @@
         <v>44870</v>
       </c>
       <c r="C89" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>52</v>
@@ -1976,10 +1976,10 @@
         <v>44870</v>
       </c>
       <c r="C90" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1990,7 +1990,7 @@
         <v>44870</v>
       </c>
       <c r="C91" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>22</v>
@@ -2004,10 +2004,10 @@
         <v>44870</v>
       </c>
       <c r="C92" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2018,7 +2018,7 @@
         <v>44870</v>
       </c>
       <c r="C93" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>35</v>
@@ -2032,10 +2032,10 @@
         <v>44870</v>
       </c>
       <c r="C94" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2046,15 +2046,29 @@
         <v>44870</v>
       </c>
       <c r="C95" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C96" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA82E4-E97B-4AE5-9E6A-D6365AA76A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9AA10C-FD7A-4DDD-9B34-F2F3FFBBEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="53">
   <si>
     <t>Municipio</t>
   </si>
@@ -707,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1900,72 +1900,72 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B85" s="18">
-        <v>44813</v>
+        <v>44812</v>
       </c>
       <c r="C85" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B86" s="18">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="C86" s="19">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B87" s="18">
         <v>44814</v>
       </c>
       <c r="C87" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="25.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B88" s="18">
         <v>44814</v>
       </c>
       <c r="C88" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="25.5">
+      <c r="A89" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C89" s="19">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D89" s="21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C89" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1976,7 +1976,7 @@
         <v>44870</v>
       </c>
       <c r="C90" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>52</v>
@@ -1990,10 +1990,10 @@
         <v>44870</v>
       </c>
       <c r="C91" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2004,7 +2004,7 @@
         <v>44870</v>
       </c>
       <c r="C92" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>22</v>
@@ -2018,10 +2018,10 @@
         <v>44870</v>
       </c>
       <c r="C93" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2032,7 +2032,7 @@
         <v>44870</v>
       </c>
       <c r="C94" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>35</v>
@@ -2046,10 +2046,10 @@
         <v>44870</v>
       </c>
       <c r="C95" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2060,15 +2060,29 @@
         <v>44870</v>
       </c>
       <c r="C96" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C97" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9AA10C-FD7A-4DDD-9B34-F2F3FFBBEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E9BB3-752A-4079-9DA2-E5233902AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="54">
   <si>
     <t>Municipio</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Gral. Escobedo</t>
+  </si>
+  <si>
+    <t>Montemorelos</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1913,87 +1916,87 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="18">
-        <v>44813</v>
-      </c>
-      <c r="C86" s="19">
+      <c r="A86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="16">
+        <v>44812</v>
+      </c>
+      <c r="C86" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D86" s="21" t="s">
-        <v>51</v>
+      <c r="D86" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B87" s="18">
-        <v>44814</v>
+        <v>44813</v>
       </c>
       <c r="C87" s="19">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B88" s="18">
         <v>44814</v>
       </c>
       <c r="C88" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="25.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B89" s="18">
         <v>44814</v>
       </c>
       <c r="C89" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="25.5">
+      <c r="A90" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="18">
+        <v>44814</v>
+      </c>
+      <c r="C90" s="19">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D90" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C90" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="25.5">
       <c r="A91" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B91" s="18">
-        <v>44870</v>
+        <v>44818</v>
       </c>
       <c r="C91" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2007,7 +2010,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2021,7 +2024,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2035,7 +2038,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2049,7 +2052,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2063,7 +2066,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2077,12 +2080,40 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D97" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C98" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C99" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D97">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E9BB3-752A-4079-9DA2-E5233902AAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F38D7-91BB-49BB-9933-E8251C28DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="55">
   <si>
     <t>Municipio</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Montemorelos</t>
+  </si>
+  <si>
+    <t>San Nicolás de los Garza</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1999,32 +2002,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="25.5">
       <c r="A92" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B92" s="18">
-        <v>44870</v>
+        <v>44821</v>
       </c>
       <c r="C92" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C93" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="25.5">
+      <c r="A93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="16">
+        <v>44828</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2038,7 +2041,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2052,7 +2055,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2066,7 +2069,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2080,7 +2083,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2094,7 +2097,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2108,12 +2111,40 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D99" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C100" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C101" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D99">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
       <sortCondition ref="B1:B41"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F38D7-91BB-49BB-9933-E8251C28DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD9448-2A05-4B15-9CC3-DE90E81D5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="56">
   <si>
     <t>Municipio</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>San Nicolás de los Garza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gral. Treviño</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1988,88 +1991,88 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="25.5">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="16">
+        <v>44814</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="18">
+        <v>44815</v>
+      </c>
+      <c r="C92" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="18">
+        <v>44815</v>
+      </c>
+      <c r="C93" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="25.5">
+      <c r="A94" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="18">
+      <c r="B94" s="18">
         <v>44818</v>
       </c>
-      <c r="C91" s="19">
+      <c r="C94" s="19">
         <v>0.75</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="D94" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="25.5">
-      <c r="A92" s="6" t="s">
+    <row r="95" spans="1:4" ht="25.5">
+      <c r="A95" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B95" s="18">
         <v>44821</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C95" s="19">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D95" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="25.5">
-      <c r="A93" s="3" t="s">
+    <row r="96" spans="1:4" ht="25.5">
+      <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B96" s="16">
         <v>44828</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C96" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D96" s="20" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C94" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B95" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C95" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C96" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2080,10 +2083,10 @@
         <v>44870</v>
       </c>
       <c r="C97" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2094,10 +2097,10 @@
         <v>44870</v>
       </c>
       <c r="C98" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2108,10 +2111,10 @@
         <v>44870</v>
       </c>
       <c r="C99" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2122,10 +2125,10 @@
         <v>44870</v>
       </c>
       <c r="C100" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2136,16 +2139,58 @@
         <v>44870</v>
       </c>
       <c r="C101" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C102" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D102" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C103" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C104" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D41" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D101">
-      <sortCondition ref="B1:B41"/>
+  <autoFilter ref="A1:D104" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+      <sortCondition ref="B1:B104"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CD9448-2A05-4B15-9CC3-DE90E81D5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC7D45-05B3-4185-842B-4ABA7584A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
   <si>
     <t>Municipio</t>
   </si>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A105" sqref="A105:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2061,32 +2061,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="25.5">
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="16">
+        <v>44821</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="25.5">
+      <c r="A97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B97" s="16">
         <v>44828</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C97" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C97" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>44870</v>
       </c>
       <c r="C98" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>52</v>
@@ -2111,10 +2111,10 @@
         <v>44870</v>
       </c>
       <c r="C99" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>44870</v>
       </c>
       <c r="C100" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>22</v>
@@ -2139,10 +2139,10 @@
         <v>44870</v>
       </c>
       <c r="C101" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>44870</v>
       </c>
       <c r="C102" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>35</v>
@@ -2167,10 +2167,10 @@
         <v>44870</v>
       </c>
       <c r="C103" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2181,15 +2181,29 @@
         <v>44870</v>
       </c>
       <c r="C104" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C105" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D104" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
       <sortCondition ref="B1:B104"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CC7D45-05B3-4185-842B-4ABA7584A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062A834-EF70-4210-90F3-889F121C1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
   <si>
     <t>Municipio</t>
   </si>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:D105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2090,17 +2090,17 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C98" s="19">
+      <c r="B98" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C98" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D98" s="21" t="s">
-        <v>52</v>
+      <c r="D98" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>44870</v>
       </c>
       <c r="C99" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>52</v>
@@ -2125,10 +2125,10 @@
         <v>44870</v>
       </c>
       <c r="C100" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>44870</v>
       </c>
       <c r="C101" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>22</v>
@@ -2153,10 +2153,10 @@
         <v>44870</v>
       </c>
       <c r="C102" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>44870</v>
       </c>
       <c r="C103" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>35</v>
@@ -2181,10 +2181,10 @@
         <v>44870</v>
       </c>
       <c r="C104" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2195,15 +2195,29 @@
         <v>44870</v>
       </c>
       <c r="C105" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D105" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C106" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D104" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D105">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
       <sortCondition ref="B1:B104"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062A834-EF70-4210-90F3-889F121C1C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D458D8-26EB-4CCB-AF2D-E9DDCB535D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1851,158 +1851,158 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="25.5">
-      <c r="A81" s="15" t="s">
-        <v>33</v>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B81" s="16">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="C81" s="17">
-        <v>0.46875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B82" s="16">
         <v>44808</v>
       </c>
       <c r="C82" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="16">
+        <v>44810</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="18">
+        <v>44812</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="16">
+        <v>44812</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="16">
-        <v>44808</v>
-      </c>
-      <c r="C83" s="17">
+      <c r="B86" s="18">
+        <v>44813</v>
+      </c>
+      <c r="C86" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D83" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84" s="16">
-        <v>44810</v>
-      </c>
-      <c r="C84" s="17">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="18">
-        <v>44812</v>
-      </c>
-      <c r="C85" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="16">
-        <v>44812</v>
-      </c>
-      <c r="C86" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>27</v>
+      <c r="D86" s="21" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B87" s="18">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="C87" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B88" s="18">
         <v>44814</v>
       </c>
       <c r="C88" s="19">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="25.5">
       <c r="A89" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B89" s="18">
         <v>44814</v>
       </c>
       <c r="C89" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="25.5">
-      <c r="A90" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="16">
         <v>44814</v>
       </c>
-      <c r="C90" s="19">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>51</v>
+      <c r="C90" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="16">
-        <v>44814</v>
-      </c>
-      <c r="C91" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>30</v>
+      <c r="B91" s="18">
+        <v>44815</v>
+      </c>
+      <c r="C91" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2013,24 +2013,24 @@
         <v>44815</v>
       </c>
       <c r="C92" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="25.5">
       <c r="A93" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B93" s="18">
-        <v>44815</v>
+        <v>44818</v>
       </c>
       <c r="C93" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="25.5">
@@ -2038,41 +2038,41 @@
         <v>33</v>
       </c>
       <c r="B94" s="18">
-        <v>44818</v>
+        <v>44821</v>
       </c>
       <c r="C94" s="19">
-        <v>0.75</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="25.5">
-      <c r="A95" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="16">
         <v>44821</v>
       </c>
-      <c r="C95" s="19">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>54</v>
+      <c r="C95" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B96" s="16">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="C96" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="25.5">
@@ -2216,9 +2216,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D104" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+  <autoFilter ref="A1:D103" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
-      <sortCondition ref="B1:B104"/>
+      <sortCondition ref="B1:B103"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D458D8-26EB-4CCB-AF2D-E9DDCB535D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB700AA-7297-426E-9223-27CB4AF52009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="56">
   <si>
     <t>Municipio</t>
   </si>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+      <selection activeCell="A107" sqref="A107:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2075,46 +2075,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="25.5">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="18">
+        <v>44822</v>
+      </c>
+      <c r="C97" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="25.5">
+      <c r="A98" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B98" s="16">
         <v>44828</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C98" s="17">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D98" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B99" s="16">
         <v>44864</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C99" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D99" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C99" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>44870</v>
       </c>
       <c r="C100" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>52</v>
@@ -2139,10 +2139,10 @@
         <v>44870</v>
       </c>
       <c r="C101" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>44870</v>
       </c>
       <c r="C102" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D102" s="21" t="s">
         <v>22</v>
@@ -2167,10 +2167,10 @@
         <v>44870</v>
       </c>
       <c r="C103" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>44870</v>
       </c>
       <c r="C104" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>35</v>
@@ -2195,10 +2195,10 @@
         <v>44870</v>
       </c>
       <c r="C105" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2209,15 +2209,29 @@
         <v>44870</v>
       </c>
       <c r="C106" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D106" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C107" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D106">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
       <sortCondition ref="B1:B103"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB700AA-7297-426E-9223-27CB4AF52009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDEC8C8-A8CC-493F-8215-936EEE852F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="57">
   <si>
     <t>Municipio</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Gral. Treviño</t>
+  </si>
+  <si>
+    <t>Creemos Nuevo León, A.C.</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:D107"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1923,72 +1926,72 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B86" s="18">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="C86" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B87" s="18">
         <v>44814</v>
       </c>
       <c r="C87" s="19">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="25.5">
       <c r="A88" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B88" s="18">
         <v>44814</v>
       </c>
       <c r="C88" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="25.5">
-      <c r="A89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="16">
         <v>44814</v>
       </c>
-      <c r="C89" s="19">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>51</v>
+      <c r="C89" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="16">
-        <v>44814</v>
-      </c>
-      <c r="C90" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>30</v>
+      <c r="A90" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="18">
+        <v>44815</v>
+      </c>
+      <c r="C90" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1999,24 +2002,24 @@
         <v>44815</v>
       </c>
       <c r="C91" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="25.5">
       <c r="A92" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B92" s="18">
-        <v>44815</v>
+        <v>44818</v>
       </c>
       <c r="C92" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="25.5">
@@ -2024,69 +2027,69 @@
         <v>33</v>
       </c>
       <c r="B93" s="18">
-        <v>44818</v>
+        <v>44821</v>
       </c>
       <c r="C93" s="19">
-        <v>0.75</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="25.5">
-      <c r="A94" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="16">
         <v>44821</v>
       </c>
-      <c r="C94" s="19">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>54</v>
+      <c r="C94" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="16">
+        <v>44822</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="16">
-        <v>44821</v>
-      </c>
-      <c r="C95" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="16">
+      <c r="B96" s="18">
         <v>44822</v>
       </c>
-      <c r="C96" s="17">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>29</v>
+      <c r="C96" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="18">
-        <v>44822</v>
-      </c>
-      <c r="C97" s="19">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>36</v>
+      <c r="A97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="16">
+        <v>44825</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="25.5">
@@ -2105,58 +2108,58 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B99" s="16">
-        <v>44864</v>
+        <v>44828</v>
       </c>
       <c r="C99" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B100" s="18">
-        <v>44870</v>
+        <v>44829</v>
       </c>
       <c r="C100" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C101" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>52</v>
+      <c r="A101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C102" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>22</v>
+      <c r="A102" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2167,10 +2170,10 @@
         <v>44870</v>
       </c>
       <c r="C103" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2181,10 +2184,10 @@
         <v>44870</v>
       </c>
       <c r="C104" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2195,10 +2198,10 @@
         <v>44870</v>
       </c>
       <c r="C105" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2209,10 +2212,10 @@
         <v>44870</v>
       </c>
       <c r="C106" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2223,18 +2226,167 @@
         <v>44870</v>
       </c>
       <c r="C107" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C108" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D108" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C109" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C110" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C111" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C112" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C113" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C114" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="25.5">
+      <c r="A115" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C115" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="25.5">
+      <c r="A116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C116" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C117" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C118" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D103" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D107">
-      <sortCondition ref="B1:B103"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDEC8C8-A8CC-493F-8215-936EEE852F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422BE56-CB5F-4414-BF83-54998784AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
   <si>
     <t>Municipio</t>
   </si>
@@ -719,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2051,213 +2051,213 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="18">
+        <v>44821</v>
+      </c>
+      <c r="C95" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B96" s="16">
         <v>44822</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C96" s="17">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D96" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="6" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="18">
+      <c r="B97" s="18">
         <v>44822</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C97" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D97" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="16">
-        <v>44825</v>
-      </c>
-      <c r="C97" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="25.5">
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B98" s="16">
-        <v>44828</v>
+        <v>44822</v>
       </c>
       <c r="C98" s="17">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B99" s="16">
-        <v>44828</v>
+        <v>44822</v>
       </c>
       <c r="C99" s="17">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B100" s="18">
-        <v>44829</v>
+        <v>44824</v>
       </c>
       <c r="C100" s="19">
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B101" s="16">
-        <v>44856</v>
+        <v>44825</v>
       </c>
       <c r="C101" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="18">
+        <v>44825</v>
+      </c>
+      <c r="C102" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="25.5">
+      <c r="A103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="16">
+        <v>44828</v>
+      </c>
+      <c r="C103" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="16">
+        <v>44828</v>
+      </c>
+      <c r="C104" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" s="16">
-        <v>44864</v>
-      </c>
-      <c r="C102" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C103" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C104" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D104" s="21" t="s">
-        <v>52</v>
+      <c r="D104" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B105" s="18">
-        <v>44870</v>
+        <v>44829</v>
       </c>
       <c r="C105" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B106" s="18">
-        <v>44870</v>
+        <v>44834</v>
       </c>
       <c r="C106" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C107" s="19">
+      <c r="A107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="16">
+        <v>44835</v>
+      </c>
+      <c r="C107" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C108" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C109" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C108" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C109" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>21</v>
+      <c r="D109" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>44870</v>
       </c>
       <c r="C110" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2279,13 +2279,13 @@
         <v>46</v>
       </c>
       <c r="B111" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C111" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2293,13 +2293,13 @@
         <v>46</v>
       </c>
       <c r="B112" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C112" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2307,13 +2307,13 @@
         <v>46</v>
       </c>
       <c r="B113" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C113" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2321,41 +2321,41 @@
         <v>46</v>
       </c>
       <c r="B114" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C114" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="25.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C115" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="25.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B116" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C116" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2363,13 +2363,13 @@
         <v>46</v>
       </c>
       <c r="B117" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C117" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2380,13 +2380,116 @@
         <v>44898</v>
       </c>
       <c r="C118" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C119" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D119" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C120" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C121" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="25.5">
+      <c r="A122" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C122" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="25.5">
+      <c r="A123" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C123" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C124" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D124" s="21" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C125" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D119" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
+      <sortCondition ref="B1:B119"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0422BE56-CB5F-4414-BF83-54998784AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C4AE38-6900-466A-9931-C5446DA7178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
   <si>
     <t>Municipio</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Creemos Nuevo León, A.C.</t>
+  </si>
+  <si>
+    <t>Sabinas Hidalgo</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2205,101 +2208,101 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="16">
+        <v>44832</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B107" s="18">
         <v>44834</v>
       </c>
-      <c r="C106" s="19">
+      <c r="C107" s="19">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D107" s="21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" s="16">
-        <v>44835</v>
-      </c>
-      <c r="C107" s="17">
-        <v>0.6875</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B108" s="16">
-        <v>44856</v>
+        <v>44835</v>
       </c>
       <c r="C108" s="17">
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B109" s="16">
-        <v>44864</v>
+        <v>44835</v>
       </c>
       <c r="C109" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B110" s="18">
-        <v>44870</v>
+        <v>44835</v>
       </c>
       <c r="C110" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C111" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C112" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D110" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C111" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C112" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>22</v>
+      <c r="D112" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2310,10 +2313,10 @@
         <v>44870</v>
       </c>
       <c r="C113" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2324,10 +2327,10 @@
         <v>44870</v>
       </c>
       <c r="C114" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2338,10 +2341,10 @@
         <v>44870</v>
       </c>
       <c r="C115" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2352,10 +2355,10 @@
         <v>44870</v>
       </c>
       <c r="C116" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2366,10 +2369,10 @@
         <v>44870</v>
       </c>
       <c r="C117" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2377,13 +2380,13 @@
         <v>46</v>
       </c>
       <c r="B118" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C118" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2391,13 +2394,13 @@
         <v>46</v>
       </c>
       <c r="B119" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C119" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2405,13 +2408,13 @@
         <v>46</v>
       </c>
       <c r="B120" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C120" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2422,13 +2425,13 @@
         <v>44898</v>
       </c>
       <c r="C121" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
         <v>46</v>
       </c>
@@ -2436,13 +2439,13 @@
         <v>44898</v>
       </c>
       <c r="C122" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
         <v>46</v>
       </c>
@@ -2450,10 +2453,10 @@
         <v>44898</v>
       </c>
       <c r="C123" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2464,13 +2467,13 @@
         <v>44898</v>
       </c>
       <c r="C124" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="25.5">
       <c r="A125" s="6" t="s">
         <v>46</v>
       </c>
@@ -2478,15 +2481,57 @@
         <v>44898</v>
       </c>
       <c r="C125" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="25.5">
+      <c r="A126" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C126" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D126" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C127" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C128" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D119" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D128">
       <sortCondition ref="B1:B119"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C4AE38-6900-466A-9931-C5446DA7178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BAF5A8-5568-42F9-BE4A-365399E510C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
   <si>
     <t>Municipio</t>
   </si>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:D128"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2226,69 +2226,69 @@
         <v>32</v>
       </c>
       <c r="B107" s="18">
+        <v>44832</v>
+      </c>
+      <c r="C107" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="18">
         <v>44834</v>
       </c>
-      <c r="C107" s="19">
+      <c r="C108" s="19">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="D108" s="21" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="16">
-        <v>44835</v>
-      </c>
-      <c r="C108" s="17">
-        <v>0.6875</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B109" s="16">
         <v>44835</v>
       </c>
       <c r="C109" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="16">
+        <v>44835</v>
+      </c>
+      <c r="C110" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D110" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B111" s="18">
         <v>44835</v>
       </c>
-      <c r="C110" s="19">
+      <c r="C111" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D111" s="21" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C111" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2296,27 +2296,27 @@
         <v>46</v>
       </c>
       <c r="B112" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C112" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="16">
         <v>44864</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C113" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D113" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C113" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2327,7 +2327,7 @@
         <v>44870</v>
       </c>
       <c r="C114" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>52</v>
@@ -2341,10 +2341,10 @@
         <v>44870</v>
       </c>
       <c r="C115" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2355,7 +2355,7 @@
         <v>44870</v>
       </c>
       <c r="C116" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D116" s="21" t="s">
         <v>22</v>
@@ -2369,10 +2369,10 @@
         <v>44870</v>
       </c>
       <c r="C117" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2383,7 +2383,7 @@
         <v>44870</v>
       </c>
       <c r="C118" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D118" s="21" t="s">
         <v>35</v>
@@ -2397,10 +2397,10 @@
         <v>44870</v>
       </c>
       <c r="C119" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2411,7 +2411,7 @@
         <v>44870</v>
       </c>
       <c r="C120" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D120" s="21" t="s">
         <v>21</v>
@@ -2422,13 +2422,13 @@
         <v>46</v>
       </c>
       <c r="B121" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C121" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2439,7 +2439,7 @@
         <v>44898</v>
       </c>
       <c r="C122" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>51</v>
@@ -2453,10 +2453,10 @@
         <v>44898</v>
       </c>
       <c r="C123" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2467,13 +2467,13 @@
         <v>44898</v>
       </c>
       <c r="C124" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="25.5">
+    <row r="125" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>46</v>
       </c>
@@ -2481,10 +2481,10 @@
         <v>44898</v>
       </c>
       <c r="C125" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5">
@@ -2495,13 +2495,13 @@
         <v>44898</v>
       </c>
       <c r="C126" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="25.5">
       <c r="A127" s="6" t="s">
         <v>46</v>
       </c>
@@ -2509,10 +2509,10 @@
         <v>44898</v>
       </c>
       <c r="C127" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2523,15 +2523,29 @@
         <v>44898</v>
       </c>
       <c r="C128" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D128" s="21" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C129" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D119" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D128">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D129">
       <sortCondition ref="B1:B119"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BAF5A8-5568-42F9-BE4A-365399E510C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A02D50E-3A0D-4A9C-A04F-EB2A373C5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Sabinas Hidalgo</t>
+  </si>
+  <si>
+    <t>Juárez</t>
   </si>
 </sst>
 </file>
@@ -722,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:D129"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2209,16 +2212,16 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B106" s="16">
-        <v>44832</v>
+        <v>44830</v>
       </c>
       <c r="C106" s="17">
-        <v>0.75</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2226,27 +2229,27 @@
         <v>32</v>
       </c>
       <c r="B107" s="18">
-        <v>44832</v>
+        <v>44830</v>
       </c>
       <c r="C107" s="19">
+        <v>0.6875</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="16">
+        <v>44831</v>
+      </c>
+      <c r="C108" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D107" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="18">
-        <v>44834</v>
-      </c>
-      <c r="C108" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>2</v>
+      <c r="D108" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2254,13 +2257,13 @@
         <v>32</v>
       </c>
       <c r="B109" s="16">
-        <v>44835</v>
+        <v>44831</v>
       </c>
       <c r="C109" s="17">
-        <v>0.6875</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2268,284 +2271,508 @@
         <v>34</v>
       </c>
       <c r="B110" s="16">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C110" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B111" s="18">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C111" s="19">
         <v>0.70833333333333337</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C112" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>38</v>
+      <c r="A112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" s="18">
+        <v>44834</v>
+      </c>
+      <c r="C112" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B113" s="16">
-        <v>44864</v>
+        <v>44835</v>
       </c>
       <c r="C113" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C114" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>52</v>
+      <c r="A114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="16">
+        <v>44835</v>
+      </c>
+      <c r="C114" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B115" s="18">
-        <v>44870</v>
+        <v>44835</v>
       </c>
       <c r="C115" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B116" s="18">
-        <v>44870</v>
+        <v>44836</v>
       </c>
       <c r="C116" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B117" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C117" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>22</v>
+      <c r="A117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="16">
+        <v>44842</v>
+      </c>
+      <c r="C117" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C118" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>35</v>
+      <c r="A118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C118" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B119" s="18">
-        <v>44870</v>
+        <v>44849</v>
       </c>
       <c r="C119" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B120" s="18">
-        <v>44870</v>
+        <v>44849</v>
       </c>
       <c r="C120" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B121" s="18">
-        <v>44870</v>
+        <v>44849</v>
       </c>
       <c r="C121" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B122" s="18">
-        <v>44898</v>
+        <v>44849</v>
       </c>
       <c r="C122" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B123" s="18">
-        <v>44898</v>
+        <v>44849</v>
       </c>
       <c r="C123" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B124" s="18">
-        <v>44898</v>
+        <v>44849</v>
       </c>
       <c r="C124" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C125" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C126" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="18">
+        <v>44850</v>
+      </c>
+      <c r="C127" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="18">
+      <c r="B128" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C128" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C129" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C130" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C131" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C132" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C133" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C134" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C135" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C136" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="18">
+        <v>44870</v>
+      </c>
+      <c r="C137" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="18">
         <v>44898</v>
       </c>
-      <c r="C125" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D125" s="21" t="s">
+      <c r="C138" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C139" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C140" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D140" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="25.5">
-      <c r="A126" s="6" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B141" s="18">
         <v>44898</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C141" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="25.5">
+      <c r="A142" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="18">
+        <v>44898</v>
+      </c>
+      <c r="C142" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D142" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="25.5">
-      <c r="A127" s="6" t="s">
+    <row r="143" spans="1:4" ht="25.5">
+      <c r="A143" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="18">
+      <c r="B143" s="18">
         <v>44898</v>
       </c>
-      <c r="C127" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D127" s="21" t="s">
+      <c r="C143" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="6" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B144" s="18">
         <v>44898</v>
       </c>
-      <c r="C128" s="19">
+      <c r="C144" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D144" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B145" s="18">
         <v>44898</v>
       </c>
-      <c r="C129" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D129" s="21" t="s">
+      <c r="C145" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D145" s="21" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D119" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D129">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D138">
       <sortCondition ref="B1:B119"/>
     </sortState>
   </autoFilter>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A02D50E-3A0D-4A9C-A04F-EB2A373C5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEC261-5C87-47FE-802E-FD006E4037F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -725,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2350,32 +2356,32 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="18">
+    <row r="116" spans="1:4" ht="25.5">
+      <c r="A116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="16">
+        <v>44835</v>
+      </c>
+      <c r="C116" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="18">
         <v>44836</v>
       </c>
-      <c r="C116" s="19">
+      <c r="C117" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D117" s="21" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="16">
-        <v>44842</v>
-      </c>
-      <c r="C117" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2383,27 +2389,27 @@
         <v>34</v>
       </c>
       <c r="B118" s="16">
+        <v>44842</v>
+      </c>
+      <c r="C118" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="16">
         <v>44843</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C119" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="D119" s="20" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B119" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C119" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2414,7 +2420,7 @@
         <v>44849</v>
       </c>
       <c r="C120" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D120" s="21" t="s">
         <v>58</v>
@@ -2428,10 +2434,10 @@
         <v>44849</v>
       </c>
       <c r="C121" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2442,7 +2448,7 @@
         <v>44849</v>
       </c>
       <c r="C122" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>22</v>
@@ -2456,10 +2462,10 @@
         <v>44849</v>
       </c>
       <c r="C123" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2470,7 +2476,7 @@
         <v>44849</v>
       </c>
       <c r="C124" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>17</v>
@@ -2484,10 +2490,10 @@
         <v>44849</v>
       </c>
       <c r="C125" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2498,7 +2504,7 @@
         <v>44849</v>
       </c>
       <c r="C126" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>36</v>
@@ -2506,30 +2512,30 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B127" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C127" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="18">
         <v>44850</v>
       </c>
-      <c r="C127" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D127" s="21" t="s">
+      <c r="C128" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C128" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2537,27 +2543,27 @@
         <v>46</v>
       </c>
       <c r="B129" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C129" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="16">
         <v>44864</v>
       </c>
-      <c r="C129" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D129" s="20" t="s">
+      <c r="C130" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B130" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C130" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2568,7 +2574,7 @@
         <v>44870</v>
       </c>
       <c r="C131" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>52</v>
@@ -2582,10 +2588,10 @@
         <v>44870</v>
       </c>
       <c r="C132" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2596,7 +2602,7 @@
         <v>44870</v>
       </c>
       <c r="C133" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>22</v>
@@ -2610,10 +2616,10 @@
         <v>44870</v>
       </c>
       <c r="C134" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2624,7 +2630,7 @@
         <v>44870</v>
       </c>
       <c r="C135" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>35</v>
@@ -2638,10 +2644,10 @@
         <v>44870</v>
       </c>
       <c r="C136" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2652,7 +2658,7 @@
         <v>44870</v>
       </c>
       <c r="C137" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>21</v>
@@ -2663,13 +2669,13 @@
         <v>46</v>
       </c>
       <c r="B138" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C138" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2680,7 +2686,7 @@
         <v>44898</v>
       </c>
       <c r="C139" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>51</v>
@@ -2694,10 +2700,10 @@
         <v>44898</v>
       </c>
       <c r="C140" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2708,13 +2714,13 @@
         <v>44898</v>
       </c>
       <c r="C141" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="25.5">
+    <row r="142" spans="1:4">
       <c r="A142" s="6" t="s">
         <v>46</v>
       </c>
@@ -2722,10 +2728,10 @@
         <v>44898</v>
       </c>
       <c r="C142" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="25.5">
@@ -2736,13 +2742,13 @@
         <v>44898</v>
       </c>
       <c r="C143" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="25.5">
       <c r="A144" s="6" t="s">
         <v>46</v>
       </c>
@@ -2750,10 +2756,10 @@
         <v>44898</v>
       </c>
       <c r="C144" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2764,18 +2770,37 @@
         <v>44898</v>
       </c>
       <c r="C145" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C146" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D119" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D138">
-      <sortCondition ref="B1:B119"/>
+  <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D146">
+      <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEC261-5C87-47FE-802E-FD006E4037F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D39960-E0FF-4C02-9F99-0493043E917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -731,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="A149" sqref="A149:D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2315,59 +2335,59 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="16">
-        <v>44835</v>
-      </c>
-      <c r="C113" s="17">
-        <v>0.6875</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>25</v>
+      <c r="A113" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="18">
+        <v>44834</v>
+      </c>
+      <c r="C113" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B114" s="16">
+        <v>44834</v>
+      </c>
+      <c r="C114" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="16">
         <v>44835</v>
       </c>
-      <c r="C114" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="18">
-        <v>44835</v>
-      </c>
-      <c r="C115" s="19">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="25.5">
+      <c r="C115" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B116" s="16">
         <v>44835</v>
       </c>
       <c r="C116" s="17">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2375,83 +2395,83 @@
         <v>34</v>
       </c>
       <c r="B117" s="18">
+        <v>44835</v>
+      </c>
+      <c r="C117" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="25.5">
+      <c r="A118" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="16">
+        <v>44835</v>
+      </c>
+      <c r="C118" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="18">
         <v>44836</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C119" s="19">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D117" s="21" t="s">
+      <c r="D119" s="21" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="16">
-        <v>44842</v>
-      </c>
-      <c r="C118" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="16">
-        <v>44843</v>
-      </c>
-      <c r="C119" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D119" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B120" s="18">
-        <v>44849</v>
+        <v>44836</v>
       </c>
       <c r="C120" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C121" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>58</v>
+      <c r="A121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="16">
+        <v>44842</v>
+      </c>
+      <c r="C121" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C122" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>22</v>
+      <c r="A122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C122" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2462,10 +2482,10 @@
         <v>44849</v>
       </c>
       <c r="C123" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2476,10 +2496,10 @@
         <v>44849</v>
       </c>
       <c r="C124" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2490,10 +2510,10 @@
         <v>44849</v>
       </c>
       <c r="C125" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2504,10 +2524,10 @@
         <v>44849</v>
       </c>
       <c r="C126" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2518,94 +2538,94 @@
         <v>44849</v>
       </c>
       <c r="C127" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B128" s="18">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="C128" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B129" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C129" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>38</v>
+      <c r="A129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C129" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B130" s="16">
-        <v>44864</v>
-      </c>
-      <c r="C130" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>13</v>
+      <c r="A130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C130" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B131" s="18">
-        <v>44870</v>
+        <v>44850</v>
       </c>
       <c r="C131" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B132" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C132" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>52</v>
+      <c r="A132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C132" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B133" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C133" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>22</v>
+      <c r="A133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2616,10 +2636,10 @@
         <v>44870</v>
       </c>
       <c r="C134" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2630,10 +2650,10 @@
         <v>44870</v>
       </c>
       <c r="C135" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2644,10 +2664,10 @@
         <v>44870</v>
       </c>
       <c r="C136" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2658,10 +2678,10 @@
         <v>44870</v>
       </c>
       <c r="C137" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2672,10 +2692,10 @@
         <v>44870</v>
       </c>
       <c r="C138" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2683,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="B139" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C139" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2697,13 +2717,13 @@
         <v>46</v>
       </c>
       <c r="B140" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C140" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2711,13 +2731,13 @@
         <v>46</v>
       </c>
       <c r="B141" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C141" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2728,13 +2748,13 @@
         <v>44898</v>
       </c>
       <c r="C142" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="6" t="s">
         <v>46</v>
       </c>
@@ -2742,13 +2762,13 @@
         <v>44898</v>
       </c>
       <c r="C143" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="6" t="s">
         <v>46</v>
       </c>
@@ -2756,10 +2776,10 @@
         <v>44898</v>
       </c>
       <c r="C144" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2770,13 +2790,13 @@
         <v>44898</v>
       </c>
       <c r="C145" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="25.5">
       <c r="A146" s="6" t="s">
         <v>46</v>
       </c>
@@ -2784,21 +2804,83 @@
         <v>44898</v>
       </c>
       <c r="C146" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D146" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="25.5">
+      <c r="A147" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D146">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D149">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O146="NO"</formula>
+      <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D39960-E0FF-4C02-9F99-0493043E917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE6B946-0E05-40A7-AA2E-227C99458661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -751,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:D149"/>
+      <selection activeCell="A150" sqref="A150:D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2446,18 +2451,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" ht="25.5">
       <c r="A121" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B121" s="16">
-        <v>44842</v>
+        <v>44837</v>
       </c>
       <c r="C121" s="17">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2465,27 +2470,27 @@
         <v>34</v>
       </c>
       <c r="B122" s="16">
+        <v>44842</v>
+      </c>
+      <c r="C122" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="16">
         <v>44843</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C123" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D123" s="20" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C123" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2496,7 +2501,7 @@
         <v>44849</v>
       </c>
       <c r="C124" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D124" s="21" t="s">
         <v>58</v>
@@ -2510,10 +2515,10 @@
         <v>44849</v>
       </c>
       <c r="C125" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2524,7 +2529,7 @@
         <v>44849</v>
       </c>
       <c r="C126" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D126" s="21" t="s">
         <v>22</v>
@@ -2538,10 +2543,10 @@
         <v>44849</v>
       </c>
       <c r="C127" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2552,7 +2557,7 @@
         <v>44849</v>
       </c>
       <c r="C128" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D128" s="21" t="s">
         <v>17</v>
@@ -2566,10 +2571,10 @@
         <v>44849</v>
       </c>
       <c r="C129" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2580,7 +2585,7 @@
         <v>44849</v>
       </c>
       <c r="C130" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>36</v>
@@ -2588,30 +2593,30 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B131" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C131" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="18">
         <v>44850</v>
       </c>
-      <c r="C131" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D131" s="21" t="s">
+      <c r="C132" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D132" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B132" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C132" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2619,27 +2624,27 @@
         <v>46</v>
       </c>
       <c r="B133" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C133" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B134" s="16">
         <v>44864</v>
       </c>
-      <c r="C133" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D133" s="20" t="s">
+      <c r="C134" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D134" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B134" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C134" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2650,7 +2655,7 @@
         <v>44870</v>
       </c>
       <c r="C135" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>52</v>
@@ -2664,10 +2669,10 @@
         <v>44870</v>
       </c>
       <c r="C136" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2678,7 +2683,7 @@
         <v>44870</v>
       </c>
       <c r="C137" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>22</v>
@@ -2692,10 +2697,10 @@
         <v>44870</v>
       </c>
       <c r="C138" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2706,7 +2711,7 @@
         <v>44870</v>
       </c>
       <c r="C139" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>35</v>
@@ -2720,10 +2725,10 @@
         <v>44870</v>
       </c>
       <c r="C140" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2734,7 +2739,7 @@
         <v>44870</v>
       </c>
       <c r="C141" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>21</v>
@@ -2745,13 +2750,13 @@
         <v>46</v>
       </c>
       <c r="B142" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C142" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2762,7 +2767,7 @@
         <v>44898</v>
       </c>
       <c r="C143" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>51</v>
@@ -2776,10 +2781,10 @@
         <v>44898</v>
       </c>
       <c r="C144" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2790,13 +2795,13 @@
         <v>44898</v>
       </c>
       <c r="C145" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="25.5">
+    <row r="146" spans="1:4">
       <c r="A146" s="6" t="s">
         <v>46</v>
       </c>
@@ -2804,10 +2809,10 @@
         <v>44898</v>
       </c>
       <c r="C146" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="25.5">
@@ -2818,13 +2823,13 @@
         <v>44898</v>
       </c>
       <c r="C147" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="25.5">
       <c r="A148" s="6" t="s">
         <v>46</v>
       </c>
@@ -2832,10 +2837,10 @@
         <v>44898</v>
       </c>
       <c r="C148" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2846,41 +2851,60 @@
         <v>44898</v>
       </c>
       <c r="C149" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D149">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O149="NO"</formula>
+      <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE6B946-0E05-40A7-AA2E-227C99458661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CF055E-2239-4D0B-8E11-97E7586CA826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -756,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:D150"/>
+      <selection activeCell="A151" sqref="A151:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2480,59 +2495,59 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="16">
+      <c r="A123" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="18">
+        <v>44842</v>
+      </c>
+      <c r="C123" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="16">
         <v>44843</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C124" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D123" s="20" t="s">
+      <c r="D124" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B124" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C124" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C125" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>58</v>
+      <c r="A125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C125" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B126" s="18">
-        <v>44849</v>
+        <v>44843</v>
       </c>
       <c r="C126" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2543,10 +2558,10 @@
         <v>44849</v>
       </c>
       <c r="C127" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2557,10 +2572,10 @@
         <v>44849</v>
       </c>
       <c r="C128" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2571,10 +2586,10 @@
         <v>44849</v>
       </c>
       <c r="C129" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2585,10 +2600,10 @@
         <v>44849</v>
       </c>
       <c r="C130" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2599,94 +2614,94 @@
         <v>44849</v>
       </c>
       <c r="C131" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B132" s="18">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="C132" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B133" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C133" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>38</v>
+      <c r="A133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C133" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B134" s="16">
-        <v>44864</v>
-      </c>
-      <c r="C134" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>13</v>
+      <c r="A134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C134" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B135" s="18">
-        <v>44870</v>
+        <v>44850</v>
       </c>
       <c r="C135" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C136" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D136" s="21" t="s">
-        <v>52</v>
+      <c r="A136" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C136" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B137" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C137" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>22</v>
+      <c r="A137" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C137" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2697,10 +2712,10 @@
         <v>44870</v>
       </c>
       <c r="C138" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2711,10 +2726,10 @@
         <v>44870</v>
       </c>
       <c r="C139" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2725,10 +2740,10 @@
         <v>44870</v>
       </c>
       <c r="C140" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2739,10 +2754,10 @@
         <v>44870</v>
       </c>
       <c r="C141" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2753,10 +2768,10 @@
         <v>44870</v>
       </c>
       <c r="C142" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2764,13 +2779,13 @@
         <v>46</v>
       </c>
       <c r="B143" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C143" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2778,13 +2793,13 @@
         <v>46</v>
       </c>
       <c r="B144" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C144" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2792,13 +2807,13 @@
         <v>46</v>
       </c>
       <c r="B145" s="18">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C145" s="19">
         <v>0.41666666666666669</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2809,13 +2824,13 @@
         <v>44898</v>
       </c>
       <c r="C146" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
         <v>46</v>
       </c>
@@ -2823,13 +2838,13 @@
         <v>44898</v>
       </c>
       <c r="C147" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="6" t="s">
         <v>46</v>
       </c>
@@ -2837,10 +2852,10 @@
         <v>44898</v>
       </c>
       <c r="C148" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2851,13 +2866,13 @@
         <v>44898</v>
       </c>
       <c r="C149" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="25.5">
       <c r="A150" s="6" t="s">
         <v>46</v>
       </c>
@@ -2865,46 +2880,103 @@
         <v>44898</v>
       </c>
       <c r="C150" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D150" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="25.5">
+      <c r="A151" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C151" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C152" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D150">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O151="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O150="NO"</formula>
+      <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CF055E-2239-4D0B-8E11-97E7586CA826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB9022-6B5A-47F8-B781-918210ACBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -771,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:D153"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2692,44 +2707,44 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B137" s="16">
-        <v>44864</v>
+        <v>44856</v>
       </c>
       <c r="C137" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B138" s="18">
-        <v>44870</v>
+        <v>44862</v>
       </c>
       <c r="C138" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B139" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C139" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D139" s="21" t="s">
-        <v>52</v>
+      <c r="A139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C139" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2743,7 +2758,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2757,7 +2772,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2771,7 +2786,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2785,7 +2800,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2799,7 +2814,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2813,7 +2828,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2821,13 +2836,13 @@
         <v>46</v>
       </c>
       <c r="B146" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C146" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2835,13 +2850,13 @@
         <v>46</v>
       </c>
       <c r="B147" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C147" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2855,7 +2870,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2869,10 +2884,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="6" t="s">
         <v>46</v>
       </c>
@@ -2883,10 +2898,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
         <v>46</v>
       </c>
@@ -2897,10 +2912,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="25.5">
       <c r="A152" s="6" t="s">
         <v>46</v>
       </c>
@@ -2911,10 +2926,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="25.5">
       <c r="A153" s="6" t="s">
         <v>46</v>
       </c>
@@ -2925,58 +2940,101 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D153" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B154" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C155" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O153="NO"</formula>
+      <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB9022-6B5A-47F8-B781-918210ACBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F69CE8-181A-4DED-8B61-E41DBC334142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -786,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2566,17 +2576,17 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C127" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>58</v>
+      <c r="A127" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C127" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2587,7 +2597,7 @@
         <v>44849</v>
       </c>
       <c r="C128" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D128" s="21" t="s">
         <v>58</v>
@@ -2601,10 +2611,10 @@
         <v>44849</v>
       </c>
       <c r="C129" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2615,7 +2625,7 @@
         <v>44849</v>
       </c>
       <c r="C130" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>22</v>
@@ -2629,10 +2639,10 @@
         <v>44849</v>
       </c>
       <c r="C131" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2643,7 +2653,7 @@
         <v>44849</v>
       </c>
       <c r="C132" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>17</v>
@@ -2657,10 +2667,10 @@
         <v>44849</v>
       </c>
       <c r="C133" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2671,7 +2681,7 @@
         <v>44849</v>
       </c>
       <c r="C134" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>36</v>
@@ -2679,86 +2689,86 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B135" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C135" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="18">
         <v>44850</v>
       </c>
-      <c r="C135" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D135" s="21" t="s">
+      <c r="C136" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D136" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B136" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C136" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B137" s="16">
         <v>44856</v>
       </c>
       <c r="C137" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C138" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D138" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" s="18">
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="18">
         <v>44862</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C139" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D138" s="21" t="s">
+      <c r="D139" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B139" s="16">
+    <row r="140" spans="1:4">
+      <c r="A140" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="16">
         <v>44864</v>
       </c>
-      <c r="C139" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D139" s="20" t="s">
+      <c r="C140" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D140" s="20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B140" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C140" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2769,7 +2779,7 @@
         <v>44870</v>
       </c>
       <c r="C141" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>52</v>
@@ -2783,10 +2793,10 @@
         <v>44870</v>
       </c>
       <c r="C142" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2797,7 +2807,7 @@
         <v>44870</v>
       </c>
       <c r="C143" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>22</v>
@@ -2811,10 +2821,10 @@
         <v>44870</v>
       </c>
       <c r="C144" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2825,7 +2835,7 @@
         <v>44870</v>
       </c>
       <c r="C145" s="19">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>35</v>
@@ -2839,10 +2849,10 @@
         <v>44870</v>
       </c>
       <c r="C146" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2853,7 +2863,7 @@
         <v>44870</v>
       </c>
       <c r="C147" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>21</v>
@@ -2864,13 +2874,13 @@
         <v>46</v>
       </c>
       <c r="B148" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C148" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2881,7 +2891,7 @@
         <v>44898</v>
       </c>
       <c r="C149" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>51</v>
@@ -2895,10 +2905,10 @@
         <v>44898</v>
       </c>
       <c r="C150" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2909,13 +2919,13 @@
         <v>44898</v>
       </c>
       <c r="C151" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="25.5">
+    <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
         <v>46</v>
       </c>
@@ -2923,10 +2933,10 @@
         <v>44898</v>
       </c>
       <c r="C152" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="25.5">
@@ -2937,13 +2947,13 @@
         <v>44898</v>
       </c>
       <c r="C153" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="25.5">
       <c r="A154" s="6" t="s">
         <v>46</v>
       </c>
@@ -2951,10 +2961,10 @@
         <v>44898</v>
       </c>
       <c r="C154" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2965,76 +2975,100 @@
         <v>44898</v>
       </c>
       <c r="C155" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D156">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156 A156">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O155="NO"</formula>
+      <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F69CE8-181A-4DED-8B61-E41DBC334142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DDC49-FBED-4E84-9DE5-D88BD25524DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -796,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:D156"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2506,50 +2516,50 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122" s="16">
+      <c r="A122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="18">
+        <v>44841</v>
+      </c>
+      <c r="C122" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="16">
         <v>44842</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C123" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D123" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B123" s="18">
+    <row r="124" spans="1:4">
+      <c r="A124" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="18">
         <v>44842</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C124" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="D124" s="21" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="16">
-        <v>44843</v>
-      </c>
-      <c r="C124" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B125" s="16">
         <v>44843</v>
@@ -2558,49 +2568,49 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D125" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C126" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D126" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="18">
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="18">
         <v>44843</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C127" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D127" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B128" s="16">
         <v>44843</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C128" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D128" s="20" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C128" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2611,7 +2621,7 @@
         <v>44849</v>
       </c>
       <c r="C129" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D129" s="21" t="s">
         <v>58</v>
@@ -2625,10 +2635,10 @@
         <v>44849</v>
       </c>
       <c r="C130" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2639,7 +2649,7 @@
         <v>44849</v>
       </c>
       <c r="C131" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>22</v>
@@ -2653,10 +2663,10 @@
         <v>44849</v>
       </c>
       <c r="C132" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2667,7 +2677,7 @@
         <v>44849</v>
       </c>
       <c r="C133" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D133" s="21" t="s">
         <v>17</v>
@@ -2681,10 +2691,10 @@
         <v>44849</v>
       </c>
       <c r="C134" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2695,7 +2705,7 @@
         <v>44849</v>
       </c>
       <c r="C135" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>36</v>
@@ -2703,30 +2713,30 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B136" s="18">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="C136" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D136" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="18">
+        <v>44850</v>
+      </c>
+      <c r="C137" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D137" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B137" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C137" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2734,69 +2744,69 @@
         <v>34</v>
       </c>
       <c r="B138" s="16">
+        <v>44854</v>
+      </c>
+      <c r="C138" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="16">
         <v>44856</v>
       </c>
-      <c r="C138" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" s="18">
-        <v>44862</v>
-      </c>
-      <c r="C139" s="19">
+      <c r="C139" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D139" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B140" s="16">
-        <v>44864</v>
+        <v>44856</v>
       </c>
       <c r="C140" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B141" s="18">
-        <v>44870</v>
+        <v>44862</v>
       </c>
       <c r="C141" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C142" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D141" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C142" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D142" s="21" t="s">
-        <v>52</v>
+      <c r="D142" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2810,7 +2820,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2824,7 +2834,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2838,7 +2848,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2852,7 +2862,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2866,7 +2876,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2880,7 +2890,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2888,13 +2898,13 @@
         <v>46</v>
       </c>
       <c r="B149" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C149" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2902,13 +2912,13 @@
         <v>46</v>
       </c>
       <c r="B150" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C150" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2922,7 +2932,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2936,10 +2946,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>46</v>
       </c>
@@ -2950,10 +2960,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
         <v>46</v>
       </c>
@@ -2964,10 +2974,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="25.5">
       <c r="A155" s="6" t="s">
         <v>46</v>
       </c>
@@ -2978,10 +2988,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="25.5">
       <c r="A156" s="6" t="s">
         <v>46</v>
       </c>
@@ -2992,83 +3002,121 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C157" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B158" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C158" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D158" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D156">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D158">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O156="NO"</formula>
+      <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DDC49-FBED-4E84-9DE5-D88BD25524DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01566325-89FC-4D15-AA12-68D63B6F2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -806,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:D158"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2615,16 +2625,16 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B129" s="18">
-        <v>44849</v>
+        <v>44843</v>
       </c>
       <c r="C129" s="19">
-        <v>0.5</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2635,7 +2645,7 @@
         <v>44849</v>
       </c>
       <c r="C130" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D130" s="21" t="s">
         <v>58</v>
@@ -2649,10 +2659,10 @@
         <v>44849</v>
       </c>
       <c r="C131" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2663,7 +2673,7 @@
         <v>44849</v>
       </c>
       <c r="C132" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D132" s="21" t="s">
         <v>22</v>
@@ -2677,10 +2687,10 @@
         <v>44849</v>
       </c>
       <c r="C133" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2691,7 +2701,7 @@
         <v>44849</v>
       </c>
       <c r="C134" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D134" s="21" t="s">
         <v>17</v>
@@ -2705,10 +2715,10 @@
         <v>44849</v>
       </c>
       <c r="C135" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2719,7 +2729,7 @@
         <v>44849</v>
       </c>
       <c r="C136" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>36</v>
@@ -2727,72 +2737,72 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B137" s="18">
-        <v>44850</v>
+        <v>44849</v>
       </c>
       <c r="C137" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="D137" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="18">
+        <v>44850</v>
+      </c>
+      <c r="C138" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D138" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B138" s="16">
-        <v>44854</v>
-      </c>
-      <c r="C138" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B139" s="16">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="C139" s="17">
         <v>0.70833333333333337</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B140" s="16">
         <v>44856</v>
       </c>
       <c r="C140" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C141" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D141" s="20" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" s="18">
-        <v>44862</v>
-      </c>
-      <c r="C141" s="19">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D141" s="21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2800,41 +2810,41 @@
         <v>46</v>
       </c>
       <c r="B142" s="16">
-        <v>44864</v>
+        <v>44857</v>
       </c>
       <c r="C142" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B143" s="18">
-        <v>44870</v>
+        <v>44862</v>
       </c>
       <c r="C143" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="16">
+        <v>44864</v>
+      </c>
+      <c r="C144" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D143" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B144" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C144" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>52</v>
+      <c r="D144" s="20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2848,7 +2858,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2862,7 +2872,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2876,7 +2886,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2890,7 +2900,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2904,7 +2914,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2918,7 +2928,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2926,13 +2936,13 @@
         <v>46</v>
       </c>
       <c r="B151" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C151" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2940,13 +2950,13 @@
         <v>46</v>
       </c>
       <c r="B152" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C152" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2960,7 +2970,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2974,10 +2984,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
         <v>46</v>
       </c>
@@ -2988,10 +2998,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
         <v>46</v>
       </c>
@@ -3002,10 +3012,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="25.5">
       <c r="A157" s="6" t="s">
         <v>46</v>
       </c>
@@ -3016,10 +3026,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="25.5">
       <c r="A158" s="6" t="s">
         <v>46</v>
       </c>
@@ -3030,93 +3040,131 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D158" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B159" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C159" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B160" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C160" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D158">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D160">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O158="NO"</formula>
+      <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01566325-89FC-4D15-AA12-68D63B6F2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D80F2C-0D72-4612-AA3E-5AE72A02536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -816,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2567,51 +2577,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" s="16">
+    <row r="125" spans="1:4" ht="25.5">
+      <c r="A125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="18">
+        <v>44842</v>
+      </c>
+      <c r="C125" s="19">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" s="18">
+        <v>44842</v>
+      </c>
+      <c r="C126" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="16">
         <v>44843</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C127" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D127" s="20" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B126" s="16">
-        <v>44843</v>
-      </c>
-      <c r="C126" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" s="18">
-        <v>44843</v>
-      </c>
-      <c r="C127" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B128" s="16">
         <v>44843</v>
@@ -2620,63 +2630,63 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B129" s="18">
         <v>44843</v>
       </c>
       <c r="C129" s="19">
-        <v>0.77083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C130" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>58</v>
+      <c r="A130" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" s="16">
+        <v>44843</v>
+      </c>
+      <c r="C130" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B131" s="18">
-        <v>44849</v>
+        <v>44843</v>
       </c>
       <c r="C131" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C132" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D132" s="21" t="s">
-        <v>22</v>
+      <c r="A132" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="16">
+        <v>44848</v>
+      </c>
+      <c r="C132" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2687,10 +2697,10 @@
         <v>44849</v>
       </c>
       <c r="C133" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2701,10 +2711,10 @@
         <v>44849</v>
       </c>
       <c r="C134" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2715,10 +2725,10 @@
         <v>44849</v>
       </c>
       <c r="C135" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2729,10 +2739,10 @@
         <v>44849</v>
       </c>
       <c r="C136" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2743,178 +2753,178 @@
         <v>44849</v>
       </c>
       <c r="C137" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B138" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C138" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C139" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C140" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="18">
         <v>44850</v>
       </c>
-      <c r="C138" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D138" s="21" t="s">
+      <c r="C141" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D141" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" s="16">
-        <v>44854</v>
-      </c>
-      <c r="C139" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B140" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C140" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C141" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B142" s="16">
-        <v>44857</v>
+        <v>44854</v>
       </c>
       <c r="C142" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="18">
-        <v>44862</v>
-      </c>
-      <c r="C143" s="19">
+      <c r="A143" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C143" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B144" s="16">
-        <v>44864</v>
+        <v>44856</v>
       </c>
       <c r="C144" s="17">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B145" s="18">
-        <v>44870</v>
-      </c>
-      <c r="C145" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="25.5">
+      <c r="A145" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="16">
+        <v>44856</v>
+      </c>
+      <c r="C145" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B146" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C146" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>52</v>
+      <c r="A146" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="4">
+        <v>44857</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B147" s="7">
-        <v>44870</v>
+        <v>44862</v>
       </c>
       <c r="C147" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C148" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>22</v>
+      <c r="A148" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="4">
+        <v>44864</v>
+      </c>
+      <c r="C148" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B149" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C149" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2925,10 +2935,10 @@
         <v>44870</v>
       </c>
       <c r="C150" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2939,10 +2949,10 @@
         <v>44870</v>
       </c>
       <c r="C151" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2953,10 +2963,10 @@
         <v>44870</v>
       </c>
       <c r="C152" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2964,13 +2974,13 @@
         <v>46</v>
       </c>
       <c r="B153" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C153" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2978,13 +2988,13 @@
         <v>46</v>
       </c>
       <c r="B154" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C154" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2992,13 +3002,13 @@
         <v>46</v>
       </c>
       <c r="B155" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C155" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3006,30 +3016,30 @@
         <v>46</v>
       </c>
       <c r="B156" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C156" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="25.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B157" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C157" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="25.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
         <v>46</v>
       </c>
@@ -3037,10 +3047,10 @@
         <v>44898</v>
       </c>
       <c r="C158" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3051,10 +3061,10 @@
         <v>44898</v>
       </c>
       <c r="C159" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3065,106 +3075,186 @@
         <v>44898</v>
       </c>
       <c r="C160" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D160" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="25.5">
+      <c r="A162" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C162" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="25.5">
+      <c r="A163" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C163" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C164" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C165" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D160">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D165">
       <sortCondition ref="B1:B146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162 A164:D164">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O160="NO"</formula>
+      <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D80F2C-0D72-4612-AA3E-5AE72A02536D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7DCEA-CADC-4D87-A56E-708B74724AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -826,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2817,30 +2832,30 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B142" s="16">
-        <v>44854</v>
+        <v>44850</v>
       </c>
       <c r="C142" s="17">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B143" s="16">
-        <v>44856</v>
-      </c>
-      <c r="C143" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="25.5">
+      <c r="A143" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="18">
+        <v>44850</v>
+      </c>
+      <c r="C143" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2848,55 +2863,55 @@
         <v>34</v>
       </c>
       <c r="B144" s="16">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="C144" s="17">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="25.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B145" s="16">
         <v>44856</v>
       </c>
       <c r="C145" s="17">
-        <v>0.47916666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B146" s="4">
-        <v>44857</v>
+        <v>44856</v>
       </c>
       <c r="C146" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="7">
-        <v>44862</v>
-      </c>
-      <c r="C147" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="25.5">
+      <c r="A147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2904,13 +2919,13 @@
         <v>46</v>
       </c>
       <c r="B148" s="4">
-        <v>44864</v>
+        <v>44857</v>
       </c>
       <c r="C148" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2918,41 +2933,41 @@
         <v>34</v>
       </c>
       <c r="B149" s="7">
+        <v>44862</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="4">
         <v>44864</v>
       </c>
-      <c r="C149" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B150" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C150" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>52</v>
+      <c r="C150" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B151" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C151" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2966,7 +2981,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2980,7 +2995,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2994,7 +3009,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3008,7 +3023,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3022,7 +3037,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3036,7 +3051,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3044,13 +3059,13 @@
         <v>46</v>
       </c>
       <c r="B158" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C158" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3058,13 +3073,13 @@
         <v>46</v>
       </c>
       <c r="B159" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C159" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3078,7 +3093,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3092,10 +3107,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
         <v>46</v>
       </c>
@@ -3106,10 +3121,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="6" t="s">
         <v>46</v>
       </c>
@@ -3120,10 +3135,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="25.5">
       <c r="A164" s="6" t="s">
         <v>46</v>
       </c>
@@ -3134,10 +3149,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="25.5">
       <c r="A165" s="6" t="s">
         <v>46</v>
       </c>
@@ -3148,113 +3163,156 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C167" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D146" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D165">
-      <sortCondition ref="B1:B146"/>
+  <autoFilter ref="A1:D165" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D167">
+      <sortCondition ref="B1:B165"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O161="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167 A167">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O161="NO"</formula>
+      <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7DCEA-CADC-4D87-A56E-708B74724AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30478EA8-BB78-473F-A9B6-5BEA4AF4D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -841,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:D167"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2874,86 +2884,86 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B145" s="16">
-        <v>44856</v>
+        <v>44854</v>
       </c>
       <c r="C145" s="17">
-        <v>0.70833333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B146" s="4">
         <v>44856</v>
       </c>
       <c r="C146" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="25.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B147" s="4">
         <v>44856</v>
       </c>
       <c r="C147" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="25.5">
+      <c r="A148" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C148" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148" s="4">
+    <row r="149" spans="1:4">
+      <c r="A149" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="4">
         <v>44857</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C149" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="7">
-        <v>44862</v>
-      </c>
-      <c r="C149" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B150" s="4">
-        <v>44864</v>
-      </c>
-      <c r="C150" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>13</v>
+      <c r="A150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="7">
+        <v>44860</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2961,41 +2971,41 @@
         <v>34</v>
       </c>
       <c r="B151" s="7">
+        <v>44862</v>
+      </c>
+      <c r="C151" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="4">
         <v>44864</v>
       </c>
-      <c r="C151" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B152" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C152" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>52</v>
+      <c r="C152" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B153" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C153" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3009,7 +3019,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3023,7 +3033,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3037,7 +3047,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3051,7 +3061,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3065,7 +3075,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3079,7 +3089,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3087,13 +3097,13 @@
         <v>46</v>
       </c>
       <c r="B160" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C160" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3101,13 +3111,13 @@
         <v>46</v>
       </c>
       <c r="B161" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C161" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3121,7 +3131,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3135,10 +3145,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
         <v>46</v>
       </c>
@@ -3149,10 +3159,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
         <v>46</v>
       </c>
@@ -3163,10 +3173,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="25.5">
       <c r="A166" s="6" t="s">
         <v>46</v>
       </c>
@@ -3177,10 +3187,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="25.5">
       <c r="A167" s="6" t="s">
         <v>46</v>
       </c>
@@ -3191,128 +3201,166 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D167" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C168" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B169" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C169" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D165" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D167">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D169">
       <sortCondition ref="B1:B165"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O167="NO"</formula>
+      <formula>$O169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30478EA8-BB78-473F-A9B6-5BEA4AF4D035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956063D-1EEE-4B74-AF84-87BBEFB9C4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -851,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2705,55 +2725,55 @@
         <v>32</v>
       </c>
       <c r="B132" s="16">
-        <v>44848</v>
+        <v>44847</v>
       </c>
       <c r="C132" s="17">
-        <v>0.75</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B133" s="18">
-        <v>44849</v>
+        <v>44847</v>
       </c>
       <c r="C133" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C134" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>58</v>
+      <c r="A134" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="16">
+        <v>44848</v>
+      </c>
+      <c r="C134" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="18">
-        <v>44849</v>
-      </c>
-      <c r="C135" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>22</v>
+      <c r="A135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="16">
+        <v>44848</v>
+      </c>
+      <c r="C135" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2764,10 +2784,10 @@
         <v>44849</v>
       </c>
       <c r="C136" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2778,10 +2798,10 @@
         <v>44849</v>
       </c>
       <c r="C137" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2792,10 +2812,10 @@
         <v>44849</v>
       </c>
       <c r="C138" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2806,10 +2826,10 @@
         <v>44849</v>
       </c>
       <c r="C139" s="19">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2820,248 +2840,248 @@
         <v>44849</v>
       </c>
       <c r="C140" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B141" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C141" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C142" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="18">
+        <v>44849</v>
+      </c>
+      <c r="C143" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" s="18">
         <v>44850</v>
       </c>
-      <c r="C141" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D141" s="21" t="s">
+      <c r="C144" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D144" s="21" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B142" s="16">
-        <v>44850</v>
-      </c>
-      <c r="C142" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="25.5">
-      <c r="A143" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B143" s="18">
-        <v>44850</v>
-      </c>
-      <c r="C143" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="16">
-        <v>44854</v>
-      </c>
-      <c r="C144" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B145" s="16">
+        <v>44850</v>
+      </c>
+      <c r="C145" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="25.5">
+      <c r="A146" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="7">
+        <v>44850</v>
+      </c>
+      <c r="C146" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="25.5">
+      <c r="A147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="7">
+        <v>44851</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="4">
         <v>44854</v>
       </c>
-      <c r="C145" s="17">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B146" s="4">
-        <v>44856</v>
-      </c>
-      <c r="C146" s="5">
+      <c r="C148" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="4">
-        <v>44856</v>
-      </c>
-      <c r="C147" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="25.5">
-      <c r="A148" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="4">
-        <v>44856</v>
-      </c>
-      <c r="C148" s="5">
-        <v>0.47916666666666669</v>
-      </c>
       <c r="D148" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B149" s="4">
+        <v>44854</v>
+      </c>
+      <c r="C149" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C150" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="25.5">
+      <c r="A152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" s="4">
         <v>44857</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C153" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="7">
-        <v>44860</v>
-      </c>
-      <c r="C150" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="7">
-        <v>44862</v>
-      </c>
-      <c r="C151" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B152" s="4">
-        <v>44864</v>
-      </c>
-      <c r="C152" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153" s="7">
-        <v>44864</v>
-      </c>
-      <c r="C153" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B154" s="7">
-        <v>44870</v>
+        <v>44860</v>
       </c>
       <c r="C154" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B155" s="7">
-        <v>44870</v>
+        <v>44862</v>
       </c>
       <c r="C155" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C156" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>22</v>
+      <c r="A156" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" s="4">
+        <v>44864</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B157" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C157" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3075,7 +3095,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3089,7 +3109,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3103,7 +3123,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3117,7 +3137,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3125,13 +3145,13 @@
         <v>46</v>
       </c>
       <c r="B162" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C162" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3139,13 +3159,13 @@
         <v>46</v>
       </c>
       <c r="B163" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C163" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3153,13 +3173,13 @@
         <v>46</v>
       </c>
       <c r="B164" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C164" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3167,16 +3187,16 @@
         <v>46</v>
       </c>
       <c r="B165" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C165" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="25.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
         <v>46</v>
       </c>
@@ -3187,10 +3207,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
         <v>46</v>
       </c>
@@ -3201,7 +3221,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3215,7 +3235,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3229,138 +3249,214 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D169" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="25.5">
+      <c r="A170" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C170" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="25.5">
+      <c r="A171" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C171" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C172" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C173" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D165" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D169">
-      <sortCondition ref="B1:B165"/>
+  <autoFilter ref="A1:D172" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D173">
+      <sortCondition ref="B1:B172"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$O169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O170="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O169="NO"</formula>
+      <formula>$O173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956063D-1EEE-4B74-AF84-87BBEFB9C4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B528CD-7991-4745-B1A9-2F4FEBD0EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -871,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3043,59 +3048,59 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B155" s="7">
+      <c r="A155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" s="4">
+        <v>44861</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="7">
         <v>44862</v>
       </c>
-      <c r="C155" s="8">
+      <c r="C156" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B156" s="4">
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" s="4">
         <v>44864</v>
       </c>
-      <c r="C156" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="C157" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B157" s="7">
-        <v>44864</v>
-      </c>
-      <c r="C157" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B158" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C158" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3106,7 +3111,7 @@
         <v>44870</v>
       </c>
       <c r="C159" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>52</v>
@@ -3120,10 +3125,10 @@
         <v>44870</v>
       </c>
       <c r="C160" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3134,7 +3139,7 @@
         <v>44870</v>
       </c>
       <c r="C161" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>22</v>
@@ -3148,10 +3153,10 @@
         <v>44870</v>
       </c>
       <c r="C162" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3162,7 +3167,7 @@
         <v>44870</v>
       </c>
       <c r="C163" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>35</v>
@@ -3176,10 +3181,10 @@
         <v>44870</v>
       </c>
       <c r="C164" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3190,7 +3195,7 @@
         <v>44870</v>
       </c>
       <c r="C165" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>21</v>
@@ -3201,13 +3206,13 @@
         <v>46</v>
       </c>
       <c r="B166" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C166" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3218,7 +3223,7 @@
         <v>44898</v>
       </c>
       <c r="C167" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>51</v>
@@ -3232,10 +3237,10 @@
         <v>44898</v>
       </c>
       <c r="C168" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3246,13 +3251,13 @@
         <v>44898</v>
       </c>
       <c r="C169" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="25.5">
+    <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
         <v>46</v>
       </c>
@@ -3260,10 +3265,10 @@
         <v>44898</v>
       </c>
       <c r="C170" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="25.5">
@@ -3274,13 +3279,13 @@
         <v>44898</v>
       </c>
       <c r="C171" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" ht="25.5">
       <c r="A172" s="6" t="s">
         <v>46</v>
       </c>
@@ -3288,10 +3293,10 @@
         <v>44898</v>
       </c>
       <c r="C172" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3302,161 +3307,180 @@
         <v>44898</v>
       </c>
       <c r="C173" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C174" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D172" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D173">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D174">
       <sortCondition ref="B1:B172"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156 A156">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O155="NO"</formula>
+      <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$O172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O173="NO"</formula>
+      <formula>$O174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B528CD-7991-4745-B1A9-2F4FEBD0EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A2956-8CE4-4853-9190-892F05E3D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="59">
   <si>
     <t>Municipio</t>
   </si>
@@ -415,7 +415,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -876,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+      <selection activeCell="A176" sqref="A176:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3076,59 +3091,59 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B157" s="4">
+      <c r="A157" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="7">
+        <v>44863</v>
+      </c>
+      <c r="C157" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B158" s="4">
         <v>44864</v>
       </c>
-      <c r="C157" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="C158" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B158" s="7">
-        <v>44864</v>
-      </c>
-      <c r="C158" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B159" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C159" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C160" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>52</v>
+      <c r="A160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="4">
+        <v>44865</v>
+      </c>
+      <c r="C160" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3142,7 +3157,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3156,7 +3171,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3170,7 +3185,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3184,7 +3199,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3198,7 +3213,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3212,7 +3227,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3220,13 +3235,13 @@
         <v>46</v>
       </c>
       <c r="B167" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C167" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3234,13 +3249,13 @@
         <v>46</v>
       </c>
       <c r="B168" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C168" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3254,7 +3269,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3268,10 +3283,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
         <v>46</v>
       </c>
@@ -3282,10 +3297,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
         <v>46</v>
       </c>
@@ -3296,10 +3311,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="25.5">
       <c r="A173" s="6" t="s">
         <v>46</v>
       </c>
@@ -3310,10 +3325,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="25.5">
       <c r="A174" s="6" t="s">
         <v>46</v>
       </c>
@@ -3324,163 +3339,206 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D174" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C175" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C176" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D172" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D174">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D176">
       <sortCondition ref="B1:B172"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$O174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O174="NO"</formula>
+      <formula>$O176="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A2956-8CE4-4853-9190-892F05E3D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3E336-77FE-43E9-BED7-9B142C2ED651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$178</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="60">
   <si>
     <t>Municipio</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Juárez</t>
+  </si>
+  <si>
+    <t>Familia en Marcha NL, A.C.</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -891,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:D176"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3035,31 +3048,31 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B153" s="4">
+      <c r="A153" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="7">
+        <v>44856</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B154" s="4">
         <v>44857</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C154" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="7">
-        <v>44860</v>
-      </c>
-      <c r="C154" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3067,55 +3080,55 @@
         <v>32</v>
       </c>
       <c r="B155" s="4">
-        <v>44861</v>
+        <v>44859</v>
       </c>
       <c r="C155" s="5">
         <v>0.77083333333333337</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B156" s="7">
+        <v>44860</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B157" s="4">
+        <v>44861</v>
+      </c>
+      <c r="C157" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="7">
         <v>44862</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C158" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D158" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B157" s="7">
-        <v>44863</v>
-      </c>
-      <c r="C157" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B158" s="4">
-        <v>44864</v>
-      </c>
-      <c r="C158" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3123,55 +3136,55 @@
         <v>34</v>
       </c>
       <c r="B159" s="7">
-        <v>44864</v>
+        <v>44863</v>
       </c>
       <c r="C159" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B160" s="4">
-        <v>44865</v>
+        <v>44864</v>
       </c>
       <c r="C160" s="5">
-        <v>0.77083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B161" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C161" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B162" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C162" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>52</v>
+      <c r="A162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="4">
+        <v>44865</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3185,7 +3198,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3199,7 +3212,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3213,7 +3226,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3227,7 +3240,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3241,7 +3254,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3255,7 +3268,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3263,13 +3276,13 @@
         <v>46</v>
       </c>
       <c r="B169" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C169" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3277,13 +3290,13 @@
         <v>46</v>
       </c>
       <c r="B170" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C170" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3297,7 +3310,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3311,10 +3324,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
         <v>46</v>
       </c>
@@ -3325,10 +3338,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="25.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
         <v>46</v>
       </c>
@@ -3339,10 +3352,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="25.5">
       <c r="A175" s="6" t="s">
         <v>46</v>
       </c>
@@ -3353,10 +3366,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="25.5">
       <c r="A176" s="6" t="s">
         <v>46</v>
       </c>
@@ -3367,178 +3380,216 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D176" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C177" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C178" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D172" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D176">
-      <sortCondition ref="B1:B172"/>
+  <autoFilter ref="A1:D178" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D178">
+      <sortCondition ref="B1:B178"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="31" priority="32">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O176="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:D176">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178:D178">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O176="NO"</formula>
+      <formula>$O178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3E336-77FE-43E9-BED7-9B142C2ED651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EFC4C-69A3-4264-8E6A-8A654F612FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="60">
   <si>
     <t>Municipio</t>
   </si>
@@ -418,7 +418,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -904,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3076,31 +3096,31 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="4">
-        <v>44859</v>
-      </c>
-      <c r="C155" s="5">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>26</v>
+      <c r="A155" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="7">
+        <v>44857</v>
+      </c>
+      <c r="C155" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B156" s="7">
-        <v>44860</v>
+        <v>44858</v>
       </c>
       <c r="C156" s="8">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3108,55 +3128,55 @@
         <v>32</v>
       </c>
       <c r="B157" s="4">
-        <v>44861</v>
+        <v>44859</v>
       </c>
       <c r="C157" s="5">
         <v>0.77083333333333337</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="7">
+        <v>44860</v>
+      </c>
+      <c r="C158" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="4">
+        <v>44861</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B160" s="7">
         <v>44862</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C160" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B159" s="7">
-        <v>44863</v>
-      </c>
-      <c r="C159" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="4">
-        <v>44864</v>
-      </c>
-      <c r="C160" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3164,13 +3184,13 @@
         <v>34</v>
       </c>
       <c r="B161" s="7">
-        <v>44864</v>
+        <v>44863</v>
       </c>
       <c r="C161" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3178,55 +3198,55 @@
         <v>32</v>
       </c>
       <c r="B162" s="4">
-        <v>44865</v>
+        <v>44863</v>
       </c>
       <c r="C162" s="5">
         <v>0.77083333333333337</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C163" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>52</v>
+      <c r="A163" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" s="4">
+        <v>44864</v>
+      </c>
+      <c r="C163" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B164" s="7">
-        <v>44870</v>
+        <v>44864</v>
       </c>
       <c r="C164" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B165" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C165" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>22</v>
+      <c r="A165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="4">
+        <v>44865</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3237,10 +3257,10 @@
         <v>44870</v>
       </c>
       <c r="C166" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3251,10 +3271,10 @@
         <v>44870</v>
       </c>
       <c r="C167" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3265,10 +3285,10 @@
         <v>44870</v>
       </c>
       <c r="C168" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3279,10 +3299,10 @@
         <v>44870</v>
       </c>
       <c r="C169" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3293,10 +3313,10 @@
         <v>44870</v>
       </c>
       <c r="C170" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3304,13 +3324,13 @@
         <v>46</v>
       </c>
       <c r="B171" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C171" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3318,13 +3338,13 @@
         <v>46</v>
       </c>
       <c r="B172" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C172" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3332,13 +3352,13 @@
         <v>46</v>
       </c>
       <c r="B173" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C173" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3346,16 +3366,16 @@
         <v>46</v>
       </c>
       <c r="B174" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C174" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="25.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
         <v>46</v>
       </c>
@@ -3366,10 +3386,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
         <v>46</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3394,7 +3414,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3408,188 +3428,264 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D178" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="25.5">
+      <c r="A179" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C179" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="25.5">
+      <c r="A180" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C180" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C181" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C182" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D178" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D178">
-      <sortCondition ref="B1:B178"/>
+  <autoFilter ref="A1:D179" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D182">
+      <sortCondition ref="B1:B179"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$O146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148 A148">
+      <formula>$O149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$O150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$O152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$O151="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$O153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$O154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O151="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156 A156">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$O157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
+      <formula>$O158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$O159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$O160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162 A164:D164">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$O162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$O161="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$O166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167 A167">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162 A164:D164">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O161="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$O168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167 A167">
+      <formula>$O169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$O170="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:D171">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$O171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$O172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
+      <formula>$O173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O170="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171:D171">
+      <formula>$O174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$O175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178:D178">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
+      <formula>$O178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179:D179">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:D176">
+      <formula>$O179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$O180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181:D181">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178:D178">
+      <formula>$O181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O178="NO"</formula>
+      <formula>$O182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EFC4C-69A3-4264-8E6A-8A654F612FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342C875-5959-4389-B7D8-A16FC12ED1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$183</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="60">
   <si>
     <t>Municipio</t>
   </si>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3251,16 +3251,16 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B166" s="7">
-        <v>44870</v>
+        <v>44868</v>
       </c>
       <c r="C166" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3271,7 +3271,7 @@
         <v>44870</v>
       </c>
       <c r="C167" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>52</v>
@@ -3285,10 +3285,10 @@
         <v>44870</v>
       </c>
       <c r="C168" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3299,7 +3299,7 @@
         <v>44870</v>
       </c>
       <c r="C169" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>22</v>
@@ -3313,10 +3313,10 @@
         <v>44870</v>
       </c>
       <c r="C170" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3327,7 +3327,7 @@
         <v>44870</v>
       </c>
       <c r="C171" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>35</v>
@@ -3341,10 +3341,10 @@
         <v>44870</v>
       </c>
       <c r="C172" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3355,7 +3355,7 @@
         <v>44870</v>
       </c>
       <c r="C173" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>21</v>
@@ -3366,13 +3366,13 @@
         <v>46</v>
       </c>
       <c r="B174" s="7">
-        <v>44891</v>
+        <v>44870</v>
       </c>
       <c r="C174" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3380,13 +3380,13 @@
         <v>46</v>
       </c>
       <c r="B175" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C175" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3397,7 +3397,7 @@
         <v>44898</v>
       </c>
       <c r="C176" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D176" s="6" t="s">
         <v>51</v>
@@ -3411,10 +3411,10 @@
         <v>44898</v>
       </c>
       <c r="C177" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>44898</v>
       </c>
       <c r="C178" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="25.5">
+    <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
         <v>46</v>
       </c>
@@ -3439,10 +3439,10 @@
         <v>44898</v>
       </c>
       <c r="C179" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="25.5">
@@ -3453,13 +3453,13 @@
         <v>44898</v>
       </c>
       <c r="C180" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" ht="25.5">
       <c r="A181" s="6" t="s">
         <v>46</v>
       </c>
@@ -3467,10 +3467,10 @@
         <v>44898</v>
       </c>
       <c r="C181" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3481,16 +3481,30 @@
         <v>44898</v>
       </c>
       <c r="C182" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C183" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D179" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D182">
-      <sortCondition ref="B1:B179"/>
+  <autoFilter ref="A1:D183" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D183">
+      <sortCondition ref="B1:B183"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342C875-5959-4389-B7D8-A16FC12ED1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A1F89-A2FC-4778-A273-2F20B24AE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="60">
   <si>
     <t>Municipio</t>
   </si>
@@ -418,7 +418,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -924,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3207,88 +3247,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B163" s="4">
-        <v>44864</v>
-      </c>
-      <c r="C163" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>13</v>
+    <row r="163" spans="1:4" ht="25.5">
+      <c r="A163" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="7">
+        <v>44863</v>
+      </c>
+      <c r="C163" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B164" s="7">
-        <v>44864</v>
-      </c>
-      <c r="C164" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>44</v>
+      <c r="A164" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" s="4">
+        <v>44863</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B165" s="4">
-        <v>44865</v>
+        <v>44864</v>
       </c>
       <c r="C165" s="5">
-        <v>0.77083333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B166" s="7">
-        <v>44868</v>
+        <v>44864</v>
       </c>
       <c r="C166" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B167" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C167" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>52</v>
+      <c r="A167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="4">
+        <v>44865</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B168" s="7">
-        <v>44870</v>
+        <v>44868</v>
       </c>
       <c r="C168" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3302,7 +3342,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3316,7 +3356,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3330,7 +3370,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3344,7 +3384,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3358,7 +3398,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3372,7 +3412,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3380,13 +3420,13 @@
         <v>46</v>
       </c>
       <c r="B175" s="7">
-        <v>44891</v>
+        <v>44870</v>
       </c>
       <c r="C175" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3394,13 +3434,13 @@
         <v>46</v>
       </c>
       <c r="B176" s="7">
-        <v>44898</v>
+        <v>44870</v>
       </c>
       <c r="C176" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3408,27 +3448,27 @@
         <v>46</v>
       </c>
       <c r="B177" s="7">
-        <v>44898</v>
+        <v>44877</v>
       </c>
       <c r="C177" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B178" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C178" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>37</v>
+      <c r="A178" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="4">
+        <v>44877</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3436,30 +3476,30 @@
         <v>46</v>
       </c>
       <c r="B179" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C179" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="25.5">
-      <c r="A180" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C180" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="25.5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>46</v>
       </c>
@@ -3467,10 +3507,10 @@
         <v>44898</v>
       </c>
       <c r="C181" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3481,10 +3521,10 @@
         <v>44898</v>
       </c>
       <c r="C182" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3495,211 +3535,321 @@
         <v>44898</v>
       </c>
       <c r="C183" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D183" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C184" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="25.5">
+      <c r="A185" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C185" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="25.5">
+      <c r="A186" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C186" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C187" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C188" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D183" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D183">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D188">
       <sortCondition ref="B1:B183"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$O149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$O150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$O152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$O151="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$O146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148 A148">
+      <formula>$O153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$O154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156 A156">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$O149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+      <formula>$O157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O151="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$O158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$O159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$O160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162 A164:D164">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$O162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
+      <formula>$O161="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$O166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167 A167">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$O168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$O169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162 A164:D164">
+      <formula>$O170="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171:D171">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
+      <formula>$O171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O161="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$O172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167 A167">
+      <formula>$O173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$O174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$O175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A176">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
+      <formula>$O176="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O170="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171:D171">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178:D178">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$O178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179:D179">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$O179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$O180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181:D181">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$O181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
+      <formula>$O182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:D176">
+      <formula>$O184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186:D186 A185">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$O185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178:D178">
+      <formula>$O186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B185:D185">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179:D179">
+      <formula>$O185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B186">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$O186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181:D181">
+      <formula>$O188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$O187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B188:D188">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O182="NO"</formula>
+      <formula>$O188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4A1F89-A2FC-4778-A273-2F20B24AE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BEA5D-746B-4466-A835-E5EE4874D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$176</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="61">
   <si>
     <t>Municipio</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Familia en Marcha NL, A.C.</t>
+  </si>
+  <si>
+    <t>Linares</t>
   </si>
 </sst>
 </file>
@@ -418,12 +421,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -966,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A187" sqref="A187:D188"/>
     </sheetView>
   </sheetViews>
@@ -3276,87 +3274,87 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B165" s="7">
+        <v>44863</v>
+      </c>
+      <c r="C165" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B166" s="4">
         <v>44864</v>
       </c>
-      <c r="C165" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D165" s="3" t="s">
+      <c r="C166" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B166" s="7">
+    <row r="167" spans="1:4">
+      <c r="A167" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="7">
         <v>44864</v>
       </c>
-      <c r="C166" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D166" s="6" t="s">
+      <c r="C167" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="3" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B168" s="4">
         <v>44865</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C168" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B168" s="7">
-        <v>44868</v>
-      </c>
-      <c r="C168" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B169" s="7">
-        <v>44870</v>
+        <v>44868</v>
       </c>
       <c r="C169" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B170" s="7">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="C170" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3370,49 +3368,49 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B172" s="7">
         <v>44870</v>
       </c>
       <c r="C172" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B173" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C173" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>35</v>
+      <c r="B173" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C173" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B174" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C174" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>35</v>
+      <c r="A174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C174" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3420,74 +3418,74 @@
         <v>46</v>
       </c>
       <c r="B175" s="7">
-        <v>44870</v>
+        <v>44877</v>
       </c>
       <c r="C175" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B176" s="7">
-        <v>44870</v>
-      </c>
-      <c r="C176" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>21</v>
+      <c r="B176" s="4">
+        <v>44877</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="4">
+        <v>44880</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B177" s="7">
-        <v>44877</v>
-      </c>
-      <c r="C177" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="3" t="s">
+      <c r="B178" s="7">
+        <v>44891</v>
+      </c>
+      <c r="C178" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B178" s="4">
-        <v>44877</v>
-      </c>
-      <c r="C178" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B179" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C179" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>50</v>
+      <c r="B179" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B180" s="4">
         <v>44892</v>
@@ -3496,7 +3494,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3612,244 +3610,239 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D183" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+  <autoFilter ref="A1:D176" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D188">
-      <sortCondition ref="B1:B183"/>
+      <sortCondition ref="B1:B176"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>$O146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>$O147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>$O149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>$O150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>$O152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>$O151="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>$O153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>$O154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>$O157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>$O158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>$O159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>$O160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>$O162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>$O161="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>$O166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>$O168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$O169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$O171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$O173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A176">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B176:D176">
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O176="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179 A178">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178:D178">
+      <formula>$O178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$O179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179:D179">
-    <cfRule type="expression" dxfId="11" priority="12">
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181:D181">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$O180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$O181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$O183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O184="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C186:D186 A185">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A185:D185">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O185="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A186">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="A186:D186">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$O186="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B185:D185">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B186">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A188:D188">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$O188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:D187">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$O187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B188:D188">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8BEA5D-746B-4466-A835-E5EE4874D8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A89DF-5942-4473-B507-5DC9F3E92B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$188</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
   <si>
     <t>Municipio</t>
   </si>
@@ -421,7 +421,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -962,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:D188"/>
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3316,92 +3321,92 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" s="7">
+        <v>44864</v>
+      </c>
+      <c r="C168" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B169" s="4">
         <v>44865</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C169" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" s="7">
-        <v>44868</v>
-      </c>
-      <c r="C169" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B170" s="7">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="C170" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B171" s="7">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="C171" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B172" s="7">
         <v>44870</v>
       </c>
       <c r="C172" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" s="7">
+        <v>44870</v>
+      </c>
+      <c r="C173" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B173" s="4">
-        <v>44871</v>
-      </c>
-      <c r="C173" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B174" s="4">
         <v>44871</v>
@@ -3410,82 +3415,82 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D174" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C175" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B176" s="7">
         <v>44877</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C176" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B176" s="4">
-        <v>44877</v>
-      </c>
-      <c r="C176" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" s="4">
+        <v>44877</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B178" s="4">
         <v>44880</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C178" s="5">
         <v>0.75</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B179" s="7">
         <v>44891</v>
       </c>
-      <c r="C178" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D178" s="6" t="s">
+      <c r="C179" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B179" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C179" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B180" s="4">
         <v>44892</v>
@@ -3494,21 +3499,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D180" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B181" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C181" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3519,7 +3524,7 @@
         <v>44898</v>
       </c>
       <c r="C182" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>51</v>
@@ -3533,10 +3538,10 @@
         <v>44898</v>
       </c>
       <c r="C183" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3547,13 +3552,13 @@
         <v>44898</v>
       </c>
       <c r="C184" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="25.5">
+    <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
         <v>46</v>
       </c>
@@ -3561,10 +3566,10 @@
         <v>44898</v>
       </c>
       <c r="C185" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="25.5">
@@ -3575,13 +3580,13 @@
         <v>44898</v>
       </c>
       <c r="C186" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" ht="25.5">
       <c r="A187" s="6" t="s">
         <v>46</v>
       </c>
@@ -3589,10 +3594,10 @@
         <v>44898</v>
       </c>
       <c r="C187" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3603,246 +3608,265 @@
         <v>44898</v>
       </c>
       <c r="C188" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C189" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D176" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D188">
-      <sortCondition ref="B1:B176"/>
+  <autoFilter ref="A1:D188" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D189">
+      <sortCondition ref="B1:B188"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="46" priority="55">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148 A148">
     <cfRule type="expression" dxfId="45" priority="54">
-      <formula>$O146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148 A148">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="44" priority="53">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="43" priority="52">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="42" priority="51">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$O149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$O149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$O150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="40" priority="49">
-      <formula>$O150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$O152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
     <cfRule type="expression" dxfId="39" priority="48">
-      <formula>$O152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+      <formula>$O151="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="38" priority="47">
-      <formula>$O151="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$O153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="37" priority="46">
-      <formula>$O153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$O154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="36" priority="45">
-      <formula>$O154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="35" priority="44">
       <formula>$O155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156 A156">
     <cfRule type="expression" dxfId="34" priority="43">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="33" priority="42">
       <formula>$O156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="32" priority="41">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$O157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="31" priority="40">
-      <formula>$O157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$O158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="30" priority="39">
-      <formula>$O158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$O159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="29" priority="38">
-      <formula>$O159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$O160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162 A164:D164">
     <cfRule type="expression" dxfId="28" priority="37">
-      <formula>$O160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162 A164:D164">
+      <formula>$O162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
     <cfRule type="expression" dxfId="27" priority="36">
-      <formula>$O162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
+      <formula>$O161="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="26" priority="35">
-      <formula>$O161="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$O166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167 A167">
     <cfRule type="expression" dxfId="25" priority="34">
-      <formula>$O166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167 A167">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="24" priority="33">
       <formula>$O167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="23" priority="32">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$O168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="22" priority="31">
-      <formula>$O168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$O169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="21" priority="30">
-      <formula>$O169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$O171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$O172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$O173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$O174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$O175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179 A178">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179 A178">
+      <formula>$O178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$O179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$O178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="12" priority="13">
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$O181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$O180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$O183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$O182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$O184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$O185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$O186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$O188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$O187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O187="NO"</formula>
+      <formula>$O189="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A89DF-5942-4473-B507-5DC9F3E92B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB036257-91A1-43D5-8BA1-AAA31C3F85EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="61">
   <si>
     <t>Municipio</t>
   </si>
@@ -421,7 +421,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -967,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3404,23 +3414,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B174" s="4">
-        <v>44871</v>
-      </c>
-      <c r="C174" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>45</v>
+    <row r="174" spans="1:4" ht="25.5">
+      <c r="A174" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" s="7">
+        <v>44870</v>
+      </c>
+      <c r="C174" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B175" s="4">
         <v>44871</v>
@@ -3429,82 +3439,82 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D175" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C176" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="6" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B177" s="7">
         <v>44877</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C177" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D177" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B177" s="4">
-        <v>44877</v>
-      </c>
-      <c r="C177" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="4">
+        <v>44877</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B179" s="4">
         <v>44880</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C179" s="5">
         <v>0.75</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B180" s="7">
         <v>44891</v>
       </c>
-      <c r="C179" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D179" s="6" t="s">
+      <c r="C180" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C180" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B181" s="4">
         <v>44892</v>
@@ -3513,21 +3523,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D181" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B182" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C182" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3538,7 +3548,7 @@
         <v>44898</v>
       </c>
       <c r="C183" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>51</v>
@@ -3552,10 +3562,10 @@
         <v>44898</v>
       </c>
       <c r="C184" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3566,13 +3576,13 @@
         <v>44898</v>
       </c>
       <c r="C185" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="25.5">
+    <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
         <v>46</v>
       </c>
@@ -3580,10 +3590,10 @@
         <v>44898</v>
       </c>
       <c r="C186" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="25.5">
@@ -3594,13 +3604,13 @@
         <v>44898</v>
       </c>
       <c r="C187" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" ht="25.5">
       <c r="A188" s="6" t="s">
         <v>46</v>
       </c>
@@ -3608,10 +3618,10 @@
         <v>44898</v>
       </c>
       <c r="C188" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3622,251 +3632,275 @@
         <v>44898</v>
       </c>
       <c r="C189" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C190" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D188" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D189">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D190">
       <sortCondition ref="B1:B188"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146">
+    <cfRule type="expression" dxfId="48" priority="57">
+      <formula>$O146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148 A148">
+    <cfRule type="expression" dxfId="47" priority="56">
+      <formula>$O148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="46" priority="55">
-      <formula>$O146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148 A148">
+      <formula>$O147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="45" priority="54">
       <formula>$O148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="44" priority="53">
-      <formula>$O147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$O149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="43" priority="52">
-      <formula>$O148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$O150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="42" priority="51">
-      <formula>$O149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$O152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
     <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$O150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$O151="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="40" priority="49">
-      <formula>$O152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
+      <formula>$O153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="39" priority="48">
-      <formula>$O151="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$O154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="38" priority="47">
-      <formula>$O153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="37" priority="46">
-      <formula>$O154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$O155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156 A156">
     <cfRule type="expression" dxfId="36" priority="45">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="35" priority="44">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
+      <formula>$O156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="34" priority="43">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$O157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="33" priority="42">
-      <formula>$O156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$O158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="32" priority="41">
-      <formula>$O157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$O159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="31" priority="40">
-      <formula>$O158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$O160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162 A164:D164">
     <cfRule type="expression" dxfId="30" priority="39">
-      <formula>$O159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$O162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
     <cfRule type="expression" dxfId="29" priority="38">
-      <formula>$O160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162 A164:D164">
+      <formula>$O161="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="28" priority="37">
-      <formula>$O162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
+      <formula>$O166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167 A167">
     <cfRule type="expression" dxfId="27" priority="36">
-      <formula>$O161="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="26" priority="35">
-      <formula>$O166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167 A167">
+      <formula>$O167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="25" priority="34">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$O168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="24" priority="33">
-      <formula>$O167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$O169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="23" priority="32">
-      <formula>$O168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="22" priority="31">
-      <formula>$O169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$O170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$O171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$O172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$O173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$O174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$O175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$O177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179 A178">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$O178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179 A178">
+      <formula>$O179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="14" priority="15">
       <formula>$O178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$O181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$O180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$O183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$O182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$O184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$O185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$O186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$O188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$O187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$O189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$O190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O189="NO"</formula>
+      <formula>$O190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB036257-91A1-43D5-8BA1-AAA31C3F85EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC1FD8-0E1D-41AE-AB37-ADA7D3633409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$196</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Linares</t>
+  </si>
+  <si>
+    <t>Pesquería</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,12 +419,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -977,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:D190"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -991,7 +1053,7 @@
     <col min="4" max="4" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1019,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1061,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1102,9 +1164,9 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
@@ -1202,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3457,87 +3519,87 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B177" s="7">
+      <c r="A177" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="23">
+        <v>44875</v>
+      </c>
+      <c r="C177" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="7">
         <v>44877</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C178" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D178" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B178" s="4">
-        <v>44877</v>
-      </c>
-      <c r="C178" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B179" s="4">
-        <v>44880</v>
+        <v>44877</v>
       </c>
       <c r="C179" s="5">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C180" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>50</v>
+      <c r="A180" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="4">
+        <v>44878</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B181" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C181" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>57</v>
+      <c r="A181" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" s="23">
+        <v>44878</v>
+      </c>
+      <c r="C181" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B182" s="4">
-        <v>44892</v>
+        <v>44880</v>
       </c>
       <c r="C182" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3545,41 +3607,41 @@
         <v>46</v>
       </c>
       <c r="B183" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C183" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B184" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C184" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>51</v>
+      <c r="A184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B185" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C185" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>37</v>
+      <c r="A185" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C185" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3590,13 +3652,13 @@
         <v>44898</v>
       </c>
       <c r="C186" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
         <v>46</v>
       </c>
@@ -3604,13 +3666,13 @@
         <v>44898</v>
       </c>
       <c r="C187" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>46</v>
       </c>
@@ -3618,10 +3680,10 @@
         <v>44898</v>
       </c>
       <c r="C188" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3632,13 +3694,13 @@
         <v>44898</v>
       </c>
       <c r="C189" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="25.5">
       <c r="A190" s="6" t="s">
         <v>46</v>
       </c>
@@ -3646,261 +3708,399 @@
         <v>44898</v>
       </c>
       <c r="C190" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D190" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="25.5">
+      <c r="A191" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C191" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C192" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C193" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="23">
+        <v>44904</v>
+      </c>
+      <c r="C194" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" s="23">
+        <v>44905</v>
+      </c>
+      <c r="C195" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" s="23">
+        <v>44906</v>
+      </c>
+      <c r="C196" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="4">
+        <v>44884</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D188" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D190">
-      <sortCondition ref="B1:B188"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="A146:D146">
-    <cfRule type="expression" dxfId="48" priority="57">
-      <formula>$O146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148 A148">
-    <cfRule type="expression" dxfId="47" priority="56">
-      <formula>$O148="NO"</formula>
+  <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="46" priority="55">
-      <formula>$O147="NO"</formula>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$N147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="45" priority="54">
-      <formula>$O148="NO"</formula>
+    <cfRule type="expression" dxfId="55" priority="63">
+      <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="44" priority="53">
-      <formula>$O149="NO"</formula>
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$N149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="43" priority="52">
-      <formula>$O150="NO"</formula>
+    <cfRule type="expression" dxfId="53" priority="61">
+      <formula>$N150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="42" priority="51">
-      <formula>$O152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153 A151:D151 A153">
-    <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$O151="NO"</formula>
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
+    <cfRule type="expression" dxfId="51" priority="59">
+      <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="40" priority="49">
-      <formula>$O153="NO"</formula>
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>$O154="NO"</formula>
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>$N154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="38" priority="47">
-      <formula>$O155="NO"</formula>
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="37" priority="46">
-      <formula>$O155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156 A156">
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>$O156="NO"</formula>
+    <cfRule type="expression" dxfId="47" priority="55">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
+    <cfRule type="expression" dxfId="46" priority="54">
+      <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>$O156="NO"</formula>
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="34" priority="43">
-      <formula>$O157="NO"</formula>
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>$N157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="33" priority="42">
-      <formula>$O158="NO"</formula>
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>$N158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="32" priority="41">
-      <formula>$O159="NO"</formula>
+    <cfRule type="expression" dxfId="42" priority="50">
+      <formula>$N159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="31" priority="40">
-      <formula>$O160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162 A164:D164">
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>$O162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163 A165:D165 A161:D161">
-    <cfRule type="expression" dxfId="29" priority="38">
-      <formula>$O161="NO"</formula>
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
+    <cfRule type="expression" dxfId="39" priority="47">
+      <formula>$N163="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="28" priority="37">
-      <formula>$O166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167 A167">
-    <cfRule type="expression" dxfId="27" priority="36">
-      <formula>$O167="NO"</formula>
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
+    <cfRule type="expression" dxfId="37" priority="45">
+      <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>$O167="NO"</formula>
+    <cfRule type="expression" dxfId="36" priority="44">
+      <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="25" priority="34">
-      <formula>$O168="NO"</formula>
+    <cfRule type="expression" dxfId="35" priority="43">
+      <formula>$N168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="24" priority="33">
-      <formula>$O169="NO"</formula>
+    <cfRule type="expression" dxfId="34" priority="42">
+      <formula>$N169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="23" priority="32">
-      <formula>$O170="NO"</formula>
+    <cfRule type="expression" dxfId="33" priority="41">
+      <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O171="NO"</formula>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$N171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O172="NO"</formula>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$N172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O173="NO"</formula>
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$N173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O174="NO"</formula>
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$N174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O175="NO"</formula>
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$N175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:D177">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179 A178">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O178="NO"</formula>
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O179="NO"</formula>
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O178="NO"</formula>
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$N178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O179="NO"</formula>
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O181="NO"</formula>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O180="NO"</formula>
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$N180="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:D181">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O181="NO"</formula>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183:D183">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O183="NO"</formula>
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$N183="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O182="NO"</formula>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$N182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O184="NO"</formula>
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$N184="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:D185">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O185="NO"</formula>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$N185="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:D186">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O186="NO"</formula>
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$N186="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:D188">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O188="NO"</formula>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$N188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:D187">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O187="NO"</formula>
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$N187="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:D189">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O189="NO"</formula>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$N189="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O190="NO"</formula>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:D190">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O190="NO"</formula>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$O197="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC1FD8-0E1D-41AE-AB37-ADA7D3633409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F2C40-B4B6-45A8-9400-773B05903D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$198</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,21 +419,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1039,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3492,21 +3493,21 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B175" s="4">
-        <v>44871</v>
+        <v>44870</v>
       </c>
       <c r="C175" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B176" s="4">
         <v>44871</v>
@@ -3515,91 +3516,91 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D176" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C177" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" s="23">
-        <v>44875</v>
-      </c>
-      <c r="C177" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B178" s="7">
-        <v>44877</v>
+        <v>44871</v>
       </c>
       <c r="C178" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="D178" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="7">
+        <v>44875</v>
+      </c>
+      <c r="C179" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="7">
+        <v>44877</v>
+      </c>
+      <c r="C180" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B179" s="4">
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" s="4">
         <v>44877</v>
       </c>
-      <c r="C179" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D179" s="3" t="s">
+      <c r="C181" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="4">
-        <v>44878</v>
-      </c>
-      <c r="C180" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B181" s="23">
-        <v>44878</v>
-      </c>
-      <c r="C181" s="24">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B182" s="4">
-        <v>44880</v>
+        <v>44878</v>
       </c>
       <c r="C182" s="5">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3607,41 +3608,41 @@
         <v>46</v>
       </c>
       <c r="B183" s="7">
-        <v>44891</v>
+        <v>44878</v>
       </c>
       <c r="C183" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B184" s="4">
-        <v>44892</v>
+        <v>44880</v>
       </c>
       <c r="C184" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B185" s="4">
-        <v>44892</v>
+        <v>44884</v>
       </c>
       <c r="C185" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3649,41 +3650,41 @@
         <v>46</v>
       </c>
       <c r="B186" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C186" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B187" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C187" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>51</v>
+      <c r="A187" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B188" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C188" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>37</v>
+      <c r="A188" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B188" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3694,13 +3695,13 @@
         <v>44898</v>
       </c>
       <c r="C189" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
         <v>46</v>
       </c>
@@ -3708,13 +3709,13 @@
         <v>44898</v>
       </c>
       <c r="C190" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
         <v>46</v>
       </c>
@@ -3722,10 +3723,10 @@
         <v>44898</v>
       </c>
       <c r="C191" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3736,13 +3737,13 @@
         <v>44898</v>
       </c>
       <c r="C192" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="25.5">
       <c r="A193" s="6" t="s">
         <v>46</v>
       </c>
@@ -3750,357 +3751,405 @@
         <v>44898</v>
       </c>
       <c r="C193" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D193" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="25.5">
+      <c r="A194" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C194" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C195" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B194" s="23">
+    <row r="196" spans="1:4">
+      <c r="A196" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C196" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="7">
         <v>44904</v>
       </c>
-      <c r="C194" s="24">
+      <c r="C197" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D194" s="22" t="s">
+      <c r="D197" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B195" s="23">
+    <row r="198" spans="1:4">
+      <c r="A198" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B198" s="7">
         <v>44905</v>
       </c>
-      <c r="C195" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D195" s="22" t="s">
+      <c r="C198" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B196" s="23">
+    <row r="199" spans="1:4">
+      <c r="A199" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B199" s="7">
         <v>44906</v>
       </c>
-      <c r="C196" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D196" s="22" t="s">
+      <c r="C199" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B197" s="4">
-        <v>44884</v>
-      </c>
-      <c r="C197" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:D198" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D199">
+      <sortCondition ref="B1:B198"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
-    <cfRule type="expression" dxfId="58" priority="66">
+    <cfRule type="expression" dxfId="60" priority="69">
       <formula>$N146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148">
-    <cfRule type="expression" dxfId="57" priority="65">
+    <cfRule type="expression" dxfId="59" priority="68">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="58" priority="67">
       <formula>$N147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="55" priority="63">
+    <cfRule type="expression" dxfId="57" priority="66">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="54" priority="62">
+    <cfRule type="expression" dxfId="56" priority="65">
       <formula>$N149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="53" priority="61">
+    <cfRule type="expression" dxfId="55" priority="64">
       <formula>$N150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="52" priority="60">
+    <cfRule type="expression" dxfId="54" priority="63">
       <formula>$N152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153">
-    <cfRule type="expression" dxfId="51" priority="59">
+    <cfRule type="expression" dxfId="53" priority="62">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="52" priority="61">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="51" priority="60">
       <formula>$N154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="50" priority="59">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="47" priority="55">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156">
-    <cfRule type="expression" dxfId="46" priority="54">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="45" priority="53">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="44" priority="52">
+    <cfRule type="expression" dxfId="46" priority="55">
       <formula>$N157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="43" priority="51">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>$N158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="42" priority="50">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>$N159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="41" priority="49">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>$N160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162">
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>$N162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163">
-    <cfRule type="expression" dxfId="39" priority="47">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>$N163="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>$N166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="35" priority="43">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>$N168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="34" priority="42">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>$N169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="33" priority="41">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$N171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$N172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>$N173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$N174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$N175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:D177">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>$N177="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179:D179">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$N178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$N180="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:D181">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183:D183">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$N183="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$N182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$N184="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:D185">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$N185="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:D186">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$N186="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:D188">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$N188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:D187">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$N187="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:D189">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$N189="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:D190">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191:D191">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$N191="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193:D193 A192:A193">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:D192">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:D194">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:D195">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O195="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:D196">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197:D197">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F2C40-B4B6-45A8-9400-773B05903D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCE34F-8DE3-4858-A3F4-4D82B27A0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$201</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1040,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3562,241 +3587,241 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="7">
+      <c r="A180" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="4">
+        <v>44876</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="7">
+        <v>44876</v>
+      </c>
+      <c r="C181" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" s="7">
         <v>44877</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C182" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B181" s="4">
+    <row r="183" spans="1:4">
+      <c r="A183" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" s="4">
         <v>44877</v>
       </c>
-      <c r="C181" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D181" s="3" t="s">
+      <c r="C183" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B182" s="4">
-        <v>44878</v>
-      </c>
-      <c r="C182" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B183" s="7">
-        <v>44878</v>
-      </c>
-      <c r="C183" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" s="4">
+        <v>44878</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" s="7">
+        <v>44878</v>
+      </c>
+      <c r="C185" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B186" s="4">
         <v>44880</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C186" s="5">
         <v>0.75</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B185" s="4">
-        <v>44884</v>
-      </c>
-      <c r="C185" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B186" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C186" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B187" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C187" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>57</v>
+      <c r="A187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="7">
+        <v>44882</v>
+      </c>
+      <c r="C187" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B188" s="4">
-        <v>44892</v>
+        <v>44883</v>
       </c>
       <c r="C188" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B189" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C189" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>51</v>
+      <c r="A189" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" s="4">
+        <v>44884</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B190" s="7">
-        <v>44898</v>
+        <v>44885</v>
       </c>
       <c r="C190" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B191" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C191" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>37</v>
+      <c r="A191" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="4">
+        <v>44887</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B192" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C192" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="25.5">
+      <c r="A192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192" s="4">
+        <v>44890</v>
+      </c>
+      <c r="C192" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B193" s="7">
-        <v>44898</v>
+        <v>44891</v>
       </c>
       <c r="C193" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="25.5">
-      <c r="A194" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B194" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C194" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B195" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C195" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>44</v>
+      <c r="A195" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B196" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C196" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3804,13 +3829,13 @@
         <v>46</v>
       </c>
       <c r="B197" s="7">
-        <v>44904</v>
+        <v>44898</v>
       </c>
       <c r="C197" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3818,13 +3843,13 @@
         <v>46</v>
       </c>
       <c r="B198" s="7">
-        <v>44905</v>
+        <v>44898</v>
       </c>
       <c r="C198" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3832,324 +3857,461 @@
         <v>46</v>
       </c>
       <c r="B199" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C199" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C200" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="25.5">
+      <c r="A201" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C201" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="25.5">
+      <c r="A202" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C202" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B203" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C203" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C204" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C205" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B206" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C206" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B207" s="7">
         <v>44906</v>
       </c>
-      <c r="C199" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D199" s="6" t="s">
+      <c r="C207" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D207" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D198" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D199">
-      <sortCondition ref="B1:B198"/>
+  <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D207">
+      <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="65" priority="74">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="64" priority="73">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="63" priority="72">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="62" priority="71">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="61" priority="70">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="60" priority="69">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="59" priority="68">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="58" priority="67">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="57" priority="66">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="56" priority="65">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="55" priority="64">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="54" priority="63">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="53" priority="62">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="52" priority="61">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="51" priority="60">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="50" priority="59">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="49" priority="58">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="48" priority="57">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="47" priority="56">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="46" priority="55">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="45" priority="54">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="44" priority="53">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="43" priority="52">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="42" priority="51">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="40" priority="49">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="39" priority="48">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="38" priority="47">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="37" priority="46">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="35" priority="44">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O200="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B207:D207 A203:D203 A205:D205">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202:D202 A204:D204 A206:D206">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O199="NO"</formula>
+      <formula>$O207="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCE34F-8DE3-4858-A3F4-4D82B27A0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF871ED-A613-4BBA-A127-2BA7FDB51F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1065,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3815,27 +3820,27 @@
         <v>32</v>
       </c>
       <c r="B196" s="7">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C196" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B197" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C197" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3846,7 +3851,7 @@
         <v>44898</v>
       </c>
       <c r="C198" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>51</v>
@@ -3860,10 +3865,10 @@
         <v>44898</v>
       </c>
       <c r="C199" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3874,13 +3879,13 @@
         <v>44898</v>
       </c>
       <c r="C200" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.5">
+    <row r="201" spans="1:4">
       <c r="A201" s="6" t="s">
         <v>46</v>
       </c>
@@ -3888,10 +3893,10 @@
         <v>44898</v>
       </c>
       <c r="C201" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="25.5">
@@ -3902,13 +3907,13 @@
         <v>44898</v>
       </c>
       <c r="C202" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" ht="25.5">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -3916,10 +3921,10 @@
         <v>44898</v>
       </c>
       <c r="C203" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3930,7 +3935,7 @@
         <v>44898</v>
       </c>
       <c r="C204" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>44</v>
@@ -3941,13 +3946,13 @@
         <v>46</v>
       </c>
       <c r="B205" s="7">
-        <v>44904</v>
+        <v>44898</v>
       </c>
       <c r="C205" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3955,13 +3960,13 @@
         <v>46</v>
       </c>
       <c r="B206" s="7">
-        <v>44905</v>
+        <v>44904</v>
       </c>
       <c r="C206" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3969,349 +3974,368 @@
         <v>46</v>
       </c>
       <c r="B207" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C207" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="7">
         <v>44906</v>
       </c>
-      <c r="C207" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D207" s="6" t="s">
+      <c r="C208" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D207">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D208">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="66" priority="75">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
     <cfRule type="expression" dxfId="65" priority="74">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="64" priority="73">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="63" priority="72">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="63" priority="72">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="62" priority="71">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="61" priority="70">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="60" priority="69">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="59" priority="68">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="58" priority="67">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="57" priority="66">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="56" priority="65">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="55" priority="64">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="54" priority="63">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="53" priority="62">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="52" priority="61">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="51" priority="60">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="50" priority="59">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="49" priority="58">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="48" priority="57">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="47" priority="56">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="46" priority="55">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="45" priority="54">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="44" priority="53">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="43" priority="52">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="42" priority="51">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="41" priority="50">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="40" priority="49">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="33" priority="34">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="15" priority="16">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
+      <formula>$O200="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B207:D207 A203:D203 A205:D205">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O200="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B207:D207 A203:D203 A205:D205">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202:D202 A204:D204 A206:D206">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202:D202 A204:D204 A206:D206">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O207="NO"</formula>
+      <formula>$O208="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF871ED-A613-4BBA-A127-2BA7FDB51F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B502C3C-4077-43C4-BA13-24BE03BE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -424,7 +424,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1072,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
   <dimension ref="A1:E208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3677,72 +3702,72 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" s="4">
+        <v>44878</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B187" s="4">
         <v>44880</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C187" s="5">
         <v>0.75</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187" s="7">
-        <v>44882</v>
-      </c>
-      <c r="C187" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B188" s="4">
-        <v>44883</v>
+        <v>44881</v>
       </c>
       <c r="C188" s="5">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B189" s="4">
-        <v>44884</v>
-      </c>
-      <c r="C189" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="A189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="7">
+        <v>44882</v>
+      </c>
+      <c r="C189" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="25.5">
       <c r="A190" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B190" s="7">
-        <v>44885</v>
+        <v>44882</v>
       </c>
       <c r="C190" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3750,139 +3775,139 @@
         <v>32</v>
       </c>
       <c r="B191" s="4">
-        <v>44887</v>
+        <v>44883</v>
       </c>
       <c r="C191" s="5">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B192" s="4">
-        <v>44890</v>
+        <v>44884</v>
       </c>
       <c r="C192" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B193" s="7">
-        <v>44891</v>
+        <v>44885</v>
       </c>
       <c r="C193" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B194" s="4">
-        <v>44892</v>
+        <v>44887</v>
       </c>
       <c r="C194" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B195" s="4">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="C195" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B196" s="7">
-        <v>44893</v>
+        <v>44891</v>
       </c>
       <c r="C196" s="8">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="7">
-        <v>44895</v>
-      </c>
-      <c r="C197" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D197" s="6" t="s">
+      <c r="A197" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B198" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C198" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>51</v>
+      <c r="A198" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B199" s="7">
-        <v>44898</v>
+        <v>44893</v>
       </c>
       <c r="C199" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B200" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C200" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3893,13 +3918,13 @@
         <v>44898</v>
       </c>
       <c r="C201" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="6" t="s">
         <v>46</v>
       </c>
@@ -3907,13 +3932,13 @@
         <v>44898</v>
       </c>
       <c r="C202" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="25.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
@@ -3921,23 +3946,23 @@
         <v>44898</v>
       </c>
       <c r="C203" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204" s="4">
         <v>44898</v>
       </c>
-      <c r="C204" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D204" s="6" t="s">
+      <c r="C204" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3946,13 +3971,13 @@
         <v>46</v>
       </c>
       <c r="B205" s="7">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="C205" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4004,331 +4029,356 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
-    <cfRule type="expression" dxfId="66" priority="75">
+    <cfRule type="expression" dxfId="71" priority="83">
       <formula>$N146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148">
-    <cfRule type="expression" dxfId="65" priority="74">
+    <cfRule type="expression" dxfId="70" priority="82">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="64" priority="73">
+    <cfRule type="expression" dxfId="69" priority="81">
       <formula>$N147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="62" priority="71">
+    <cfRule type="expression" dxfId="67" priority="79">
       <formula>$N149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="61" priority="70">
+    <cfRule type="expression" dxfId="66" priority="78">
       <formula>$N150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="60" priority="69">
+    <cfRule type="expression" dxfId="65" priority="77">
       <formula>$N152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153">
-    <cfRule type="expression" dxfId="59" priority="68">
+    <cfRule type="expression" dxfId="64" priority="76">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="58" priority="67">
+    <cfRule type="expression" dxfId="63" priority="75">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="57" priority="66">
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>$N154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="56" priority="65">
+    <cfRule type="expression" dxfId="61" priority="73">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="55" priority="64">
+    <cfRule type="expression" dxfId="60" priority="72">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156">
-    <cfRule type="expression" dxfId="54" priority="63">
+    <cfRule type="expression" dxfId="59" priority="71">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="53" priority="62">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="57" priority="69">
       <formula>$N157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="51" priority="60">
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>$N158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="50" priority="59">
+    <cfRule type="expression" dxfId="55" priority="67">
       <formula>$N159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="49" priority="58">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>$N160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162">
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="53" priority="65">
       <formula>$N162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163">
-    <cfRule type="expression" dxfId="47" priority="56">
+    <cfRule type="expression" dxfId="52" priority="64">
       <formula>$N163="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="46" priority="55">
+    <cfRule type="expression" dxfId="51" priority="63">
       <formula>$N166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="45" priority="54">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="44" priority="53">
+    <cfRule type="expression" dxfId="49" priority="61">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>$N168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="42" priority="51">
+    <cfRule type="expression" dxfId="47" priority="59">
       <formula>$N169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="41" priority="50">
+    <cfRule type="expression" dxfId="46" priority="58">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="45" priority="49">
       <formula>$N171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$N172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$N173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>$N174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>$N175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:D177">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$N177="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179:D179">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$N178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$N180="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:D181">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183:D183">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$N183="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$N182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$N184="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:D185">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$N185="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:D186">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$N186="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:D188">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$N188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:D187">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$N187="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:D189">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$N189="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:D190">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191:D191">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$N191="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193:D193 A192:A193">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:D192">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:D194">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:D195">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$O195="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:D196">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197:D197">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$O197="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:D198">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$O200="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202:D202">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O200="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B207:D207 A203:D203 A205:D205">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202:D202 A204:D204 A206:D206">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$O207="NO"</formula>
     </cfRule>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B502C3C-4077-43C4-BA13-24BE03BE8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6866B4-B336-436E-8AF2-5CFE60E40F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1095,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3799,171 +3814,171 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" s="4">
+        <v>44884</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B193" s="7">
+      <c r="B194" s="7">
         <v>44885</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C194" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D194" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="3" t="s">
+    <row r="195" spans="1:4">
+      <c r="A195" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" s="7">
+        <v>44885</v>
+      </c>
+      <c r="C195" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B196" s="4">
         <v>44887</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C196" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B195" s="4">
-        <v>44890</v>
-      </c>
-      <c r="C195" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B196" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C196" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B197" s="4">
-        <v>44892</v>
+        <v>44888</v>
       </c>
       <c r="C197" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B198" s="4">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="C198" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="25.5">
       <c r="A199" s="6" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B199" s="7">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="C199" s="8">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B200" s="7">
-        <v>44895</v>
+        <v>44891</v>
       </c>
       <c r="C200" s="8">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D200" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C201" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C202" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>51</v>
+      <c r="A202" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B203" s="7">
-        <v>44898</v>
+        <v>44893</v>
       </c>
       <c r="C203" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B204" s="4">
-        <v>44898</v>
-      </c>
-      <c r="C204" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>44</v>
+      <c r="A204" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="7">
+        <v>44895</v>
+      </c>
+      <c r="C204" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3971,13 +3986,13 @@
         <v>46</v>
       </c>
       <c r="B205" s="7">
-        <v>44899</v>
+        <v>44898</v>
       </c>
       <c r="C205" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3985,13 +4000,13 @@
         <v>46</v>
       </c>
       <c r="B206" s="7">
-        <v>44904</v>
+        <v>44898</v>
       </c>
       <c r="C206" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3999,393 +4014,464 @@
         <v>46</v>
       </c>
       <c r="B207" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C207" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="4">
+        <v>44898</v>
+      </c>
+      <c r="C208" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="7">
+        <v>44899</v>
+      </c>
+      <c r="C209" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B210" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C210" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211" s="7">
         <v>44905</v>
       </c>
-      <c r="C207" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D207" s="6" t="s">
+      <c r="C211" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D211" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="6" t="s">
+    <row r="212" spans="1:4">
+      <c r="A212" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B212" s="7">
         <v>44906</v>
       </c>
-      <c r="C208" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D208" s="6" t="s">
+      <c r="C212" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D208">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D212">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="74" priority="86">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="73" priority="85">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="72" priority="84">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="63" priority="75">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="62" priority="74">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="59" priority="71">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="57" priority="69">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="56" priority="68">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="54" priority="66">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="53" priority="65">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="52" priority="64">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="51" priority="63">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="50" priority="62">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="49" priority="61">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="47" priority="59">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="46" priority="58">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="48" priority="52">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="39" priority="43">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O208="NO"</formula>
+      <formula>$O210="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6866B4-B336-436E-8AF2-5CFE60E40F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CFC9C-3624-40FE-B9F3-90E3D461CE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1110,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3828,120 +3833,120 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B194" s="7">
-        <v>44885</v>
-      </c>
-      <c r="C194" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>12</v>
+      <c r="A194" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194" s="4">
+        <v>44884</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B195" s="7">
         <v>44885</v>
       </c>
       <c r="C195" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B196" s="7">
+        <v>44885</v>
+      </c>
+      <c r="C196" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D196" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="4">
-        <v>44887</v>
-      </c>
-      <c r="C196" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B197" s="4">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C197" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" s="4">
+        <v>44888</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B199" s="4">
         <v>44890</v>
       </c>
-      <c r="C198" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D198" s="3" t="s">
+      <c r="C199" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D199" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="25.5">
-      <c r="A199" s="6" t="s">
+    <row r="200" spans="1:4" ht="25.5">
+      <c r="A200" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="7">
+      <c r="B200" s="7">
         <v>44890</v>
       </c>
-      <c r="C199" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D199" s="6" t="s">
+      <c r="C200" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="6" t="s">
+    <row r="201" spans="1:4">
+      <c r="A201" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B201" s="7">
         <v>44891</v>
       </c>
-      <c r="C200" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D200" s="6" t="s">
+      <c r="C201" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B201" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C201" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B202" s="4">
         <v>44892</v>
@@ -3950,21 +3955,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D202" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C203" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="7">
-        <v>44893</v>
-      </c>
-      <c r="C203" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3972,27 +3977,27 @@
         <v>32</v>
       </c>
       <c r="B204" s="7">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C204" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B205" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C205" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4003,7 +4008,7 @@
         <v>44898</v>
       </c>
       <c r="C206" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>51</v>
@@ -4017,38 +4022,38 @@
         <v>44898</v>
       </c>
       <c r="C207" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C208" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="3" t="s">
+    <row r="209" spans="1:4">
+      <c r="A209" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B209" s="4">
         <v>44898</v>
       </c>
-      <c r="C208" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D208" s="3" t="s">
+      <c r="C209" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D209" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" s="7">
-        <v>44899</v>
-      </c>
-      <c r="C209" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4056,13 +4061,13 @@
         <v>46</v>
       </c>
       <c r="B210" s="7">
-        <v>44904</v>
+        <v>44899</v>
       </c>
       <c r="C210" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4070,13 +4075,13 @@
         <v>46</v>
       </c>
       <c r="B211" s="7">
-        <v>44905</v>
+        <v>44904</v>
       </c>
       <c r="C211" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4084,394 +4089,413 @@
         <v>46</v>
       </c>
       <c r="B212" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C212" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" s="7">
         <v>44906</v>
       </c>
-      <c r="C212" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D212" s="6" t="s">
+      <c r="C213" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D212">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D213">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="75" priority="87">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="73" priority="85">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="72" priority="84">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="67" priority="79">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="64" priority="76">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="63" priority="75">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="62" priority="74">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="59" priority="71">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="57" priority="69">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="56" priority="68">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="54" priority="66">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="53" priority="65">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="52" priority="64">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="51" priority="63">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="50" priority="62">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="49" priority="61">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="42" priority="46">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="41" priority="45">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="38" priority="42">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="37" priority="41">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="27" priority="31">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="24" priority="28">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="22" priority="26">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="19" priority="23">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="15" priority="19">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="expression" dxfId="8" priority="9">
+  <conditionalFormatting sqref="B205">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$O209="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O210="NO"</formula>
+      <formula>$O213="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0CFC9C-3624-40FE-B9F3-90E3D461CE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079AA50-E0CA-4BE6-8917-3BBA7C99E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1115,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:D213"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3846,121 +3851,121 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" ht="25.5">
       <c r="A195" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B195" s="7">
-        <v>44885</v>
+        <v>44884</v>
       </c>
       <c r="C195" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B196" s="7">
         <v>44885</v>
       </c>
       <c r="C196" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" s="7">
+        <v>44885</v>
+      </c>
+      <c r="C197" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D197" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B197" s="4">
-        <v>44887</v>
-      </c>
-      <c r="C197" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B198" s="4">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C198" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="4">
+        <v>44889</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B200" s="4">
         <v>44890</v>
       </c>
-      <c r="C199" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="C200" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="25.5">
-      <c r="A200" s="6" t="s">
+    <row r="201" spans="1:4" ht="25.5">
+      <c r="A201" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B201" s="7">
         <v>44890</v>
       </c>
-      <c r="C200" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D200" s="6" t="s">
+      <c r="C201" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="6" t="s">
+    <row r="202" spans="1:4">
+      <c r="A202" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B202" s="7">
         <v>44891</v>
       </c>
-      <c r="C201" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D201" s="6" t="s">
+      <c r="C202" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B202" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C202" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B203" s="4">
         <v>44892</v>
@@ -3969,21 +3974,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D203" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C204" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B204" s="7">
-        <v>44893</v>
-      </c>
-      <c r="C204" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3991,27 +3996,27 @@
         <v>32</v>
       </c>
       <c r="B205" s="7">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C205" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B206" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C206" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4022,7 +4027,7 @@
         <v>44898</v>
       </c>
       <c r="C207" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>51</v>
@@ -4036,38 +4041,38 @@
         <v>44898</v>
       </c>
       <c r="C208" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C209" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="3" t="s">
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B210" s="4">
         <v>44898</v>
       </c>
-      <c r="C209" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="C210" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B210" s="7">
-        <v>44899</v>
-      </c>
-      <c r="C210" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4075,13 +4080,13 @@
         <v>46</v>
       </c>
       <c r="B211" s="7">
-        <v>44904</v>
+        <v>44899</v>
       </c>
       <c r="C211" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4089,13 +4094,13 @@
         <v>46</v>
       </c>
       <c r="B212" s="7">
-        <v>44905</v>
+        <v>44904</v>
       </c>
       <c r="C212" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4103,399 +4108,418 @@
         <v>46</v>
       </c>
       <c r="B213" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C213" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="7">
         <v>44906</v>
       </c>
-      <c r="C213" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D213" s="6" t="s">
+      <c r="C214" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D213">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D214">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="76" priority="88">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="74" priority="86">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="73" priority="85">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="68" priority="80">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="65" priority="77">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="63" priority="75">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="62" priority="74">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="59" priority="71">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="57" priority="69">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="56" priority="68">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="54" priority="66">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="53" priority="65">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="52" priority="64">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="51" priority="63">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="50" priority="62">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="43" priority="47">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="41" priority="45">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="28" priority="32">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="25" priority="29">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="23" priority="27">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="20" priority="24">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="16" priority="20">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="expression" dxfId="9" priority="10">
+  <conditionalFormatting sqref="B205">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$O209="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O213="NO"</formula>
+      <formula>$O214="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079AA50-E0CA-4BE6-8917-3BBA7C99E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E72020-58D3-44FB-9372-49183573FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1120,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:D214"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3747,7 +3762,7 @@
         <v>44880</v>
       </c>
       <c r="C187" s="5">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>6</v>
@@ -3895,156 +3910,156 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B198" s="4">
-        <v>44887</v>
+        <v>44885</v>
       </c>
       <c r="C198" s="5">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B199" s="4">
-        <v>44889</v>
+        <v>44887</v>
       </c>
       <c r="C199" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B200" s="4">
+        <v>44889</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B201" s="4">
         <v>44890</v>
       </c>
-      <c r="C200" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="C201" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="25.5">
-      <c r="A201" s="6" t="s">
+    <row r="202" spans="1:4" ht="25.5">
+      <c r="A202" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B201" s="7">
+      <c r="B202" s="7">
         <v>44890</v>
       </c>
-      <c r="C201" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D201" s="6" t="s">
+      <c r="C202" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="6" t="s">
+    <row r="203" spans="1:4">
+      <c r="A203" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B203" s="7">
         <v>44891</v>
       </c>
-      <c r="C202" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D202" s="6" t="s">
+      <c r="C203" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="3" t="s">
+    <row r="204" spans="1:4" ht="25.5">
+      <c r="A204" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" s="7">
+        <v>44891</v>
+      </c>
+      <c r="C204" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B205" s="4">
         <v>44892</v>
       </c>
-      <c r="C203" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="C205" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="3" t="s">
+    <row r="206" spans="1:4">
+      <c r="A206" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B206" s="4">
         <v>44892</v>
       </c>
-      <c r="C204" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="C206" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" s="7">
-        <v>44893</v>
-      </c>
-      <c r="C205" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B206" s="7">
-        <v>44895</v>
-      </c>
-      <c r="C206" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B207" s="7">
-        <v>44898</v>
+        <v>44893</v>
       </c>
       <c r="C207" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B208" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C208" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4055,24 +4070,24 @@
         <v>44898</v>
       </c>
       <c r="C209" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="7">
         <v>44898</v>
       </c>
-      <c r="C210" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>44</v>
+      <c r="C210" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4080,27 +4095,27 @@
         <v>46</v>
       </c>
       <c r="B211" s="7">
-        <v>44899</v>
+        <v>44898</v>
       </c>
       <c r="C211" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B212" s="7">
-        <v>44904</v>
-      </c>
-      <c r="C212" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>14</v>
+      <c r="B212" s="4">
+        <v>44898</v>
+      </c>
+      <c r="C212" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4108,13 +4123,13 @@
         <v>46</v>
       </c>
       <c r="B213" s="7">
-        <v>44905</v>
+        <v>44899</v>
       </c>
       <c r="C213" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4122,404 +4137,447 @@
         <v>46</v>
       </c>
       <c r="B214" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C214" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C215" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="7">
         <v>44906</v>
       </c>
-      <c r="C214" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D214" s="6" t="s">
+      <c r="C216" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D214">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="79" priority="91">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="78" priority="90">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="77" priority="89">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="63" priority="75">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="62" priority="74">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="59" priority="71">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="57" priority="69">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="56" priority="68">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="54" priority="66">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="53" priority="65">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="52" priority="64">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="51" priority="63">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="44" priority="48">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="10" priority="11">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O214="NO"</formula>
+      <formula>$O216="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E72020-58D3-44FB-9372-49183573FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91425F-002E-4380-A99B-8AD86BE40134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="85">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1135,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3936,93 +3961,93 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:4" ht="25.5">
+      <c r="A200" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="4">
-        <v>44889</v>
-      </c>
-      <c r="C200" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>37</v>
+      <c r="B200" s="7">
+        <v>44887</v>
+      </c>
+      <c r="C200" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B201" s="4">
+        <v>44889</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B202" s="4">
         <v>44890</v>
       </c>
-      <c r="C201" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="C202" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="25.5">
-      <c r="A202" s="6" t="s">
+    <row r="203" spans="1:4" ht="25.5">
+      <c r="A203" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B202" s="7">
+      <c r="B203" s="7">
         <v>44890</v>
       </c>
-      <c r="C202" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D202" s="6" t="s">
+      <c r="C203" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="6" t="s">
+    <row r="204" spans="1:4">
+      <c r="A204" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B203" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C203" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="25.5">
-      <c r="A204" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="B204" s="7">
         <v>44891</v>
       </c>
       <c r="C204" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="25.5">
+      <c r="A205" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B205" s="7">
+        <v>44891</v>
+      </c>
+      <c r="C205" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D205" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B205" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C205" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B206" s="4">
         <v>44892</v>
@@ -4031,21 +4056,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D206" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="7">
-        <v>44893</v>
-      </c>
-      <c r="C207" s="8">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4053,41 +4078,41 @@
         <v>32</v>
       </c>
       <c r="B208" s="7">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="C208" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B209" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C209" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>51</v>
+      <c r="A209" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B209" s="4">
+        <v>44894</v>
+      </c>
+      <c r="C209" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B210" s="7">
-        <v>44898</v>
+        <v>44895</v>
       </c>
       <c r="C210" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4098,24 +4123,24 @@
         <v>44898</v>
       </c>
       <c r="C211" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="7">
         <v>44898</v>
       </c>
-      <c r="C212" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>44</v>
+      <c r="C212" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4123,27 +4148,27 @@
         <v>46</v>
       </c>
       <c r="B213" s="7">
-        <v>44899</v>
+        <v>44898</v>
       </c>
       <c r="C213" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B214" s="7">
-        <v>44904</v>
-      </c>
-      <c r="C214" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>14</v>
+      <c r="B214" s="4">
+        <v>44898</v>
+      </c>
+      <c r="C214" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4151,433 +4176,500 @@
         <v>46</v>
       </c>
       <c r="B215" s="7">
+        <v>44899</v>
+      </c>
+      <c r="C215" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" s="4">
+        <v>44899</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C217" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="7">
         <v>44905</v>
       </c>
-      <c r="C215" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D215" s="6" t="s">
+      <c r="C218" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="6" t="s">
+    <row r="219" spans="1:4">
+      <c r="A219" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B219" s="7">
         <v>44906</v>
       </c>
-      <c r="C216" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D216" s="6" t="s">
+      <c r="C219" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D216">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D219">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="84" priority="96">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="83" priority="95">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="82" priority="94">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="81" priority="93">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="80" priority="92">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="63" priority="75">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="62" priority="74">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="59" priority="71">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="57" priority="69">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="56" priority="68">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="55" priority="67">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="54" priority="66">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="57" priority="61">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="56" priority="60">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="55" priority="59">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
+    <cfRule type="expression" dxfId="54" priority="58">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O216="NO"</formula>
+      <formula>$O219="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91425F-002E-4380-A99B-8AD86BE40134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E9FA4-1DBF-414C-853D-4CEC209EB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1160,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220:D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4201,30 +4221,30 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B217" s="7">
-        <v>44904</v>
+        <v>44900</v>
       </c>
       <c r="C217" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B218" s="7">
-        <v>44905</v>
-      </c>
-      <c r="C218" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="25.5">
+      <c r="A218" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B218" s="4">
+        <v>44902</v>
+      </c>
+      <c r="C218" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4232,444 +4252,506 @@
         <v>46</v>
       </c>
       <c r="B219" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C219" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C220" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B221" s="7">
         <v>44906</v>
       </c>
-      <c r="C219" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D219" s="6" t="s">
+      <c r="C221" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B222" s="7">
+        <v>44908</v>
+      </c>
+      <c r="C222" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D219">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D222">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="88" priority="100">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="87" priority="99">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="86" priority="98">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="85" priority="97">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="63" priority="75">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="62" priority="74">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="61" priority="73">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="59" priority="71">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="62" priority="66">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="61" priority="65">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="60" priority="64">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="26" priority="30">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="24" priority="28">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O219="NO"</formula>
+      <formula>$O221="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E9FA4-1DBF-414C-853D-4CEC209EB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD93B45-356D-425A-B275-DFB16862EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$222</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1180,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:D222"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4136,17 +4151,17 @@
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B211" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C211" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>51</v>
+      <c r="A211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="4">
+        <v>44897</v>
+      </c>
+      <c r="C211" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4157,7 +4172,7 @@
         <v>44898</v>
       </c>
       <c r="C212" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>51</v>
@@ -4171,108 +4186,108 @@
         <v>44898</v>
       </c>
       <c r="C213" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C214" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D214" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="3" t="s">
+    <row r="215" spans="1:4">
+      <c r="A215" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B215" s="4">
         <v>44898</v>
       </c>
-      <c r="C214" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D214" s="3" t="s">
+      <c r="C215" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D215" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="6" t="s">
+    <row r="216" spans="1:4">
+      <c r="A216" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B215" s="7">
+      <c r="B216" s="7">
         <v>44899</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C216" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D216" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="3" t="s">
+    <row r="217" spans="1:4">
+      <c r="A217" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B217" s="4">
         <v>44899</v>
       </c>
-      <c r="C216" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C217" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="6" t="s">
+    <row r="218" spans="1:4">
+      <c r="A218" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B217" s="7">
+      <c r="B218" s="7">
         <v>44900</v>
       </c>
-      <c r="C217" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D217" s="6" t="s">
+      <c r="C218" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="25.5">
-      <c r="A218" s="3" t="s">
+    <row r="219" spans="1:4" ht="25.5">
+      <c r="A219" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B219" s="4">
         <v>44902</v>
       </c>
-      <c r="C218" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="C219" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B219" s="7">
-        <v>44904</v>
-      </c>
-      <c r="C219" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B220" s="7">
-        <v>44905</v>
+        <v>44903</v>
       </c>
       <c r="C220" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4280,478 +4295,521 @@
         <v>46</v>
       </c>
       <c r="B221" s="7">
-        <v>44906</v>
+        <v>44904</v>
       </c>
       <c r="C221" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C222" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223" s="7">
+        <v>44906</v>
+      </c>
+      <c r="C223" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B222" s="7">
+      <c r="B224" s="7">
         <v>44908</v>
       </c>
-      <c r="C222" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D222" s="6" t="s">
+      <c r="C224" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D201" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D222">
-      <sortCondition ref="B1:B201"/>
+  <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D224">
+      <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="91" priority="103">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="90" priority="102">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="89" priority="101">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="66" priority="78">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="65" priority="77">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="64" priority="76">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="63" priority="75">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="65" priority="69">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="64" priority="68">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="56" priority="60">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="28" priority="32">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="23" priority="24">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O221="NO"</formula>
+      <formula>$O224="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD93B45-356D-425A-B275-DFB16862EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACE941-79C3-4CC5-9064-0264CFD2F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1195,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4306,16 +4326,16 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B222" s="7">
-        <v>44905</v>
+        <v>44904</v>
       </c>
       <c r="C222" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4323,493 +4343,583 @@
         <v>46</v>
       </c>
       <c r="B223" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C223" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B224" s="4">
+        <v>44905</v>
+      </c>
+      <c r="C224" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B225" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C225" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B226" s="7">
         <v>44906</v>
       </c>
-      <c r="C223" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D223" s="6" t="s">
+      <c r="C226" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="6" t="s">
+    <row r="227" spans="1:4">
+      <c r="A227" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="7">
+      <c r="B227" s="4">
+        <v>44906</v>
+      </c>
+      <c r="C227" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B228" s="4">
+        <v>44906</v>
+      </c>
+      <c r="C228" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229" s="7">
         <v>44908</v>
       </c>
-      <c r="C224" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D224" s="6" t="s">
+      <c r="C229" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D224">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D229">
       <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="95" priority="107">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="93" priority="105">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="92" priority="104">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="91" priority="103">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="69" priority="81">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="68" priority="80">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="67" priority="79">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="66" priority="78">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="69" priority="73">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="68" priority="72">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="67" priority="71">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="66" priority="70">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="65" priority="69">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O224="NO"</formula>
+      <formula>$O229="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACE941-79C3-4CC5-9064-0264CFD2F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA0158-96AD-48FF-B811-18DD3D410B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1215,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229:D229"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4436,490 +4461,599 @@
         <v>37</v>
       </c>
     </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" s="7">
+        <v>44909</v>
+      </c>
+      <c r="C230" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="25.5">
+      <c r="A231" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" s="4">
+        <v>44909</v>
+      </c>
+      <c r="C231" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="25.5">
+      <c r="A232" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B232" s="4">
+        <v>44909</v>
+      </c>
+      <c r="C232" s="5">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="25.5">
+      <c r="A233" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B233" s="7">
+        <v>44911</v>
+      </c>
+      <c r="C233" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B234" s="4">
+        <v>44912</v>
+      </c>
+      <c r="C234" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" s="7">
+        <v>44912</v>
+      </c>
+      <c r="C235" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D229">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D235">
       <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="100" priority="112">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="99" priority="111">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="98" priority="110">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="97" priority="109">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="96" priority="108">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="95" priority="107">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="94" priority="106">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="93" priority="105">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="92" priority="104">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="91" priority="103">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="74" priority="86">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="72" priority="84">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="71" priority="83">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="70" priority="82">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="74" priority="78">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="73" priority="77">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="72" priority="76">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="71" priority="75">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
+    <cfRule type="expression" dxfId="70" priority="74">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="69" priority="73">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="68" priority="72">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="67" priority="71">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="65" priority="69">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
-    <cfRule type="expression" dxfId="37" priority="41">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="35" priority="39">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="33" priority="37">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225:D225 A227:D227">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B230:D230">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O225="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226:D226 A228:D228">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O226="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
+      <formula>$O231="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232:D232 A234:D234">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B229:D229">
+      <formula>$O232="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O229="NO"</formula>
+      <formula>$O233="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA0158-96AD-48FF-B811-18DD3D410B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913B4C7-491F-426B-81B9-D0D59E56879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="103">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1240,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G236" sqref="G236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4449,611 +4459,635 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B229" s="7">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="C229" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" s="7">
+        <v>44908</v>
+      </c>
+      <c r="C230" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B230" s="7">
+      <c r="B231" s="7">
         <v>44909</v>
       </c>
-      <c r="C230" s="8">
+      <c r="C231" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D231" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="25.5">
-      <c r="A231" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B231" s="4">
-        <v>44909</v>
-      </c>
-      <c r="C231" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="25.5">
       <c r="A232" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B232" s="4">
         <v>44909</v>
       </c>
       <c r="C232" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="25.5">
+      <c r="A233" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B233" s="4">
+        <v>44909</v>
+      </c>
+      <c r="C233" s="5">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D233" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="25.5">
-      <c r="A233" s="6" t="s">
+    <row r="234" spans="1:4" ht="25.5">
+      <c r="A234" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B233" s="7">
+      <c r="B234" s="7">
         <v>44911</v>
       </c>
-      <c r="C233" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D233" s="6" t="s">
+      <c r="C234" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D234" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="3" t="s">
+    <row r="235" spans="1:4">
+      <c r="A235" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B235" s="4">
         <v>44912</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C235" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="6" t="s">
+    <row r="236" spans="1:4">
+      <c r="A236" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B236" s="7">
         <v>44912</v>
       </c>
-      <c r="C235" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D235" s="6" t="s">
+      <c r="C236" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D235">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D236">
       <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="102" priority="114">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="101" priority="113">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="100" priority="112">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="99" priority="111">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="98" priority="110">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="97" priority="109">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="96" priority="108">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="95" priority="107">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="94" priority="106">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="93" priority="105">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="92" priority="104">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="91" priority="103">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="77" priority="89">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="76" priority="88">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="75" priority="87">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="76" priority="80">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="75" priority="79">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="74" priority="78">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="73" priority="77">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="72" priority="76">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="71" priority="75">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="70" priority="74">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="69" priority="73">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="68" priority="72">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="67" priority="71">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="65" priority="69">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="64" priority="68">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="38" priority="42">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="expression" dxfId="34" priority="35">
+  <conditionalFormatting sqref="B205">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225:D225 A227:D227">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O225="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226:D226 A228:D228">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O226="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B229:D229">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B230:D230">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B230:D230">
+      <formula>$O231="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232:D232 A234:D234">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
+      <formula>$O232="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O231="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A232:D232 A234:D234">
+      <formula>$O233="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O232="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A233">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B236:D236">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O233="NO"</formula>
+      <formula>$O236="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3913B4C7-491F-426B-81B9-D0D59E56879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26678532-B459-440A-A099-77E38EF916FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1250,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:D236"/>
+      <selection activeCell="A238" sqref="A238:D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4527,567 +4542,610 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="25.5">
-      <c r="A234" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B234" s="7">
-        <v>44911</v>
-      </c>
-      <c r="C234" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>54</v>
+    <row r="234" spans="1:4">
+      <c r="A234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="4">
+        <v>44910</v>
+      </c>
+      <c r="C234" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B235" s="4">
-        <v>44912</v>
-      </c>
-      <c r="C235" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="A235" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B235" s="7">
+        <v>44910</v>
+      </c>
+      <c r="C235" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="25.5">
       <c r="A236" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B236" s="7">
+        <v>44911</v>
+      </c>
+      <c r="C236" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B237" s="4">
         <v>44912</v>
       </c>
-      <c r="C236" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D236" s="6" t="s">
+      <c r="C237" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B238" s="7">
+        <v>44912</v>
+      </c>
+      <c r="C238" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D236">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D238">
       <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="105" priority="117">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="104" priority="116">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="103" priority="115">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
     <cfRule type="expression" dxfId="102" priority="114">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="101" priority="113">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="100" priority="112">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="99" priority="111">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="98" priority="110">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="97" priority="109">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="96" priority="108">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="95" priority="107">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="94" priority="106">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="93" priority="105">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="92" priority="104">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="91" priority="103">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="80" priority="92">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="79" priority="91">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="77" priority="89">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="79" priority="83">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="78" priority="82">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="77" priority="81">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="76" priority="80">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="75" priority="79">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="74" priority="78">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="73" priority="77">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="72" priority="76">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="71" priority="75">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="70" priority="74">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="69" priority="73">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="68" priority="72">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="67" priority="71">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="65" priority="69">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
     <cfRule type="expression" dxfId="37" priority="38">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+  <conditionalFormatting sqref="B205">
     <cfRule type="expression" dxfId="36" priority="37">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225:D225 A227:D227">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O225="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226:D226 A228:D228">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O226="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B230:D230">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B229:D229">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
+      <formula>$O231="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232:D232 A234:D234">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B230:D230">
+      <formula>$O232="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
+      <formula>$O233="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O231="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A232:D232 A234:D234">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B236:D236">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O232="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A233">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O233="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236">
+      <formula>$O237="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B237:D237">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O236="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B236:D236">
+      <formula>$O237="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A238:D238">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O236="NO"</formula>
+      <formula>$O238="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26678532-B459-440A-A099-77E38EF916FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AF1B3-1459-450D-95B7-51320FB7B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1265,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238:D238"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4502,650 +4537,783 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B231" s="7">
+        <v>44908</v>
+      </c>
+      <c r="C231" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B231" s="7">
+      <c r="B232" s="7">
         <v>44909</v>
       </c>
-      <c r="C231" s="8">
+      <c r="C232" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D232" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="25.5">
-      <c r="A232" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B232" s="4">
-        <v>44909</v>
-      </c>
-      <c r="C232" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="25.5">
       <c r="A233" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B233" s="4">
         <v>44909</v>
       </c>
       <c r="C233" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="25.5">
+      <c r="A234" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B234" s="4">
+        <v>44909</v>
+      </c>
+      <c r="C234" s="5">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D234" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="3" t="s">
+    <row r="235" spans="1:4">
+      <c r="A235" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B235" s="4">
         <v>44910</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C235" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="6" t="s">
+    <row r="236" spans="1:4">
+      <c r="A236" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B236" s="7">
         <v>44910</v>
       </c>
-      <c r="C235" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D235" s="6" t="s">
+      <c r="C236" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="25.5">
-      <c r="A236" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B236" s="7">
-        <v>44911</v>
-      </c>
-      <c r="C236" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B237" s="4">
-        <v>44912</v>
+        <v>44910</v>
       </c>
       <c r="C237" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="25.5">
       <c r="A238" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B238" s="7">
+        <v>44911</v>
+      </c>
+      <c r="C238" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B239" s="4">
         <v>44912</v>
       </c>
-      <c r="C238" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D238" s="6" t="s">
+      <c r="C239" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B240" s="7">
+        <v>44912</v>
+      </c>
+      <c r="C240" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" s="4">
+        <v>44913</v>
+      </c>
+      <c r="C241" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242" s="10">
+        <v>44913</v>
+      </c>
+      <c r="C242" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D242" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="12">
+        <v>44913</v>
+      </c>
+      <c r="C243" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="25.5">
+      <c r="A244" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B244" s="12">
+        <v>44914</v>
+      </c>
+      <c r="C244" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B245" s="10">
+        <v>44918</v>
+      </c>
+      <c r="C245" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D245" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D238">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D245">
       <sortCondition ref="B1:B222"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="112" priority="124">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
+    <cfRule type="expression" dxfId="111" priority="123">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
+    <cfRule type="expression" dxfId="110" priority="122">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="109" priority="121">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149:D149">
+    <cfRule type="expression" dxfId="108" priority="120">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
+    <cfRule type="expression" dxfId="107" priority="119">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
+    <cfRule type="expression" dxfId="106" priority="118">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="105" priority="117">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="104" priority="116">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="103" priority="115">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="102" priority="114">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="101" priority="113">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="100" priority="112">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="99" priority="111">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="98" priority="110">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="97" priority="109">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="96" priority="108">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="95" priority="107">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="94" priority="106">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="93" priority="105">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="92" priority="104">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="91" priority="103">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="87" priority="99">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
-    <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="85" priority="97">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="84" priority="96">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="82" priority="94">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="81" priority="93">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="80" priority="92">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="86" priority="90">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
+    <cfRule type="expression" dxfId="85" priority="89">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
+    <cfRule type="expression" dxfId="84" priority="88">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
+    <cfRule type="expression" dxfId="83" priority="87">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
+    <cfRule type="expression" dxfId="81" priority="85">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
+    <cfRule type="expression" dxfId="80" priority="84">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="79" priority="83">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="78" priority="82">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
     <cfRule type="expression" dxfId="77" priority="81">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="76" priority="80">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="75" priority="79">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
     <cfRule type="expression" dxfId="74" priority="78">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="73" priority="77">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="72" priority="76">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="71" priority="75">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="70" priority="74">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="69" priority="73">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="68" priority="72">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="67" priority="71">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="65" priority="69">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="62" priority="66">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="60" priority="64">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="57" priority="61">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
-    <cfRule type="expression" dxfId="49" priority="53">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
-    <cfRule type="expression" dxfId="47" priority="51">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="46" priority="50">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="45" priority="49">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="44" priority="48">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B205">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="41" priority="42">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="40" priority="41">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="31" priority="32">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="29" priority="30">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="25" priority="26">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B230:D230">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225:D225 A227:D227">
+      <formula>$O231="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232:D232 A234:D234">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O225="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226:D226 A228:D228">
+      <formula>$O232="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O226="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
+      <formula>$O233="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B229:D229">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B236:D236">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B230:D230">
+      <formula>$O237="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B237:D237">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
+      <formula>$O237="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A238:D238">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O231="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A232:D232 A234:D234">
+      <formula>$O238="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241:D241 A239:C239">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O232="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A233">
+      <formula>$O239="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$O233="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236">
+      <formula>$O240="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B240:D240">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O236="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B236:D236">
+      <formula>$O240="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D239">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O236="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A237">
+      <formula>$O239="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A242">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O237="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B237:D237">
+      <formula>$O242="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O237="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A238:D238">
+      <formula>$O244="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O238="NO"</formula>
+      <formula>$O245="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AF1B3-1459-450D-95B7-51320FB7B65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D49DFB-EF2D-4425-8A0B-8A87FABC9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$246</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -1300,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242:D245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4592,101 +4592,101 @@
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235" s="7">
+        <v>44909</v>
+      </c>
+      <c r="C235" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="4">
         <v>44910</v>
       </c>
-      <c r="C235" s="5">
+      <c r="C236" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="6" t="s">
+    <row r="237" spans="1:4">
+      <c r="A237" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B236" s="7">
+      <c r="B237" s="7">
         <v>44910</v>
       </c>
-      <c r="C236" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D236" s="6" t="s">
+      <c r="C237" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="3" t="s">
+    <row r="238" spans="1:4">
+      <c r="A238" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B238" s="4">
         <v>44910</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C238" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="25.5">
-      <c r="A238" s="6" t="s">
+    <row r="239" spans="1:4" ht="25.5">
+      <c r="A239" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B238" s="7">
+      <c r="B239" s="7">
         <v>44911</v>
       </c>
-      <c r="C238" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D238" s="6" t="s">
+      <c r="C239" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="3" t="s">
+    <row r="240" spans="1:4">
+      <c r="A240" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B240" s="4">
         <v>44912</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C240" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="6" t="s">
+    <row r="241" spans="1:4">
+      <c r="A241" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B240" s="7">
+      <c r="B241" s="7">
         <v>44912</v>
       </c>
-      <c r="C240" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D240" s="6" t="s">
+      <c r="C241" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B241" s="4">
-        <v>44913</v>
-      </c>
-      <c r="C241" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4697,60 +4697,69 @@
         <v>44913</v>
       </c>
       <c r="C242" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D242" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B243" s="10">
+        <v>44913</v>
+      </c>
+      <c r="C243" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D243" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="14" t="s">
+    <row r="244" spans="1:4">
+      <c r="A244" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B243" s="12">
+      <c r="B244" s="12">
         <v>44913</v>
       </c>
-      <c r="C243" s="13">
+      <c r="C244" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D243" s="14" t="s">
+      <c r="D244" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="25.5">
-      <c r="A244" s="6" t="s">
+    <row r="245" spans="1:4" ht="25.5">
+      <c r="A245" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B244" s="12">
+      <c r="B245" s="12">
         <v>44914</v>
       </c>
-      <c r="C244" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D244" s="14" t="s">
+      <c r="C245" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D245" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="3" t="s">
+    <row r="246" spans="1:4">
+      <c r="A246" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B245" s="10">
+      <c r="B246" s="10">
         <v>44918</v>
       </c>
-      <c r="C245" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D245" s="15" t="s">
+      <c r="C246" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D246" s="15" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D222" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D245">
-      <sortCondition ref="B1:B222"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
     <cfRule type="expression" dxfId="112" priority="124">
       <formula>$N146="NO"</formula>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D49DFB-EF2D-4425-8A0B-8A87FABC9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF7866-7F14-4423-947E-0CA4A3A45928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$246</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$1:$D$247</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="114">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1300,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4745,584 +4750,608 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" ht="25.5">
       <c r="A246" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B246" s="10">
+        <v>44916</v>
+      </c>
+      <c r="C246" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B247" s="10">
         <v>44918</v>
       </c>
-      <c r="C246" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D246" s="15" t="s">
+      <c r="C247" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D247" s="15" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D247" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D247">
+      <sortCondition ref="B1:B247"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
+    <cfRule type="expression" dxfId="113" priority="125">
+      <formula>$N146="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148:D148">
     <cfRule type="expression" dxfId="112" priority="124">
-      <formula>$N146="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D148">
+      <formula>$N148="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A147:D147">
     <cfRule type="expression" dxfId="111" priority="123">
+      <formula>$N147="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="110" priority="122">
-      <formula>$N147="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B148">
+  <conditionalFormatting sqref="A149:D149">
     <cfRule type="expression" dxfId="109" priority="121">
-      <formula>$N148="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149:D149">
+      <formula>$N149="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A150:D150">
     <cfRule type="expression" dxfId="108" priority="120">
-      <formula>$N149="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:D150">
+      <formula>$N150="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:D152">
     <cfRule type="expression" dxfId="107" priority="119">
-      <formula>$N150="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:D152">
+      <formula>$N152="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153:D153">
     <cfRule type="expression" dxfId="106" priority="118">
-      <formula>$N152="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153:D153">
+      <formula>$N153="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153">
     <cfRule type="expression" dxfId="105" priority="117">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153">
+  <conditionalFormatting sqref="A154:D154">
     <cfRule type="expression" dxfId="104" priority="116">
-      <formula>$N153="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154:D154">
+      <formula>$N154="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155:C155">
     <cfRule type="expression" dxfId="103" priority="115">
-      <formula>$N154="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155:C155">
+      <formula>$N155="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="102" priority="114">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="C156:D156">
     <cfRule type="expression" dxfId="101" priority="113">
-      <formula>$N155="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156:D156">
+      <formula>$N156="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="expression" dxfId="100" priority="112">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="A157:D157">
     <cfRule type="expression" dxfId="99" priority="111">
-      <formula>$N156="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A157:D157">
+      <formula>$N157="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A158:D158">
     <cfRule type="expression" dxfId="98" priority="110">
-      <formula>$N157="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:D158">
+      <formula>$N158="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A159:D159">
     <cfRule type="expression" dxfId="97" priority="109">
-      <formula>$N158="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A159:D159">
+      <formula>$N159="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:D160">
     <cfRule type="expression" dxfId="96" priority="108">
-      <formula>$N159="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:D160">
+      <formula>$N160="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:D162">
     <cfRule type="expression" dxfId="95" priority="107">
-      <formula>$N160="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:D162">
+      <formula>$N162="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:D163">
     <cfRule type="expression" dxfId="94" priority="106">
-      <formula>$N162="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:D163">
+      <formula>$N163="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166:D166">
     <cfRule type="expression" dxfId="93" priority="105">
-      <formula>$N163="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166:D166">
+      <formula>$N166="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167:D167">
     <cfRule type="expression" dxfId="92" priority="104">
-      <formula>$N166="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167:D167">
+      <formula>$N167="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167">
     <cfRule type="expression" dxfId="91" priority="103">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="A168:D168">
     <cfRule type="expression" dxfId="90" priority="102">
-      <formula>$N167="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168:D168">
+      <formula>$N168="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169:D169">
     <cfRule type="expression" dxfId="89" priority="101">
-      <formula>$N168="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169:D169">
+      <formula>$N169="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170:D170">
     <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$N169="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="87" priority="99">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
+    <cfRule type="expression" dxfId="87" priority="91">
+      <formula>$N171="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:D172">
     <cfRule type="expression" dxfId="86" priority="90">
-      <formula>$N171="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:D172">
+      <formula>$N172="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A173:D173">
     <cfRule type="expression" dxfId="85" priority="89">
-      <formula>$N172="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A173:D173">
+      <formula>$N173="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174:D174">
     <cfRule type="expression" dxfId="84" priority="88">
-      <formula>$N173="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174:D174">
+      <formula>$N174="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:D175">
     <cfRule type="expression" dxfId="83" priority="87">
-      <formula>$N174="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:D175">
+      <formula>$N175="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A177:D177">
     <cfRule type="expression" dxfId="82" priority="86">
-      <formula>$N175="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
+      <formula>$N177="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179:D179">
     <cfRule type="expression" dxfId="81" priority="85">
-      <formula>$N177="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179:D179">
+      <formula>$N179="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
     <cfRule type="expression" dxfId="80" priority="84">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
+  <conditionalFormatting sqref="B178:D178">
     <cfRule type="expression" dxfId="79" priority="83">
+      <formula>$N178="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="expression" dxfId="78" priority="82">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="78" priority="82">
-      <formula>$N178="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
+  <conditionalFormatting sqref="A181">
     <cfRule type="expression" dxfId="77" priority="81">
-      <formula>$N179="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
+      <formula>$N181="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:D180">
     <cfRule type="expression" dxfId="76" priority="80">
+      <formula>$N180="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:D181">
+    <cfRule type="expression" dxfId="75" priority="79">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="75" priority="79">
-      <formula>$N180="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181:D181">
+  <conditionalFormatting sqref="A183:D183">
     <cfRule type="expression" dxfId="74" priority="78">
-      <formula>$N181="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A183:D183">
+      <formula>$N183="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:D182">
     <cfRule type="expression" dxfId="73" priority="77">
-      <formula>$N183="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
+      <formula>$N182="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A184:D184">
     <cfRule type="expression" dxfId="72" priority="76">
-      <formula>$N182="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A184:D184">
+      <formula>$N184="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A185:D185">
     <cfRule type="expression" dxfId="71" priority="75">
-      <formula>$N184="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A185:D185">
+      <formula>$N185="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186:D186">
     <cfRule type="expression" dxfId="70" priority="74">
-      <formula>$N185="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186:D186">
+      <formula>$N186="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188:D188">
     <cfRule type="expression" dxfId="69" priority="73">
-      <formula>$N186="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188:D188">
+      <formula>$N188="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187:D187">
     <cfRule type="expression" dxfId="68" priority="72">
-      <formula>$N188="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187:D187">
+      <formula>$N187="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:D189">
     <cfRule type="expression" dxfId="67" priority="71">
-      <formula>$N187="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189:D189">
+      <formula>$N189="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>$N189="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+      <formula>$N190="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B190:D190">
     <cfRule type="expression" dxfId="65" priority="69">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B190:D190">
+  <conditionalFormatting sqref="A191:D191">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>$N190="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191:D191">
+      <formula>$N191="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:D193 A192:A193">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>$N191="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:D193 A192:A193">
+      <formula>$O192="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B192:D192">
     <cfRule type="expression" dxfId="62" priority="66">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:D192">
+  <conditionalFormatting sqref="A194">
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>$O192="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
+      <formula>$O194="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B194:D194">
     <cfRule type="expression" dxfId="60" priority="64">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:D194">
+  <conditionalFormatting sqref="A195:D195">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>$O194="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195:D195">
+      <formula>$O195="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A196">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>$O195="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A196">
+      <formula>$O196="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B196:D196">
     <cfRule type="expression" dxfId="57" priority="61">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:D196">
+  <conditionalFormatting sqref="A197:D197">
     <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$O196="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A197:D197">
+      <formula>$O197="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A198:D198">
     <cfRule type="expression" dxfId="55" priority="59">
-      <formula>$O197="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A198:D198">
+      <formula>$O198="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199">
     <cfRule type="expression" dxfId="54" priority="58">
-      <formula>$O198="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A199">
+      <formula>$O199="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B199:D199">
     <cfRule type="expression" dxfId="53" priority="57">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:D199">
+  <conditionalFormatting sqref="A201:D201">
     <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$O199="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201:D201">
+      <formula>$O201="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200:D200">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>$O201="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>$O202="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205:D205 A203:D203">
     <cfRule type="expression" dxfId="49" priority="50">
-      <formula>$O202="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205:D205 A203:D203">
+      <formula>$O203="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A204">
     <cfRule type="expression" dxfId="48" priority="49">
-      <formula>$O203="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A204">
+      <formula>$O204="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A205">
     <cfRule type="expression" dxfId="47" priority="48">
+      <formula>$O205="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A206">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$O206="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B204:D204 B206:D206">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A205">
-    <cfRule type="expression" dxfId="46" priority="47">
+  <conditionalFormatting sqref="B205">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A206">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>$O206="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B204:D204 B206:D206">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>$O204="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B205">
+  <conditionalFormatting sqref="A207:D207">
     <cfRule type="expression" dxfId="43" priority="44">
-      <formula>$O205="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A207:D207">
+      <formula>$O207="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208:D208">
     <cfRule type="expression" dxfId="42" priority="43">
-      <formula>$O207="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208:D208">
+      <formula>$O208="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209:A212">
     <cfRule type="expression" dxfId="41" priority="42">
-      <formula>$O208="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A212">
+      <formula>$O209="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B209:D209 B211:D211">
     <cfRule type="expression" dxfId="40" priority="41">
       <formula>$O209="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:D209 B211:D211">
+  <conditionalFormatting sqref="B212:D212 B210:D210">
     <cfRule type="expression" dxfId="39" priority="40">
-      <formula>$O209="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B212:D212 B210:D210">
+      <formula>$O210="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A213:D213">
     <cfRule type="expression" dxfId="38" priority="39">
-      <formula>$O210="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A213:D213">
+      <formula>$O213="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A214:D214">
     <cfRule type="expression" dxfId="37" priority="38">
-      <formula>$O213="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A214:D214">
+      <formula>$O214="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215:A216">
     <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$O214="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215:A216">
+      <formula>$O215="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215:D215">
     <cfRule type="expression" dxfId="35" priority="36">
       <formula>$O215="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B215:D215">
+  <conditionalFormatting sqref="B216:D216">
     <cfRule type="expression" dxfId="34" priority="35">
-      <formula>$O215="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:D216">
+      <formula>$O216="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217:D217">
     <cfRule type="expression" dxfId="33" priority="34">
-      <formula>$O216="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217:D217">
+      <formula>$O217="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218:C218">
     <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$O217="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218:C218">
+      <formula>$O218="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D218">
     <cfRule type="expression" dxfId="31" priority="32">
       <formula>$O218="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
+  <conditionalFormatting sqref="A219">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$O218="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
+      <formula>$O219="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219:D219">
     <cfRule type="expression" dxfId="29" priority="30">
       <formula>$O219="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B219:D219">
+  <conditionalFormatting sqref="A222:D222">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$O219="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222:D222">
+      <formula>$O222="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220:D220">
     <cfRule type="expression" dxfId="27" priority="28">
-      <formula>$O222="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A220:D220">
+      <formula>$O220="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>$O220="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
+      <formula>$O221="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221:D221">
     <cfRule type="expression" dxfId="25" priority="26">
       <formula>$O221="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B221:D221">
+  <conditionalFormatting sqref="A223:D223">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$O221="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A223:D223">
+      <formula>$O223="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
     <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$O223="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
+      <formula>$O224="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B224:D224">
     <cfRule type="expression" dxfId="22" priority="23">
       <formula>$O224="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B224:D224">
+  <conditionalFormatting sqref="A225:D225 A227:D227">
     <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$O224="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225:D225 A227:D227">
+      <formula>$O225="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226:D226 A228:D228">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$O225="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226:D226 A228:D228">
+      <formula>$O226="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$O226="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
+      <formula>$O229="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B229:D229">
     <cfRule type="expression" dxfId="18" priority="19">
       <formula>$O229="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229:D229">
+  <conditionalFormatting sqref="A230">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$O229="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
+      <formula>$O230="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B230:D230">
     <cfRule type="expression" dxfId="16" priority="17">
       <formula>$O230="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B230:D230">
+  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$O230="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
+      <formula>$O231="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A232:D232 A234:D234">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$O231="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A232:D232 A234:D234">
+      <formula>$O232="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A233">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$O232="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A233">
+      <formula>$O233="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$O233="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236">
+      <formula>$O236="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B236:D236">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>$O236="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B236:D236">
+  <conditionalFormatting sqref="A237">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$O236="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A237">
+      <formula>$O237="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B237:D237">
     <cfRule type="expression" dxfId="9" priority="10">
       <formula>$O237="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B237:D237">
+  <conditionalFormatting sqref="A238:D238">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$O237="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A238:D238">
+      <formula>$O238="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241:D241 A239:C239">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$O238="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241:D241 A239:C239">
+      <formula>$O239="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$O239="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A240">
+      <formula>$O240="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B240:D240">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>$O240="NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B240:D240">
+  <conditionalFormatting sqref="D239">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$O240="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D239">
+      <formula>$O239="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A242">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$O239="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A242">
+      <formula>$O242="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$O242="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A244">
+      <formula>$O244="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A245">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$O244="NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A245">
+      <formula>$O245="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O245="NO"</formula>
+      <formula>$O247="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Calendario de asambleas.xlsx
+++ b/Calendario de asambleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rito.cruz\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF7866-7F14-4423-947E-0CA4A3A45928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D24CDB-A9CE-4643-BA2C-4D70F50E732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="62">
   <si>
     <t>Municipio</t>
   </si>
@@ -424,7 +424,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6B3FCBB-4837-4120-8146-02DD34F41CEB}"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1305,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3407,157 +3422,157 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B150" s="4">
-        <v>44856</v>
-      </c>
-      <c r="C150" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>38</v>
+      <c r="A150" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="7">
+        <v>44854</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B151" s="4">
         <v>44856</v>
       </c>
       <c r="C151" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="25.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B152" s="4">
         <v>44856</v>
       </c>
       <c r="C152" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="25.5">
+      <c r="A153" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="4">
+        <v>44856</v>
+      </c>
+      <c r="C153" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="6" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B154" s="7">
         <v>44856</v>
       </c>
-      <c r="C153" s="8">
+      <c r="C154" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="3" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B155" s="4">
         <v>44857</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C155" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D155" s="3" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B155" s="7">
-        <v>44857</v>
-      </c>
-      <c r="C155" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="7">
+        <v>44857</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B157" s="7">
         <v>44858</v>
       </c>
-      <c r="C156" s="8">
+      <c r="C157" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="3" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B158" s="4">
         <v>44859</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C158" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D158" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B159" s="7">
         <v>44860</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C159" s="8">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="3" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B160" s="4">
         <v>44861</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C160" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B160" s="7">
-        <v>44862</v>
-      </c>
-      <c r="C160" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3565,228 +3580,228 @@
         <v>34</v>
       </c>
       <c r="B161" s="7">
+        <v>44862</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="7">
         <v>44863</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C162" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D162" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="3" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B163" s="4">
         <v>44863</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C163" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="25.5">
-      <c r="A163" s="6" t="s">
+    <row r="164" spans="1:4" ht="25.5">
+      <c r="A164" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B164" s="7">
         <v>44863</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C164" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="3" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B165" s="4">
         <v>44863</v>
       </c>
-      <c r="C164" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C165" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="6" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B166" s="7">
         <v>44863</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C166" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D166" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="3" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B167" s="4">
         <v>44864</v>
       </c>
-      <c r="C166" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C167" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167" s="7">
-        <v>44864</v>
-      </c>
-      <c r="C167" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B168" s="7">
         <v>44864</v>
       </c>
       <c r="C168" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" s="7">
+        <v>44864</v>
+      </c>
+      <c r="C169" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="3" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B170" s="4">
         <v>44865</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C170" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B170" s="7">
-        <v>44868</v>
-      </c>
-      <c r="C170" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B171" s="7">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="C171" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B172" s="7">
-        <v>44870</v>
+        <v>44869</v>
       </c>
       <c r="C172" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B173" s="7">
         <v>44870</v>
       </c>
       <c r="C173" s="8">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="25.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B174" s="7">
         <v>44870</v>
       </c>
       <c r="C174" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="25.5">
+      <c r="A175" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" s="7">
+        <v>44870</v>
+      </c>
+      <c r="C175" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B175" s="4">
-        <v>44870</v>
-      </c>
-      <c r="C175" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B176" s="4">
-        <v>44871</v>
+        <v>44870</v>
       </c>
       <c r="C176" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B177" s="4">
         <v>44871</v>
@@ -3795,91 +3810,91 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D177" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="4">
+        <v>44871</v>
+      </c>
+      <c r="C178" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B178" s="7">
-        <v>44871</v>
-      </c>
-      <c r="C178" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" s="7">
+        <v>44871</v>
+      </c>
+      <c r="C179" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B180" s="7">
         <v>44875</v>
       </c>
-      <c r="C179" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D179" s="6" t="s">
+      <c r="C180" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="3" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B181" s="4">
         <v>44876</v>
       </c>
-      <c r="C180" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D180" s="3" t="s">
+      <c r="C181" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B181" s="7">
-        <v>44876</v>
-      </c>
-      <c r="C181" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B182" s="7">
+        <v>44876</v>
+      </c>
+      <c r="C182" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B182" s="7">
+      <c r="B183" s="7">
         <v>44877</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C183" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D183" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B183" s="4">
-        <v>44877</v>
-      </c>
-      <c r="C183" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3887,130 +3902,130 @@
         <v>46</v>
       </c>
       <c r="B184" s="4">
+        <v>44877</v>
+      </c>
+      <c r="C184" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" s="4">
         <v>44878</v>
       </c>
-      <c r="C184" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D184" s="3" t="s">
+      <c r="C185" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="6" t="s">
+    <row r="186" spans="1:4">
+      <c r="A186" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B185" s="7">
+      <c r="B186" s="7">
         <v>44878</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C186" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D186" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B186" s="4">
-        <v>44878</v>
-      </c>
-      <c r="C186" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B187" s="4">
-        <v>44880</v>
+        <v>44878</v>
       </c>
       <c r="C187" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="4">
+        <v>44880</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B189" s="4">
         <v>44881</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C189" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="6" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B189" s="7">
-        <v>44882</v>
-      </c>
-      <c r="C189" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="25.5">
-      <c r="A190" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B190" s="7">
         <v>44882</v>
       </c>
       <c r="C190" s="8">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="25.5">
+      <c r="A191" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="7">
+        <v>44882</v>
+      </c>
+      <c r="C191" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D191" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B191" s="4">
-        <v>44883</v>
-      </c>
-      <c r="C191" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B192" s="4">
-        <v>44884</v>
+        <v>44883</v>
       </c>
       <c r="C192" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B193" s="4">
         <v>44884</v>
@@ -4019,7 +4034,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4030,183 +4045,183 @@
         <v>44884</v>
       </c>
       <c r="C194" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" s="4">
+        <v>44884</v>
+      </c>
+      <c r="C195" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D195" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="25.5">
-      <c r="A195" s="6" t="s">
+    <row r="196" spans="1:4" ht="25.5">
+      <c r="A196" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B196" s="7">
         <v>44884</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C196" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D196" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="7">
-        <v>44885</v>
-      </c>
-      <c r="C196" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B197" s="7">
         <v>44885</v>
       </c>
       <c r="C197" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" s="7">
+        <v>44885</v>
+      </c>
+      <c r="C198" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D198" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B198" s="4">
-        <v>44885</v>
-      </c>
-      <c r="C198" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="4">
+        <v>44885</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B200" s="4">
         <v>44887</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C200" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="25.5">
-      <c r="A200" s="6" t="s">
+    <row r="201" spans="1:4" ht="25.5">
+      <c r="A201" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B200" s="7">
+      <c r="B201" s="7">
         <v>44887</v>
       </c>
-      <c r="C200" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D200" s="6" t="s">
+      <c r="C201" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B201" s="4">
-        <v>44889</v>
-      </c>
-      <c r="C201" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="4">
+        <v>44889</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B203" s="4">
         <v>44890</v>
       </c>
-      <c r="C202" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="C203" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="25.5">
-      <c r="A203" s="6" t="s">
+    <row r="204" spans="1:4" ht="25.5">
+      <c r="A204" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B203" s="7">
+      <c r="B204" s="7">
         <v>44890</v>
       </c>
-      <c r="C203" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D203" s="6" t="s">
+      <c r="C204" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D204" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="6" t="s">
+    <row r="205" spans="1:4">
+      <c r="A205" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B204" s="7">
-        <v>44891</v>
-      </c>
-      <c r="C204" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="25.5">
-      <c r="A205" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="B205" s="7">
         <v>44891</v>
       </c>
       <c r="C205" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="25.5">
+      <c r="A206" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" s="7">
+        <v>44891</v>
+      </c>
+      <c r="C206" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D206" s="6" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B206" s="4">
-        <v>44892</v>
-      </c>
-      <c r="C206" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B207" s="4">
         <v>44892</v>
@@ -4215,77 +4230,77 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D207" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" s="4">
+        <v>44892</v>
+      </c>
+      <c r="C208" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="6" t="s">
+    <row r="209" spans="1:4">
+      <c r="A209" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B208" s="7">
+      <c r="B209" s="7">
         <v>44893</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C209" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="3" t="s">
+    <row r="210" spans="1:4">
+      <c r="A210" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B210" s="4">
         <v>44894</v>
       </c>
-      <c r="C209" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="C210" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="6" t="s">
+    <row r="211" spans="1:4">
+      <c r="A211" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B210" s="7">
+      <c r="B211" s="7">
         <v>44895</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C211" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D211" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="3" t="s">
+    <row r="212" spans="1:4">
+      <c r="A212" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B212" s="4">
         <v>44897</v>
       </c>
-      <c r="C211" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D211" s="3" t="s">
+      <c r="C212" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B212" s="7">
-        <v>44898</v>
-      </c>
-      <c r="C212" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4296,7 +4311,7 @@
         <v>44898</v>
       </c>
       <c r="C213" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>51</v>
@@ -4310,402 +4325,402 @@
         <v>44898</v>
       </c>
       <c r="C214" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" s="7">
+        <v>44898</v>
+      </c>
+      <c r="C215" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D215" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="3" t="s">
+    <row r="216" spans="1:4">
+      <c r="A216" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B216" s="4">
         <v>44898</v>
       </c>
-      <c r="C215" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D215" s="3" t="s">
+      <c r="C216" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="6" t="s">
+    <row r="217" spans="1:4">
+      <c r="A217" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B216" s="7">
+      <c r="B217" s="7">
         <v>44899</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C217" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D217" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="3" t="s">
+    <row r="218" spans="1:4">
+      <c r="A218" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B218" s="4">
         <v>44899</v>
       </c>
-      <c r="C217" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="C218" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="6" t="s">
+    <row r="219" spans="1:4">
+      <c r="A219" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B218" s="7">
+      <c r="B219" s="7">
         <v>44900</v>
       </c>
-      <c r="C218" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D218" s="6" t="s">
+      <c r="C219" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="25.5">
-      <c r="A219" s="3" t="s">
+    <row r="220" spans="1:4" ht="25.5">
+      <c r="A220" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B220" s="4">
         <v>44902</v>
       </c>
-      <c r="C219" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D219" s="3" t="s">
+      <c r="C220" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" s="7">
-        <v>44903</v>
-      </c>
-      <c r="C220" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B221" s="7">
-        <v>44904</v>
+        <v>44903</v>
       </c>
       <c r="C221" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B222" s="7">
         <v>44904</v>
       </c>
       <c r="C222" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B223" s="7">
+        <v>44904</v>
+      </c>
+      <c r="C223" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B224" s="7">
         <v>44905</v>
       </c>
-      <c r="C223" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D223" s="6" t="s">
+      <c r="C224" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="3" t="s">
+    <row r="225" spans="1:4">
+      <c r="A225" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B225" s="4">
         <v>44905</v>
       </c>
-      <c r="C224" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D224" s="3" t="s">
+      <c r="C225" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D225" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B225" s="7">
-        <v>44905</v>
-      </c>
-      <c r="C225" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B226" s="7">
+        <v>44905</v>
+      </c>
+      <c r="C226" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B226" s="7">
+      <c r="B227" s="7">
         <v>44906</v>
       </c>
-      <c r="C226" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D226" s="6" t="s">
+      <c r="C227" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B227" s="4">
-        <v>44906</v>
-      </c>
-      <c r="C227" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B228" s="4">
         <v>44906</v>
       </c>
       <c r="C228" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229" s="4">
+        <v>44906</v>
+      </c>
+      <c r="C229" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D229" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B229" s="7">
-        <v>44907</v>
-      </c>
-      <c r="C229" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B230" s="7">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="C230" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B231" s="7">
         <v>44908</v>
       </c>
       <c r="C231" s="8">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B232" s="7">
+        <v>44908</v>
+      </c>
+      <c r="C232" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B232" s="7">
+      <c r="B233" s="7">
         <v>44909</v>
       </c>
-      <c r="C232" s="8">
+      <c r="C233" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D233" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="25.5">
-      <c r="A233" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B233" s="4">
-        <v>44909</v>
-      </c>
-      <c r="C233" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="25.5">
       <c r="A234" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B234" s="4">
         <v>44909</v>
       </c>
       <c r="C234" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="25.5">
+      <c r="A235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B235" s="4">
+        <v>44909</v>
+      </c>
+      <c r="C235" s="5">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="6" t="s">
+    <row r="236" spans="1:4">
+      <c r="A236" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="7">
+      <c r="B236" s="7">
         <v>44909</v>
       </c>
-      <c r="C235" s="8">
+      <c r="C236" s="8">
         <v>0.75</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D236" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="3" t="s">
+    <row r="237" spans="1:4">
+      <c r="A237" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B237" s="4">
         <v>44910</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C237" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="6" t="s">
+    <row r="238" spans="1:4">
+      <c r="A238" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B237" s="7">
+      <c r="B238" s="7">
         <v>44910</v>
       </c>
-      <c r="C237" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D237" s="6" t="s">
+      <c r="C238" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="3" t="s">
+    <row r="239" spans="1:4">
+      <c r="A239" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B239" s="4">
         <v>44910</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C239" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="25.5">
-      <c r="A239" s="6" t="s">
+    <row r="240" spans="1:4" ht="25.5">
+      <c r="A240" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B240" s="7">
         <v>44911</v>
       </c>
-      <c r="C239" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D239" s="6" t="s">
+      <c r="C240" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="3" t="s">
+    <row r="241" spans="1:4">
+      <c r="A241" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B241" s="4">
         <v>44912</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C241" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="6" t="s">
+    <row r="242" spans="1:4">
+      <c r="A242" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B242" s="12">
         <v>44912</v>
       </c>
-      <c r="C241" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D241" s="6" t="s">
+      <c r="C242" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D242" s="14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B242" s="10">
-        <v>44913</v>
-      </c>
-      <c r="C242" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D242" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4716,642 +4731,689 @@
         <v>44913</v>
       </c>
       <c r="C243" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D243" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B244" s="10">
+        <v>44913</v>
+      </c>
+      <c r="C244" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D244" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="6" t="s">
+    <row r="245" spans="1:4">
+      <c r="A245" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B244" s="12">
+      <c r="B245" s="12">
         <v>44913</v>
       </c>
-      <c r="C244" s="13">
+      <c r="C245" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="D245" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="25.5">
-      <c r="A245" s="6" t="s">
+    <row r="246" spans="1:4" ht="25.5">
+      <c r="A246" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B245" s="12">
+      <c r="B246" s="12">
         <v>44914</v>
       </c>
-      <c r="C245" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D245" s="14" t="s">
+      <c r="C246" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D246" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="25.5">
-      <c r="A246" s="15" t="s">
+    <row r="247" spans="1:4" ht="25.5">
+      <c r="A247" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B246" s="10">
+      <c r="B247" s="10">
         <v>44916</v>
       </c>
-      <c r="C246" s="11">
+      <c r="C247" s="11">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D246" s="15" t="s">
+      <c r="D247" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="3" t="s">
+    <row r="248" spans="1:4">
+      <c r="A248" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B247" s="10">
+      <c r="B248" s="12">
+        <v>44916</v>
+      </c>
+      <c r="C248" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B249" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C249" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B250" s="4">
         <v>44918</v>
       </c>
-      <c r="C247" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D247" s="15" t="s">
+      <c r="C250" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D250" s="3" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D247" xr:uid="{6BAB8865-2FD4-4A72-BBF1-24CCA74BF95D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D247">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D250">
       <sortCondition ref="B1:B247"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A146:D146 A148 A151:D151 A153 A156 A164:D165 A161:D161 A167 A178">
-    <cfRule type="expression" dxfId="113" priority="125">
+    <cfRule type="expression" dxfId="116" priority="126">
       <formula>$N146="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D148">
-    <cfRule type="expression" dxfId="112" priority="124">
+    <cfRule type="expression" dxfId="115" priority="125">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147:D147">
-    <cfRule type="expression" dxfId="111" priority="123">
+    <cfRule type="expression" dxfId="114" priority="124">
       <formula>$N147="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B148">
-    <cfRule type="expression" dxfId="110" priority="122">
+    <cfRule type="expression" dxfId="113" priority="123">
       <formula>$N148="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149:D149">
-    <cfRule type="expression" dxfId="109" priority="121">
+    <cfRule type="expression" dxfId="112" priority="122">
       <formula>$N149="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:D150">
-    <cfRule type="expression" dxfId="108" priority="120">
+    <cfRule type="expression" dxfId="111" priority="121">
       <formula>$N150="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:D152">
-    <cfRule type="expression" dxfId="107" priority="119">
+    <cfRule type="expression" dxfId="110" priority="120">
       <formula>$N152="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D153">
-    <cfRule type="expression" dxfId="106" priority="118">
+    <cfRule type="expression" dxfId="109" priority="119">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153">
-    <cfRule type="expression" dxfId="105" priority="117">
+    <cfRule type="expression" dxfId="108" priority="118">
       <formula>$N153="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A154:D154">
-    <cfRule type="expression" dxfId="104" priority="116">
+    <cfRule type="expression" dxfId="107" priority="117">
       <formula>$N154="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:C155">
-    <cfRule type="expression" dxfId="103" priority="115">
+    <cfRule type="expression" dxfId="106" priority="116">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="102" priority="114">
+    <cfRule type="expression" dxfId="105" priority="115">
       <formula>$N155="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:D156">
-    <cfRule type="expression" dxfId="101" priority="113">
+    <cfRule type="expression" dxfId="104" priority="114">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="expression" dxfId="100" priority="112">
+    <cfRule type="expression" dxfId="103" priority="113">
       <formula>$N156="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:D157">
-    <cfRule type="expression" dxfId="99" priority="111">
+    <cfRule type="expression" dxfId="102" priority="112">
       <formula>$N157="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:D158">
-    <cfRule type="expression" dxfId="98" priority="110">
+    <cfRule type="expression" dxfId="101" priority="111">
       <formula>$N158="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:D159">
-    <cfRule type="expression" dxfId="97" priority="109">
+    <cfRule type="expression" dxfId="100" priority="110">
       <formula>$N159="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160:D160">
-    <cfRule type="expression" dxfId="96" priority="108">
+    <cfRule type="expression" dxfId="99" priority="109">
       <formula>$N160="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:D162">
-    <cfRule type="expression" dxfId="95" priority="107">
+    <cfRule type="expression" dxfId="98" priority="108">
       <formula>$N162="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163:D163">
-    <cfRule type="expression" dxfId="94" priority="106">
+    <cfRule type="expression" dxfId="97" priority="107">
       <formula>$N163="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166">
-    <cfRule type="expression" dxfId="93" priority="105">
+    <cfRule type="expression" dxfId="96" priority="106">
       <formula>$N166="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167:D167">
-    <cfRule type="expression" dxfId="92" priority="104">
+    <cfRule type="expression" dxfId="95" priority="105">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="expression" dxfId="91" priority="103">
+    <cfRule type="expression" dxfId="94" priority="104">
       <formula>$N167="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168:D168">
-    <cfRule type="expression" dxfId="90" priority="102">
+    <cfRule type="expression" dxfId="93" priority="103">
       <formula>$N168="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:D169">
-    <cfRule type="expression" dxfId="89" priority="101">
+    <cfRule type="expression" dxfId="92" priority="102">
       <formula>$N169="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:D170">
-    <cfRule type="expression" dxfId="88" priority="100">
+    <cfRule type="expression" dxfId="91" priority="101">
       <formula>$N170="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:D171">
-    <cfRule type="expression" dxfId="87" priority="91">
+    <cfRule type="expression" dxfId="90" priority="92">
       <formula>$N171="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:D172">
-    <cfRule type="expression" dxfId="86" priority="90">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$N172="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:D173">
-    <cfRule type="expression" dxfId="85" priority="89">
+    <cfRule type="expression" dxfId="88" priority="90">
       <formula>$N173="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174:D174">
-    <cfRule type="expression" dxfId="84" priority="88">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>$N174="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:D175">
-    <cfRule type="expression" dxfId="83" priority="87">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$N175="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:D177">
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>$N177="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179:D179">
-    <cfRule type="expression" dxfId="81" priority="85">
+    <cfRule type="expression" dxfId="84" priority="86">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="expression" dxfId="80" priority="84">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:D178">
-    <cfRule type="expression" dxfId="79" priority="83">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$N178="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="expression" dxfId="78" priority="82">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$N179="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="expression" dxfId="77" priority="81">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:D180">
-    <cfRule type="expression" dxfId="76" priority="80">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>$N180="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181:D181">
-    <cfRule type="expression" dxfId="75" priority="79">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>$N181="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183:D183">
-    <cfRule type="expression" dxfId="74" priority="78">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>$N183="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="expression" dxfId="73" priority="77">
+    <cfRule type="expression" dxfId="76" priority="78">
       <formula>$N182="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="expression" dxfId="72" priority="76">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>$N184="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:D185">
-    <cfRule type="expression" dxfId="71" priority="75">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$N185="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186:D186">
-    <cfRule type="expression" dxfId="70" priority="74">
+    <cfRule type="expression" dxfId="73" priority="75">
       <formula>$N186="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188:D188">
-    <cfRule type="expression" dxfId="69" priority="73">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>$N188="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187:D187">
-    <cfRule type="expression" dxfId="68" priority="72">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$N187="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189:D189">
-    <cfRule type="expression" dxfId="67" priority="71">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>$N189="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190:D190">
-    <cfRule type="expression" dxfId="65" priority="69">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>$N190="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191:D191">
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$N191="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193:D193 A192:A193">
-    <cfRule type="expression" dxfId="63" priority="67">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:D192">
-    <cfRule type="expression" dxfId="62" priority="66">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$O192="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:D194">
-    <cfRule type="expression" dxfId="60" priority="64">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$O194="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:D195">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$O195="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196">
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:D196">
-    <cfRule type="expression" dxfId="57" priority="61">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$O196="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A197:D197">
-    <cfRule type="expression" dxfId="56" priority="60">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$O197="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198:D198">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>$O198="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B199:D199">
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>$O199="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201:D201">
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$O201="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200:D200">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$O200="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202:D202">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="53" priority="52">
       <formula>$O202="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:D205 A203:D203">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="52" priority="51">
       <formula>$O203="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="51" priority="50">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="50" priority="49">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>$O206="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B204:D204 B206:D206">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>$O204="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>$O205="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:D207">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>$O207="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208:D208">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="45" priority="44">
       <formula>$O208="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A212">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>$O209="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:D209 B211:D211">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="43" priority="42">
       <formula>$O209="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B212:D212 B210:D210">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="42" priority="41">
       <formula>$O210="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213:D213">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="41" priority="40">
       <formula>$O213="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214:D214">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="40" priority="39">
       <formula>$O214="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215:A216">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="39" priority="38">
       <formula>$O215="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215:D215">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>$O215="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:D216">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="37" priority="36">
       <formula>$O216="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217:D217">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="36" priority="35">
       <formula>$O217="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:C218">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>$O218="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D218">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>$O218="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A219">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>$O219="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219:D219">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>$O219="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222:D222">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="31" priority="30">
       <formula>$O222="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220:D220">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>$O220="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$O221="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221:D221">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="27">
       <formula>$O221="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223:D223">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$O223="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>$O224="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B224:D224">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="25" priority="24">
       <formula>$O224="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:D225 A227:D227">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="24" priority="23">
       <formula>$O225="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A226:D226 A228:D228">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="23" priority="22">
       <formula>$O226="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>$O229="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229:D229">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>$O229="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>$O230="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:D230">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$O230="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233:D233 A231:D231 A235:D235">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$O231="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232:D232 A234:D234">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$O232="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$O233="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$O236="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B236:D236">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$O236="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$O237="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237:D237">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>$O237="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238:D238">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$O238="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241:D241 A239:C239">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$O239="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>$O240="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B240:D240">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$O240="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D239">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$O239="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$O242="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$O244="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$O245="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$O247="NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250:D250">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$O247="NO"</formula>
+      <formula>$O250="NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
